--- a/forecasts_folder/p90_forecast.xlsx
+++ b/forecasts_folder/p90_forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/forecasts_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{307B7E68-2E1C-4F9C-8531-DABDFB3BF0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EA2FE4E-DFB8-49F8-8161-DA2A91ECA75E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{307B7E68-2E1C-4F9C-8531-DABDFB3BF0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4897D99-7A1C-4C47-99B1-58929B99052A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BB49CF0C-2FE8-4923-9EC0-F82C871E6236}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BB49CF0C-2FE8-4923-9EC0-F82C871E6236}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>ASIN</t>
   </si>
@@ -47,167 +47,198 @@
     <t>Brand</t>
   </si>
   <si>
-    <t>Week 0 (17 Nov - 23 Nov)</t>
-  </si>
-  <si>
-    <t>Week 1 (24 Nov - 30 Nov)</t>
-  </si>
-  <si>
-    <t>Week 2 (1 Dec - 7 Dec)</t>
-  </si>
-  <si>
-    <t>Week 3 (8 Dec - 14 Dec)</t>
-  </si>
-  <si>
-    <t>Week 4 (15 Dec - 21 Dec)</t>
-  </si>
-  <si>
-    <t>Week 5 (22 Dec - 28 Dec)</t>
-  </si>
-  <si>
-    <t>Week 6 (29 Dec - 4 Jan)</t>
-  </si>
-  <si>
-    <t>Week 7 (5 Jan - 11 Jan)</t>
-  </si>
-  <si>
-    <t>Week 8 (12 Jan - 18 Jan)</t>
-  </si>
-  <si>
-    <t>Week 9 (19 Jan - 25 Jan)</t>
-  </si>
-  <si>
-    <t>Week 10 (26 Jan - 1 Feb)</t>
-  </si>
-  <si>
-    <t>Week 11 (2 Feb - 8 Feb)</t>
-  </si>
-  <si>
-    <t>Week 12 (9 Feb - 15 Feb)</t>
-  </si>
-  <si>
-    <t>Week 13 (16 Feb - 22 Feb)</t>
-  </si>
-  <si>
-    <t>Week 14 (23 Feb - 1 Mar)</t>
-  </si>
-  <si>
-    <t>Week 15 (2 Mar - 8 Mar)</t>
-  </si>
-  <si>
-    <t>Week 16 (9 Mar - 15 Mar)</t>
-  </si>
-  <si>
-    <t>Week 17 (16 Mar - 22 Mar)</t>
-  </si>
-  <si>
-    <t>Week 18 (23 Mar - 29 Mar)</t>
-  </si>
-  <si>
-    <t>Week 19 (30 Mar - 5 Apr)</t>
-  </si>
-  <si>
-    <t>Week 20 (6 Apr - 12 Apr)</t>
-  </si>
-  <si>
-    <t>Week 21 (13 Apr - 19 Apr)</t>
-  </si>
-  <si>
-    <t>Week 22 (20 Apr - 26 Apr)</t>
-  </si>
-  <si>
-    <t>Week 23 (27 Apr - 3 May)</t>
-  </si>
-  <si>
-    <t>Week 24 (4 May - 10 May)</t>
-  </si>
-  <si>
-    <t>Week 25 (11 May - 17 May)</t>
-  </si>
-  <si>
-    <t>Week 26 (18 May - 24 May)</t>
-  </si>
-  <si>
-    <t>Week 27 (25 May - 31 May)</t>
-  </si>
-  <si>
-    <t>Week 28 (1 Jun - 7 Jun)</t>
-  </si>
-  <si>
-    <t>Week 29 (8 Jun - 14 Jun)</t>
-  </si>
-  <si>
-    <t>Week 30 (15 Jun - 21 Jun)</t>
-  </si>
-  <si>
-    <t>Week 31 (22 Jun - 28 Jun)</t>
-  </si>
-  <si>
-    <t>Week 32 (29 Jun - 5 Jul)</t>
-  </si>
-  <si>
-    <t>Week 33 (6 Jul - 12 Jul)</t>
-  </si>
-  <si>
-    <t>Week 34 (13 Jul - 19 Jul)</t>
-  </si>
-  <si>
-    <t>Week 35 (20 Jul - 26 Jul)</t>
-  </si>
-  <si>
-    <t>Week 36 (27 Jul - 2 Aug)</t>
-  </si>
-  <si>
-    <t>Week 37 (3 Aug - 9 Aug)</t>
-  </si>
-  <si>
-    <t>Week 38 (10 Aug - 16 Aug)</t>
-  </si>
-  <si>
-    <t>Week 39 (17 Aug - 23 Aug)</t>
-  </si>
-  <si>
-    <t>Week 40 (24 Aug - 30 Aug)</t>
-  </si>
-  <si>
-    <t>Week 41 (31 Aug - 6 Sep)</t>
-  </si>
-  <si>
-    <t>Week 42 (7 Sep - 13 Sep)</t>
-  </si>
-  <si>
-    <t>Week 43 (14 Sep - 20 Sep)</t>
-  </si>
-  <si>
-    <t>Week 44 (21 Sep - 27 Sep)</t>
-  </si>
-  <si>
-    <t>Week 45 (28 Sep - 4 Oct)</t>
-  </si>
-  <si>
-    <t>Week 46 (5 Oct - 11 Oct)</t>
-  </si>
-  <si>
-    <t>Week 47 (12 Oct - 18 Oct)</t>
-  </si>
-  <si>
-    <t>B091HTG6DQ</t>
-  </si>
-  <si>
-    <t>GC-WBAX210</t>
-  </si>
-  <si>
     <t>GIGABYTE</t>
+  </si>
+  <si>
+    <t>B08F7HPJ4F</t>
+  </si>
+  <si>
+    <t>Gigabyte A520M S2H (AMD Ryzen AM4/MicroATX/4+3 Phases Digital PWM/Gigabyte Gaming GbE LAN/NVMe PCIe 3.0 x4 M.2/3 Display Interfaces/Q-Flash Plus/RGB Fusion 2.0/Motherboard)</t>
+  </si>
+  <si>
+    <t>B08F7BHDLY</t>
+  </si>
+  <si>
+    <t>Gigabyte A520I AC (AMD Ryzen AM4/Mini-ITX/Direct 6 Phases Digital PWM with 55A DrMOS/Gaming GbE LAN/Intel WiFi+Bluetooth/NVMe PCIe 3.0 x4 M.2/3 Display Interfaces/Q-Flash Plus/Motherboard)</t>
+  </si>
+  <si>
+    <t>B083RVN2VG</t>
+  </si>
+  <si>
+    <t>GIGABYTE A620I AX (AM5/ LGA 1718/ AMD/ A620/ Mini-ITX/ 5-Year Warranty/ DDR5/ Single M.2/ PCIe 4.0/ USB 3.2 Gen1 Type-C/Realtek Wi-Fi 6E/ Realtek 2.5GbE/ Q-Flash Plus/PCIe EZ-Latch/Motherboard)</t>
+  </si>
+  <si>
+    <t>B0D2V2FPS7</t>
+  </si>
+  <si>
+    <t>GIGABYTE A620M Gaming X AX (Rev. 1.1) AM5 LGA 1718 AMD A620 M-ATX, DDR5, PCIe 4.0 M.2, PCIe 4.0, USB 3.2 Gen1x2 Type-C, Wi-Fi 6E, Realtek 1GbE LAN, Q-Flash Plus, PCIe EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0C1ZZ57ZW</t>
+  </si>
+  <si>
+    <t>GIGABYTE A620M Gaming X AMD A620 Micro ATX Motherboard with DDR5, PCIe 4.0, USB 3.2 Gen1x2 Type-C, 5-Year Warranty</t>
+  </si>
+  <si>
+    <t>Week 0 (1 Dec - 7 Dec)</t>
+  </si>
+  <si>
+    <t>Week 1 (8 Dec - 14 Dec)</t>
+  </si>
+  <si>
+    <t>Week 2 (15 Dec - 21 Dec)</t>
+  </si>
+  <si>
+    <t>Week 3 (22 Dec - 28 Dec)</t>
+  </si>
+  <si>
+    <t>Week 4 (29 Dec - 4 Jan)</t>
+  </si>
+  <si>
+    <t>Week 5 (5 Jan - 11 Jan)</t>
+  </si>
+  <si>
+    <t>Week 6 (12 Jan - 18 Jan)</t>
+  </si>
+  <si>
+    <t>Week 7 (19 Jan - 25 Jan)</t>
+  </si>
+  <si>
+    <t>Week 8 (26 Jan - 1 Feb)</t>
+  </si>
+  <si>
+    <t>Week 9 (2 Feb - 8 Feb)</t>
+  </si>
+  <si>
+    <t>Week 10 (9 Feb - 15 Feb)</t>
+  </si>
+  <si>
+    <t>Week 11 (16 Feb - 22 Feb)</t>
+  </si>
+  <si>
+    <t>Week 12 (23 Feb - 1 Mar)</t>
+  </si>
+  <si>
+    <t>Week 13 (2 Mar - 8 Mar)</t>
+  </si>
+  <si>
+    <t>Week 14 (9 Mar - 15 Mar)</t>
+  </si>
+  <si>
+    <t>Week 15 (16 Mar - 22 Mar)</t>
+  </si>
+  <si>
+    <t>Week 16 (23 Mar - 29 Mar)</t>
+  </si>
+  <si>
+    <t>Week 17 (30 Mar - 5 Apr)</t>
+  </si>
+  <si>
+    <t>Week 18 (6 Apr - 12 Apr)</t>
+  </si>
+  <si>
+    <t>Week 19 (13 Apr - 19 Apr)</t>
+  </si>
+  <si>
+    <t>Week 20 (20 Apr - 26 Apr)</t>
+  </si>
+  <si>
+    <t>Week 21 (27 Apr - 3 May)</t>
+  </si>
+  <si>
+    <t>Week 22 (4 May - 10 May)</t>
+  </si>
+  <si>
+    <t>Week 23 (11 May - 17 May)</t>
+  </si>
+  <si>
+    <t>Week 24 (18 May - 24 May)</t>
+  </si>
+  <si>
+    <t>Week 25 (25 May - 31 May)</t>
+  </si>
+  <si>
+    <t>Week 26 (1 Jun - 7 Jun)</t>
+  </si>
+  <si>
+    <t>Week 27 (8 Jun - 14 Jun)</t>
+  </si>
+  <si>
+    <t>Week 28 (15 Jun - 21 Jun)</t>
+  </si>
+  <si>
+    <t>Week 29 (22 Jun - 28 Jun)</t>
+  </si>
+  <si>
+    <t>Week 30 (29 Jun - 5 Jul)</t>
+  </si>
+  <si>
+    <t>Week 31 (6 Jul - 12 Jul)</t>
+  </si>
+  <si>
+    <t>Week 32 (13 Jul - 19 Jul)</t>
+  </si>
+  <si>
+    <t>Week 33 (20 Jul - 26 Jul)</t>
+  </si>
+  <si>
+    <t>Week 34 (27 Jul - 2 Aug)</t>
+  </si>
+  <si>
+    <t>Week 35 (3 Aug - 9 Aug)</t>
+  </si>
+  <si>
+    <t>Week 36 (10 Aug - 16 Aug)</t>
+  </si>
+  <si>
+    <t>Week 37 (17 Aug - 23 Aug)</t>
+  </si>
+  <si>
+    <t>Week 38 (24 Aug - 30 Aug)</t>
+  </si>
+  <si>
+    <t>Week 39 (31 Aug - 6 Sep)</t>
+  </si>
+  <si>
+    <t>Week 40 (7 Sep - 13 Sep)</t>
+  </si>
+  <si>
+    <t>Week 41 (14 Sep - 20 Sep)</t>
+  </si>
+  <si>
+    <t>Week 42 (21 Sep - 27 Sep)</t>
+  </si>
+  <si>
+    <t>Week 43 (28 Sep - 4 Oct)</t>
+  </si>
+  <si>
+    <t>Week 44 (5 Oct - 11 Oct)</t>
+  </si>
+  <si>
+    <t>Week 45 (12 Oct - 18 Oct)</t>
+  </si>
+  <si>
+    <t>Week 46 (19 Oct - 25 Oct)</t>
+  </si>
+  <si>
+    <t>Week 47 (26 Oct - 1 Nov)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -248,18 +279,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{067988B8-AED1-4A78-BCDA-90565EBED26D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -591,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3F234E-C0CB-4379-BFE0-3FA5F0C15553}">
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:AY2"/>
+      <selection activeCell="D1" sqref="D1:AY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,307 +642,928 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="J1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="K1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="L1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="M1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="N1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="O1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="P1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="R1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="S1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="T1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="U1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="V1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="W1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="X1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AK1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AN1" s="4" t="s">
         <v>50</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>344</v>
+      </c>
+      <c r="E2" s="2">
+        <v>199</v>
+      </c>
+      <c r="F2" s="2">
+        <v>162</v>
+      </c>
+      <c r="G2" s="2">
+        <v>207</v>
+      </c>
+      <c r="H2" s="2">
+        <v>164</v>
+      </c>
+      <c r="I2" s="2">
+        <v>133</v>
+      </c>
+      <c r="J2" s="2">
+        <v>142</v>
+      </c>
+      <c r="K2" s="2">
+        <v>129</v>
+      </c>
+      <c r="L2" s="2">
+        <v>128</v>
+      </c>
+      <c r="M2" s="2">
+        <v>128</v>
+      </c>
+      <c r="N2" s="2">
+        <v>136</v>
+      </c>
+      <c r="O2" s="2">
+        <v>140</v>
+      </c>
+      <c r="P2" s="2">
+        <v>131</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>128</v>
+      </c>
+      <c r="R2" s="2">
+        <v>128</v>
+      </c>
+      <c r="S2" s="2">
+        <v>127</v>
+      </c>
+      <c r="T2" s="2">
+        <v>122</v>
+      </c>
+      <c r="U2" s="2">
+        <v>116</v>
+      </c>
+      <c r="V2" s="2">
+        <v>131</v>
+      </c>
+      <c r="W2" s="2">
+        <v>120</v>
+      </c>
+      <c r="X2" s="2">
+        <v>118</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>117</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>115</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>109</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>111</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>113</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>106</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>109</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>109</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>109</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>106</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>108</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>107</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>104</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>102</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>98</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>99</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>95</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>92</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>95</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>242</v>
+      </c>
+      <c r="E3">
+        <v>155</v>
+      </c>
+      <c r="F3">
+        <v>147</v>
+      </c>
+      <c r="G3">
+        <v>186</v>
+      </c>
+      <c r="H3">
+        <v>146</v>
+      </c>
+      <c r="I3">
+        <v>138</v>
+      </c>
+      <c r="J3">
+        <v>141</v>
+      </c>
+      <c r="K3">
+        <v>136</v>
+      </c>
+      <c r="L3">
+        <v>134</v>
+      </c>
+      <c r="M3">
+        <v>146</v>
+      </c>
+      <c r="N3">
+        <v>156</v>
+      </c>
+      <c r="O3">
+        <v>155</v>
+      </c>
+      <c r="P3">
+        <v>144</v>
+      </c>
+      <c r="Q3">
+        <v>144</v>
+      </c>
+      <c r="R3">
+        <v>148</v>
+      </c>
+      <c r="S3">
+        <v>146</v>
+      </c>
+      <c r="T3">
+        <v>137</v>
+      </c>
+      <c r="U3">
+        <v>132</v>
+      </c>
+      <c r="V3">
+        <v>144</v>
+      </c>
+      <c r="W3">
+        <v>134</v>
+      </c>
+      <c r="X3">
+        <v>134</v>
+      </c>
+      <c r="Y3">
+        <v>126</v>
+      </c>
+      <c r="Z3">
+        <v>125</v>
+      </c>
+      <c r="AA3">
+        <v>123</v>
+      </c>
+      <c r="AB3">
+        <v>126</v>
+      </c>
+      <c r="AC3">
+        <v>110</v>
+      </c>
+      <c r="AD3">
+        <v>115</v>
+      </c>
+      <c r="AE3">
+        <v>111</v>
+      </c>
+      <c r="AF3">
+        <v>103</v>
+      </c>
+      <c r="AG3">
+        <v>119</v>
+      </c>
+      <c r="AH3">
+        <v>110</v>
+      </c>
+      <c r="AI3">
+        <v>119</v>
+      </c>
+      <c r="AJ3">
+        <v>170</v>
+      </c>
+      <c r="AK3">
+        <v>165</v>
+      </c>
+      <c r="AL3">
+        <v>113</v>
+      </c>
+      <c r="AM3">
+        <v>112</v>
+      </c>
+      <c r="AN3">
+        <v>106</v>
+      </c>
+      <c r="AO3">
+        <v>103</v>
+      </c>
+      <c r="AP3">
+        <v>105</v>
+      </c>
+      <c r="AQ3">
+        <v>106</v>
+      </c>
+      <c r="AR3">
+        <v>102</v>
+      </c>
+      <c r="AS3">
+        <v>98</v>
+      </c>
+      <c r="AT3">
+        <v>94</v>
+      </c>
+      <c r="AU3">
+        <v>96</v>
+      </c>
+      <c r="AV3">
+        <v>95</v>
+      </c>
+      <c r="AW3">
+        <v>94</v>
+      </c>
+      <c r="AX3">
+        <v>95</v>
+      </c>
+      <c r="AY3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>202</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4">
+        <v>106</v>
+      </c>
+      <c r="G4">
+        <v>125</v>
+      </c>
+      <c r="H4">
+        <v>97</v>
+      </c>
+      <c r="I4">
+        <v>98</v>
+      </c>
+      <c r="J4">
+        <v>104</v>
+      </c>
+      <c r="K4">
+        <v>97</v>
+      </c>
+      <c r="L4">
+        <v>97</v>
+      </c>
+      <c r="M4">
+        <v>105</v>
+      </c>
+      <c r="N4">
+        <v>120</v>
+      </c>
+      <c r="O4">
+        <v>120</v>
+      </c>
+      <c r="P4">
+        <v>114</v>
+      </c>
+      <c r="Q4">
+        <v>115</v>
+      </c>
+      <c r="R4">
+        <v>117</v>
+      </c>
+      <c r="S4">
+        <v>116</v>
+      </c>
+      <c r="T4">
+        <v>112</v>
+      </c>
+      <c r="U4">
+        <v>107</v>
+      </c>
+      <c r="V4">
+        <v>118</v>
+      </c>
+      <c r="W4">
+        <v>110</v>
+      </c>
+      <c r="X4">
+        <v>110</v>
+      </c>
+      <c r="Y4">
+        <v>106</v>
+      </c>
+      <c r="Z4">
+        <v>106</v>
+      </c>
+      <c r="AA4">
+        <v>103</v>
+      </c>
+      <c r="AB4">
+        <v>108</v>
+      </c>
+      <c r="AC4">
+        <v>99</v>
+      </c>
+      <c r="AD4">
+        <v>99</v>
+      </c>
+      <c r="AE4">
+        <v>96</v>
+      </c>
+      <c r="AF4">
+        <v>87</v>
+      </c>
+      <c r="AG4">
+        <v>95</v>
+      </c>
+      <c r="AH4">
+        <v>89</v>
+      </c>
+      <c r="AI4">
+        <v>101</v>
+      </c>
+      <c r="AJ4">
+        <v>132</v>
+      </c>
+      <c r="AK4">
+        <v>131</v>
+      </c>
+      <c r="AL4">
+        <v>99</v>
+      </c>
+      <c r="AM4">
+        <v>96</v>
+      </c>
+      <c r="AN4">
+        <v>90</v>
+      </c>
+      <c r="AO4">
+        <v>92</v>
+      </c>
+      <c r="AP4">
+        <v>96</v>
+      </c>
+      <c r="AQ4">
+        <v>95</v>
+      </c>
+      <c r="AR4">
+        <v>91</v>
+      </c>
+      <c r="AS4">
+        <v>87</v>
+      </c>
+      <c r="AT4">
+        <v>88</v>
+      </c>
+      <c r="AU4">
+        <v>92</v>
+      </c>
+      <c r="AV4">
+        <v>89</v>
+      </c>
+      <c r="AW4">
+        <v>89</v>
+      </c>
+      <c r="AX4">
+        <v>82</v>
+      </c>
+      <c r="AY4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1208</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1703</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1431</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1124</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1163</v>
-      </c>
-      <c r="I2" s="3">
-        <v>949</v>
-      </c>
-      <c r="J2" s="3">
-        <v>863</v>
-      </c>
-      <c r="K2" s="3">
-        <v>895</v>
-      </c>
-      <c r="L2" s="3">
-        <v>855</v>
-      </c>
-      <c r="M2" s="3">
-        <v>819</v>
-      </c>
-      <c r="N2" s="3">
-        <v>837</v>
-      </c>
-      <c r="O2" s="3">
-        <v>839</v>
-      </c>
-      <c r="P2" s="3">
-        <v>826</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>804</v>
-      </c>
-      <c r="R2" s="3">
-        <v>810</v>
-      </c>
-      <c r="S2" s="3">
-        <v>809</v>
-      </c>
-      <c r="T2" s="3">
-        <v>810</v>
-      </c>
-      <c r="U2" s="3">
-        <v>824</v>
-      </c>
-      <c r="V2" s="3">
-        <v>840</v>
-      </c>
-      <c r="W2" s="3">
-        <v>801</v>
-      </c>
-      <c r="X2" s="3">
-        <v>814</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>802</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>792</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>778</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>792</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>780</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>766</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>783</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>750</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>780</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>772</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>784</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>762</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>1061</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>1097</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>751</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>751</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>773</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>776</v>
-      </c>
-      <c r="AQ2" s="3">
-        <v>807</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>776</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>788</v>
-      </c>
-      <c r="AT2" s="3">
-        <v>737</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>767</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>758</v>
-      </c>
-      <c r="AW2" s="3">
-        <v>735</v>
-      </c>
-      <c r="AX2" s="3">
-        <v>702</v>
-      </c>
-      <c r="AY2" s="4">
-        <v>716</v>
+      <c r="E5">
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>31</v>
+      </c>
+      <c r="L5">
+        <v>33</v>
+      </c>
+      <c r="M5">
+        <v>36</v>
+      </c>
+      <c r="N5">
+        <v>35</v>
+      </c>
+      <c r="O5">
+        <v>33</v>
+      </c>
+      <c r="P5">
+        <v>32</v>
+      </c>
+      <c r="Q5">
+        <v>34</v>
+      </c>
+      <c r="R5">
+        <v>37</v>
+      </c>
+      <c r="S5">
+        <v>36</v>
+      </c>
+      <c r="T5">
+        <v>37</v>
+      </c>
+      <c r="U5">
+        <v>35</v>
+      </c>
+      <c r="V5">
+        <v>38</v>
+      </c>
+      <c r="W5">
+        <v>37</v>
+      </c>
+      <c r="X5">
+        <v>36</v>
+      </c>
+      <c r="Y5">
+        <v>35</v>
+      </c>
+      <c r="Z5">
+        <v>36</v>
+      </c>
+      <c r="AA5">
+        <v>35</v>
+      </c>
+      <c r="AB5">
+        <v>35</v>
+      </c>
+      <c r="AC5">
+        <v>32</v>
+      </c>
+      <c r="AD5">
+        <v>32</v>
+      </c>
+      <c r="AE5">
+        <v>31</v>
+      </c>
+      <c r="AF5">
+        <v>29</v>
+      </c>
+      <c r="AG5">
+        <v>32</v>
+      </c>
+      <c r="AH5">
+        <v>29</v>
+      </c>
+      <c r="AI5">
+        <v>33</v>
+      </c>
+      <c r="AJ5">
+        <v>47</v>
+      </c>
+      <c r="AK5">
+        <v>43</v>
+      </c>
+      <c r="AL5">
+        <v>31</v>
+      </c>
+      <c r="AM5">
+        <v>31</v>
+      </c>
+      <c r="AN5">
+        <v>28</v>
+      </c>
+      <c r="AO5">
+        <v>28</v>
+      </c>
+      <c r="AP5">
+        <v>30</v>
+      </c>
+      <c r="AQ5">
+        <v>28</v>
+      </c>
+      <c r="AR5">
+        <v>27</v>
+      </c>
+      <c r="AS5">
+        <v>26</v>
+      </c>
+      <c r="AT5">
+        <v>25</v>
+      </c>
+      <c r="AU5">
+        <v>26</v>
+      </c>
+      <c r="AV5">
+        <v>25</v>
+      </c>
+      <c r="AW5">
+        <v>24</v>
+      </c>
+      <c r="AX5">
+        <v>26</v>
+      </c>
+      <c r="AY5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <v>17</v>
+      </c>
+      <c r="M6">
+        <v>19</v>
+      </c>
+      <c r="N6">
+        <v>16</v>
+      </c>
+      <c r="O6">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <v>15</v>
+      </c>
+      <c r="Q6">
+        <v>16</v>
+      </c>
+      <c r="R6">
+        <v>18</v>
+      </c>
+      <c r="S6">
+        <v>18</v>
+      </c>
+      <c r="T6">
+        <v>15</v>
+      </c>
+      <c r="U6">
+        <v>14</v>
+      </c>
+      <c r="V6">
+        <v>17</v>
+      </c>
+      <c r="W6">
+        <v>14</v>
+      </c>
+      <c r="X6">
+        <v>15</v>
+      </c>
+      <c r="Y6">
+        <v>12</v>
+      </c>
+      <c r="Z6">
+        <v>12</v>
+      </c>
+      <c r="AA6">
+        <v>11</v>
+      </c>
+      <c r="AB6">
+        <v>12</v>
+      </c>
+      <c r="AC6">
+        <v>10</v>
+      </c>
+      <c r="AD6">
+        <v>10</v>
+      </c>
+      <c r="AE6">
+        <v>9</v>
+      </c>
+      <c r="AF6">
+        <v>9</v>
+      </c>
+      <c r="AG6">
+        <v>9</v>
+      </c>
+      <c r="AH6">
+        <v>8</v>
+      </c>
+      <c r="AI6">
+        <v>9</v>
+      </c>
+      <c r="AJ6">
+        <v>10</v>
+      </c>
+      <c r="AK6">
+        <v>9</v>
+      </c>
+      <c r="AL6">
+        <v>8</v>
+      </c>
+      <c r="AM6">
+        <v>7</v>
+      </c>
+      <c r="AN6">
+        <v>7</v>
+      </c>
+      <c r="AO6">
+        <v>7</v>
+      </c>
+      <c r="AP6">
+        <v>6</v>
+      </c>
+      <c r="AQ6">
+        <v>6</v>
+      </c>
+      <c r="AR6">
+        <v>6</v>
+      </c>
+      <c r="AS6">
+        <v>6</v>
+      </c>
+      <c r="AT6">
+        <v>6</v>
+      </c>
+      <c r="AU6">
+        <v>5</v>
+      </c>
+      <c r="AV6">
+        <v>5</v>
+      </c>
+      <c r="AW6">
+        <v>5</v>
+      </c>
+      <c r="AX6">
+        <v>5</v>
+      </c>
+      <c r="AY6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/forecasts_folder/p90_forecast.xlsx
+++ b/forecasts_folder/p90_forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/forecasts_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{307B7E68-2E1C-4F9C-8531-DABDFB3BF0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0176EF93-682C-48F5-9604-3E5E34B3FECC}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{307B7E68-2E1C-4F9C-8531-DABDFB3BF0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF9B2527-FC84-4432-8995-17CBE0B991AB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BB49CF0C-2FE8-4923-9EC0-F82C871E6236}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
   <si>
     <t>ASIN</t>
   </si>
@@ -194,244 +194,166 @@
     <t>Week 47 (2 Nov - 8 Nov)</t>
   </si>
   <si>
-    <t>B09VK3TVK2</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD750GM 750W 80 Plus Gold Certified Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0BTJYYTGM</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD1000GM PG5 Rev2.0 - PCIe5.0 Ready - ATX3.0 - 1000W 80 Plus Gold Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0CSTCZMQ5</t>
-  </si>
-  <si>
-    <t>GIGABYTE P650G 650W 80 Plus Gold Certified Power Supply (GP-P650G)</t>
-  </si>
-  <si>
-    <t>B0CPQ88F7X</t>
-  </si>
-  <si>
-    <t>AORUS WATERFORCE II 360 Liquid CPU Cooler, 360mm Radiator with 3x120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5 (GP-AORUS WATERFORCE II 360)</t>
-  </si>
-  <si>
-    <t>B09RK7GFQL</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD850GM 850W 80 Plus Gold Certified Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0CPQBJ3JW</t>
-  </si>
-  <si>
-    <t>AORUS WATERFORCE II 360 ICE Liquid CPU Cooler, 360mm Radiator with 3x120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5 (GP-AORUS WATERFORCE II 360 ICE)</t>
-  </si>
-  <si>
-    <t>B0DJMWKGLN</t>
-  </si>
-  <si>
-    <t>AORUS EZ Chain Fan 120 (3-Pack), 120mm Hydro Dynamic Bearing ARGB Computer Case Fan</t>
-  </si>
-  <si>
-    <t>B0DJMVRMM5</t>
-  </si>
-  <si>
-    <t>AORUS EZ Chain Fan 120 ICE (3-Pack), 120mm Hydro Dynamic Bearing ARGB Computer Case Fan</t>
-  </si>
-  <si>
-    <t>B0DJMXBKN4</t>
-  </si>
-  <si>
-    <t>AORUS EZ Chain Fan 120, 120mm Hydro Dynamic Bearing Computer Case Fan</t>
-  </si>
-  <si>
-    <t>B09VKF3CFC</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD1000GM 1000W 80 Plus Gold Certified Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0BTK4H5VS</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD850GM PG5 Rev2.0 - PCIe5.0 Ready - ATX3.0 - 850W 80 Plus Gold Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B09T5SDSYX</t>
-  </si>
-  <si>
-    <t>Gigabyte AORUS 120mm Sleeve Bearing ARGB Computer Case Fan, Black</t>
-  </si>
-  <si>
-    <t>B0CPQ8XM9Z</t>
-  </si>
-  <si>
-    <t>AORUS WATERFORCE II 240 Liquid CPU Cooler, 240mm Radiator with 2X 120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5 (GP-AORUS WATERFORCE II 240)</t>
-  </si>
-  <si>
-    <t>B0CKM1JX4S</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD850GM PG5W - PCIe5.0 Ready - ATX3.0-850W 80 Plus Gold Certified - Fully Modular Power Supply - Japanese Capacitors</t>
-  </si>
-  <si>
-    <t>B08YMVNQDJ</t>
-  </si>
-  <si>
-    <t>Gigabyte AORUS WATERFORCE X 360 AIO Liquid CPU Cooler, Rotatable Circular LCD Display with Micro SD Support, 360mm Radiator with 3X 120mm Low Noise ARGB Fans, Compatible with Intel LGA1700, 12 Volts</t>
-  </si>
-  <si>
-    <t>B0CPQ9M15Y</t>
-  </si>
-  <si>
-    <t>AORUS WATERFORCE X II 360 Liquid CPU Cooler, 360mm Radiator with 3X 120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5(GP-AORUS WATERFORCE X II 360)</t>
-  </si>
-  <si>
-    <t>B0CPQML6TS</t>
-  </si>
-  <si>
-    <t>AORUS WATERFORCE X II 360 ICE Liquid CPU Cooler, 360mm Radiator with 3X 120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5 (GP-AORUS WATERFORCE X II 360 ICE)</t>
-  </si>
-  <si>
-    <t>B0DL7T732W</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-AE850PM PG5 ICE - PCIe5.1 Ready - ATX3.1-850W 80 Plus Platinum Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0DL7LNS2H</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-AE1000PM PG5 - PCIe5.1 Ready - ATX3.1-1000W 80 Plus Platinum Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0DL717JPS</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-AE850PM PG5 - PCIe5.1 Ready - ATX3.1-850W 80 Plus Platinum Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0DJMVYK9B</t>
-  </si>
-  <si>
-    <t>AORUS EZ Chain Fan 120 ICE, 120mm Hydro Dynamic Bearing ARGB Computer Case Fan</t>
-  </si>
-  <si>
-    <t>B09VK3W3Y3</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-P650G 650W 80 Plus Gold Certified Power Supply</t>
-  </si>
-  <si>
-    <t>B0DL78MJMY</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-AE1000PM PG5 ICE - PCIe5.1 Ready - ATX3.1-1000W 80 Plus Platinum Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0BZFVFTWC</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD1300GM PG5 - PCIe5.0 Ready - ATX3.0 - 1300W 80 Plus Gold Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B09N74MYL7</t>
-  </si>
-  <si>
-    <t>Gigabyte AORUS WATERFORCE 360 AIO Liquid CPU Cooler, 360mm Radiator with 3x120mm Low Noise ARGB Fans, Rotatable ARGB Lighting Panel Design,Compatible with Intel LGA1700 (GP-AORUS WATERFORCE 360),Black</t>
-  </si>
-  <si>
-    <t>B0CPQ8V6LM</t>
-  </si>
-  <si>
-    <t>AORUS WATERFORCE X II 240 Liquid CPU Cooler, 240mm Radiator with 2X 120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5(GP-AORUS WATERFORCE X II 240)</t>
-  </si>
-  <si>
-    <t>B08YMY8ZZ3</t>
-  </si>
-  <si>
-    <t>Gigabyte AORUS WATERFORCE X 280 AIO Liquid CPU Cooler, Rotatable Circular LCD Display with Micro SD Support, 280mm Radiator with 2x140mm Low Noise ARGB Fans, Compatible with Intel LGA1700</t>
-  </si>
-  <si>
-    <t>B09VKFM255</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-AP1200PM 1200W 80 Plus Platinum Certified Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0BSMJM9D7</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD850GM PG5 - PCIe 5.0 Ready - ATX 3.0 - 850W 80 Plus Gold Certified, Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B07W5LSX71</t>
-  </si>
-  <si>
-    <t>Gigabyte AORUS ATC800 CPU Cooler Smart RGB Functions, Dual 120mm High Airfllow Optimized Fans, 6X High Performance Copper Heatpipes, Maximum Surface Area Heatpipe Direct Touch Technology GP-ATC800</t>
-  </si>
-  <si>
-    <t>B07ZS9GZRY</t>
-  </si>
-  <si>
-    <t>Gigabyte AORUS RTX 2080 Ti Gaming Box (eGPU), Embedded GeForce RTX 2080 Ti, Thunderbolt 3 Plug and Play, Custom Quiet and Silent Waterforce AIO Cooling System, Dual Thunderbolt 3, Gv-N208TIXEB-11GC</t>
-  </si>
-  <si>
-    <t>B08DK7YPX4</t>
-  </si>
-  <si>
-    <t>Gigabyte GP-P450B (80 Plus Bronze Certified, Quiet Fan, Active Power Protection, Power Supply)</t>
-  </si>
-  <si>
-    <t>B08JGPBML2</t>
-  </si>
-  <si>
-    <t>Gigabyte GP-P850GM (80 Plus Gold 850W, Modular, Smart Fan, Smart Power Protection, Power Supply)</t>
-  </si>
-  <si>
-    <t>B079SSKYWB</t>
-  </si>
-  <si>
-    <t>Gigabyte P650B 80 Plus Bronze 650W, Quiet HYB Fan, Active Power Protection, Power Supply GP-P650B</t>
-  </si>
-  <si>
-    <t>B09VK35VYJ</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD1000GM PG5 - PCIe5.0 Ready - ATX3.0 - 1000W 80 Plus Gold Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B07HCXL27D</t>
-  </si>
-  <si>
-    <t>AORUS P850W 80 Plus Gold 850W, Fully Modular, Smart Fan Function, Smart Power Protection, 10 Year Warranty, Power Supply GP-AP850GM</t>
-  </si>
-  <si>
-    <t>B07YZ26VVQ</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS RGB AIO Liquid Cooler 360, 360mm Radiator, Triple 120mm Windforce PWM Fans, Customizable Full Color LCD Display, Advanced RGB Lighting and Control, Intel 115X/2066, AMD AM4, TR4</t>
-  </si>
-  <si>
-    <t>B09T5WL6YW</t>
-  </si>
-  <si>
-    <t>Gigabyte GP-AR140RFAN - AORUS 140mm Sleeve Bearing ARGB Computer Case Fan, Black</t>
-  </si>
-  <si>
-    <t>B07YZ2NCR5</t>
-  </si>
-  <si>
-    <t>AORUS RGB AIO Liquid Cooler 280, 280mm Radiator, Dual 140mm Windforce PWM Fans, Customizable Full Color LCD Display, Advanced RGB Lighting and Control, Intel 115X/2066, AMD AM4, TR4</t>
-  </si>
-  <si>
-    <t>B08DKJJFW6</t>
-  </si>
-  <si>
-    <t>Gigabyte GP-P750GM (80 Plus Gold 750W, Modular, Smart Fan, Smart Power Protection, Power Supply)</t>
+    <t>B0C4BH2Z7D</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen4 7300 SSD 1TB PCIe 4.0 NVMe M.2 Internal Solid State Hard Drive with Read Speed Up to 7300MB/s, Write Speed Up to 6000MB/s (AG4731TB)</t>
+  </si>
+  <si>
+    <t>B0C4BKJCWV</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen4 7300 SSD 2TB PCIe 4.0 NVMe M.2 Internal Solid State Hard Drive with Read Speed Up to 7300MB/s, Write Speed Up to 6850MB/s, AG4732TB</t>
+  </si>
+  <si>
+    <t>B0CDNCNBSP</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen5 12000 SSD 2TB PCIe 5.0 NVMe M.2 Internal Solid State Hard Drive with Read Speed Up to 12400MB/s, Write Speed Up to 11800MB/s, AG512K2TB</t>
+  </si>
+  <si>
+    <t>B0CDP24LW9</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen5 12000 SSD 1TB PCIe 5.0 NVMe M.2 Internal Solid State Hard Drive with Read Speed Up to 11700MB/s, Write Speed Up to 9500MB/s, AG512K1TB</t>
+  </si>
+  <si>
+    <t>B091ZG1ZC6</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS GP-ARS16G37 (RGB/ 16GB RAM Memory Kit (2x8GB)/ 3733MHz/ Supports AORUS Memory Boost/ RGB Fusion 2.0/ Selected Memory Ics/ 100% Sorted and Tested/ Memory)</t>
+  </si>
+  <si>
+    <t>B09SBV8M5F</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS Memory ARS32G60D5R (DDR5 32GB (2x16GB) 6000MHz)</t>
+  </si>
+  <si>
+    <t>B0CXZK5JGC</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS M.2 SSD to PCIe x16 Easy One Click RAID Add-in Card (AIC), M.2 PCIe Adapter for Gen5 SSDs PCIe 5.0 (GC-4XM2G5)</t>
+  </si>
+  <si>
+    <t>B08XY93JT3</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen4 7000s SSD 2TB PCIe 4.0 NVMe M.2, Nanocarbon Coated Aluminum Heatsink, 3D TLC NAND, SSD- GP-AG70S2TB</t>
+  </si>
+  <si>
+    <t>B07G5RD1XK</t>
+  </si>
+  <si>
+    <t>GIGABYTE SSD 240GB (GP-GSTFS31240GNTD)</t>
+  </si>
+  <si>
+    <t>B09MDTM5Z6</t>
+  </si>
+  <si>
+    <t>AORUS Memory GP-ARS32G52D5 (DDR5 32GB (2x16GB) 5200MHz) Black</t>
+  </si>
+  <si>
+    <t>B07VV87QVL</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS NVMe Gen4 M.2 500GB PCI-Express 4.0 Interface High Performance Gaming, Full Body Copper Heat Spreader, Toshiba 3D NAND, DDR Cache Buffer, 5 Year Warranty SSD GP-ASM2NE6500GTTD</t>
+  </si>
+  <si>
+    <t>B084KGJDDM</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS RGB Memory 16GB (2x8GB) 288-Pin RGB PC4-28800 DDR4 3600MHz Perfect for Intel X299, X299X, Z390 and AMD X570, TRX40 Platforms Desktop Memory Model GP-AR36C18S8K2HU416R</t>
+  </si>
+  <si>
+    <t>B07TJX83W2</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS NVMe Gen4 M.2 2TB PCI-Express 4.0 Interface High Performance Gaming, Full Body Copper Heat Spreader, Toshiba 3D NAND, DDR Cache Buffer, SSD GP-ASM2NE6200TTTD</t>
+  </si>
+  <si>
+    <t>B07Z9YBT3T</t>
+  </si>
+  <si>
+    <t>GIGABYTE NVMe 1.3/M.2/PCIe 3.0x4/ 1TB SSD (GP-GSM2NE3100TNTD)</t>
+  </si>
+  <si>
+    <t>B08FWY81LM</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS NVMe Gen4 M.2 2TB PCI-Express 4.0 Interface High Performance Gaming, 3D TLC NAND, External DDR Cache Buffer, SSD GP-AG42TB</t>
+  </si>
+  <si>
+    <t>B083GTQPXF</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen4 7000s SSD 1TB PCIe 4.0 NVMe 1.4 M.2, Nanocarbon Coated Aluminum Heatsink, 3D TLC NAND, SSD GP-AG70S1TB-P</t>
+  </si>
+  <si>
+    <t>B099ZF7M85</t>
+  </si>
+  <si>
+    <t>AORUS GP-ARS16G37D RGB 16GB RAM Memory Kit (2x8GB) 3733MHz, Supports AORUS Memory Boost and RGB Fusion 2.0. Selected Memory ICS, 100% Sorted and Tested (with Demo Modules).</t>
+  </si>
+  <si>
+    <t>B08FCY3BM2</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS NVMe Gen4 M.2 1TB PCI-Express 4.0 Interface High Performance Gaming, 3D TLC NAND, External DDR Cache Buffer, SSD (GP-AG41TB)</t>
+  </si>
+  <si>
+    <t>B07GJKR7RX</t>
+  </si>
+  <si>
+    <t>Gigabyte GIGABYTE SSD 120GB NAND Flash SATA III 2.5" Internal SSD - GP-GSTFS31120GNTD 2.5 inches GP-GSTFS31120GNTD</t>
+  </si>
+  <si>
+    <t>B0CKHM2ZQ6</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen4 5000E SSD 2TB PCIe 4.0 NVMe M.2 Internal Solid State Hard Drive with Read Speed Up to 6500MB/s, Write Speed Up to 6000MB/s, AG450E2TB-G</t>
+  </si>
+  <si>
+    <t>B091ZFTQQ1</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS GP-ARS16G33 (RGB/ 16GB RAM Memory Kit/ 16GB (2x8GB)/ 3333MHz/ Supports AORUS Memory Boost/ RGB Fusion 2.0/ Selected Memory Ics/ 100% Sorted and Tested/ Memory)</t>
+  </si>
+  <si>
+    <t>B07GBZL93X</t>
+  </si>
+  <si>
+    <t>GIGABYTE GC-Titan Ridge (Titan Ridge Thunderbolt 3 PCIe Card Component)</t>
+  </si>
+  <si>
+    <t>B0BHM59TQB</t>
+  </si>
+  <si>
+    <t>GIGABYTE Gen3 2500E SSD 1TB NVMe M.2 Internal Solid State Hard Drive with Read Speed Up to 2400MB/s, Write Speed Up to 1800 MB/s, Host Memory Buffer Supported, (G325E1TB)</t>
+  </si>
+  <si>
+    <t>B07TJWZGL9</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS NVMe Gen4 M.2 1TB PCI-Express 4.0 Interface High Performance Gaming, Full Body Copper Heat Spreader, Toshiba 3D NAND, DDR Cache Buffer, SSD GP-ASM2NE6100TTTD</t>
+  </si>
+  <si>
+    <t>B07QJ756H8</t>
+  </si>
+  <si>
+    <t>GIGABYTE SSD 480GB (GP-GSTFS31480GNTD)</t>
+  </si>
+  <si>
+    <t>B07QBVWCQL</t>
+  </si>
+  <si>
+    <t>AORUS RGB NVMe M.2 512GB High Performance Gaming, Integrated Heatsink, Toshiba 3D NAND, DDR Cache Buffer, 5 Year Warranty SSD GP-ASM2NE2512GTTDR</t>
+  </si>
+  <si>
+    <t>B08XY9146V</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen4 7000s SSD 1TB PCIe 4.0 NVMe M.2, Nanocarbon Coated Aluminum Heatsink, 3D TLC NAND, SSD GP-AG70S1TB</t>
   </si>
 </sst>
 </file>
@@ -833,7 +755,7 @@
   <dimension ref="A1:AY85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AY41"/>
+      <selection activeCell="A2" sqref="A2:AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,148 +926,148 @@
         <v>3</v>
       </c>
       <c r="D2" s="5">
-        <v>554</v>
+        <v>68</v>
       </c>
       <c r="E2" s="5">
-        <v>432</v>
+        <v>69</v>
       </c>
       <c r="F2" s="5">
-        <v>367</v>
+        <v>39</v>
       </c>
       <c r="G2" s="5">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="H2" s="5">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="I2" s="5">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="J2" s="5">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c r="K2" s="5">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="L2" s="5">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="M2" s="5">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="N2" s="5">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="O2" s="5">
-        <v>246</v>
+        <v>47</v>
       </c>
       <c r="P2" s="5">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="5">
-        <v>233</v>
+        <v>47</v>
       </c>
       <c r="R2" s="5">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="S2" s="5">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="T2" s="5">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="U2" s="5">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="V2" s="5">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c r="W2" s="5">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="X2" s="5">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="5">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="Z2" s="5">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="AA2" s="5">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="AB2" s="5">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="AC2" s="5">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="AD2" s="5">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="AE2" s="5">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="AF2" s="5">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="AG2" s="5">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="AH2" s="5">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AI2" s="5">
-        <v>278</v>
+        <v>50</v>
       </c>
       <c r="AJ2" s="5">
-        <v>298</v>
+        <v>35</v>
       </c>
       <c r="AK2" s="5">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="AL2" s="5">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="AM2" s="5">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="AN2" s="5">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="AO2" s="5">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="AP2" s="5">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="AQ2" s="5">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="AR2" s="5">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="AS2" s="5">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="AT2" s="5">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="AU2" s="5">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="AV2" s="5">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="AW2" s="5">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="AX2" s="5">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="AY2" s="5">
-        <v>196</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
@@ -1159,148 +1081,148 @@
         <v>3</v>
       </c>
       <c r="D3" s="5">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E3" s="5">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F3" s="5">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G3" s="5">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H3" s="5">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I3" s="5">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K3" s="5">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L3" s="5">
         <v>45</v>
       </c>
       <c r="M3" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N3" s="5">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="O3" s="5">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="P3" s="5">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="5">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="R3" s="5">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="S3" s="5">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="T3" s="5">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="U3" s="5">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="V3" s="5">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="W3" s="5">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="X3" s="5">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="5">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="5">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="AA3" s="5">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AB3" s="5">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="AC3" s="5">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AD3" s="5">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="AE3" s="5">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AF3" s="5">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AG3" s="5">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="AH3" s="5">
         <v>47</v>
       </c>
       <c r="AI3" s="5">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="AJ3" s="5">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="AK3" s="5">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="AL3" s="5">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AM3" s="5">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AN3" s="5">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AO3" s="5">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AP3" s="5">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AQ3" s="5">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="AR3" s="5">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="AS3" s="5">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AT3" s="5">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AU3" s="5">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AV3" s="5">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AW3" s="5">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AX3" s="5">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="AY3" s="5">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
@@ -1314,148 +1236,148 @@
         <v>3</v>
       </c>
       <c r="D4" s="5">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I4" s="5">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="J4" s="5">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="K4" s="5">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="L4" s="5">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="M4" s="5">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N4" s="5">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="O4" s="5">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="P4" s="5">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="5">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="R4" s="5">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="S4" s="5">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="T4" s="5">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="U4" s="5">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="V4" s="5">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="W4" s="5">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="X4" s="5">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="Y4" s="5">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="Z4" s="5">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="AA4" s="5">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="AB4" s="5">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="AC4" s="5">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="AD4" s="5">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="AE4" s="5">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="AF4" s="5">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="AG4" s="5">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="AH4" s="5">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="AI4" s="5">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="AJ4" s="5">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AK4" s="5">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AL4" s="5">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="AM4" s="5">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AN4" s="5">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="AO4" s="5">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="AP4" s="5">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AQ4" s="5">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="AR4" s="5">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="AS4" s="5">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AT4" s="5">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="AU4" s="5">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AV4" s="5">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="AW4" s="5">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="AX4" s="5">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AY4" s="5">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
@@ -1469,148 +1391,148 @@
         <v>3</v>
       </c>
       <c r="D5" s="5">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G5" s="5">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5">
+        <v>15</v>
+      </c>
+      <c r="K5" s="5">
+        <v>14</v>
+      </c>
+      <c r="L5" s="5">
+        <v>14</v>
+      </c>
+      <c r="M5" s="5">
+        <v>16</v>
+      </c>
+      <c r="N5" s="5">
+        <v>22</v>
+      </c>
+      <c r="O5" s="5">
+        <v>22</v>
+      </c>
+      <c r="P5" s="5">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>23</v>
+      </c>
+      <c r="R5" s="5">
         <v>24</v>
       </c>
-      <c r="H5" s="5">
+      <c r="S5" s="5">
+        <v>23</v>
+      </c>
+      <c r="T5" s="5">
+        <v>22</v>
+      </c>
+      <c r="U5" s="5">
+        <v>22</v>
+      </c>
+      <c r="V5" s="5">
+        <v>24</v>
+      </c>
+      <c r="W5" s="5">
+        <v>24</v>
+      </c>
+      <c r="X5" s="5">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>23</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>22</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>23</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>22</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>21</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>20</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>22</v>
+      </c>
+      <c r="AH5" s="5">
         <v>26</v>
       </c>
-      <c r="I5" s="5">
-        <v>27</v>
-      </c>
-      <c r="J5" s="5">
-        <v>25</v>
-      </c>
-      <c r="K5" s="5">
-        <v>25</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="AI5" s="5">
         <v>26</v>
       </c>
-      <c r="M5" s="5">
-        <v>41</v>
-      </c>
-      <c r="N5" s="5">
-        <v>53</v>
-      </c>
-      <c r="O5" s="5">
-        <v>51</v>
-      </c>
-      <c r="P5" s="5">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>57</v>
-      </c>
-      <c r="R5" s="5">
-        <v>55</v>
-      </c>
-      <c r="S5" s="5">
-        <v>53</v>
-      </c>
-      <c r="T5" s="5">
-        <v>53</v>
-      </c>
-      <c r="U5" s="5">
-        <v>51</v>
-      </c>
-      <c r="V5" s="5">
-        <v>55</v>
-      </c>
-      <c r="W5" s="5">
-        <v>52</v>
-      </c>
-      <c r="X5" s="5">
-        <v>54</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>53</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>50</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>52</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>47</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>48</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>47</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>46</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>46</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>45</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>58</v>
-      </c>
       <c r="AJ5" s="5">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="AK5" s="5">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="AL5" s="5">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="AM5" s="5">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AN5" s="5">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AO5" s="5">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AP5" s="5">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="AQ5" s="5">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="AR5" s="5">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="AS5" s="5">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AT5" s="5">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="AU5" s="5">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AV5" s="5">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AW5" s="5">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="AX5" s="5">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="AY5" s="5">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
@@ -1624,148 +1546,148 @@
         <v>3</v>
       </c>
       <c r="D6" s="5">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G6" s="5">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H6" s="5">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I6" s="5">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="J6" s="5">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K6" s="5">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="L6" s="5">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="M6" s="5">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N6" s="5">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="O6" s="5">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="P6" s="5">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="5">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="R6" s="5">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="S6" s="5">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="T6" s="5">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="U6" s="5">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="V6" s="5">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="W6" s="5">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="X6" s="5">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="Y6" s="5">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="Z6" s="5">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AA6" s="5">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="AB6" s="5">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="AC6" s="5">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="AD6" s="5">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="AE6" s="5">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AF6" s="5">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="AG6" s="5">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="AH6" s="5">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="AI6" s="5">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="AJ6" s="5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="AK6" s="5">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AL6" s="5">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="AM6" s="5">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="AN6" s="5">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="AO6" s="5">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="AP6" s="5">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="AQ6" s="5">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="AR6" s="5">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="AS6" s="5">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="AT6" s="5">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="AU6" s="5">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="AV6" s="5">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AW6" s="5">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="AX6" s="5">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="AY6" s="5">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
@@ -1779,148 +1701,148 @@
         <v>3</v>
       </c>
       <c r="D7" s="5">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G7" s="5">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H7" s="5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I7" s="5">
         <v>24</v>
       </c>
       <c r="J7" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K7" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L7" s="5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M7" s="5">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N7" s="5">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="O7" s="5">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="P7" s="5">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="5">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="R7" s="5">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="S7" s="5">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="T7" s="5">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="U7" s="5">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="V7" s="5">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="W7" s="5">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="X7" s="5">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="Y7" s="5">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="Z7" s="5">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="AA7" s="5">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="AB7" s="5">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="AC7" s="5">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD7" s="5">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="AE7" s="5">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AF7" s="5">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AG7" s="5">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH7" s="5">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="AI7" s="5">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="AJ7" s="5">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="AK7" s="5">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="AL7" s="5">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="AM7" s="5">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="AN7" s="5">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AO7" s="5">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="AP7" s="5">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AQ7" s="5">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AR7" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AS7" s="5">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="AT7" s="5">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="AU7" s="5">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="AV7" s="5">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="AW7" s="5">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="AX7" s="5">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="AY7" s="5">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
@@ -1934,148 +1856,148 @@
         <v>3</v>
       </c>
       <c r="D8" s="5">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="E8" s="5">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F8" s="5">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H8" s="5">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="I8" s="5">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="J8" s="5">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="K8" s="5">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="L8" s="5">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M8" s="5">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="N8" s="5">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="O8" s="5">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="P8" s="5">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="5">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="R8" s="5">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="S8" s="5">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="T8" s="5">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="U8" s="5">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="V8" s="5">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="W8" s="5">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="X8" s="5">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="Y8" s="5">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="Z8" s="5">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="AA8" s="5">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="5">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="AC8" s="5">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="AD8" s="5">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="AE8" s="5">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="AF8" s="5">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="AG8" s="5">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="AH8" s="5">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="AI8" s="5">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="AJ8" s="5">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="AK8" s="5">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="AL8" s="5">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="AM8" s="5">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="AN8" s="5">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="AO8" s="5">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="AP8" s="5">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="AQ8" s="5">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="AR8" s="5">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="AS8" s="5">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="AT8" s="5">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="AU8" s="5">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="AV8" s="5">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="AW8" s="5">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="AX8" s="5">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="AY8" s="5">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
@@ -2089,148 +2011,148 @@
         <v>3</v>
       </c>
       <c r="D9" s="5">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E9" s="5">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H9" s="5">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="I9" s="5">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="J9" s="5">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="K9" s="5">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="L9" s="5">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="M9" s="5">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="N9" s="5">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="O9" s="5">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="P9" s="5">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="5">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="R9" s="5">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="S9" s="5">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="T9" s="5">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="U9" s="5">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="V9" s="5">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="W9" s="5">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="X9" s="5">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="5">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="Z9" s="5">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="5">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AB9" s="5">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="AC9" s="5">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="AD9" s="5">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="AE9" s="5">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AF9" s="5">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AG9" s="5">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="5">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="5">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="5">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="AK9" s="5">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="AL9" s="5">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="AM9" s="5">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="AN9" s="5">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="5">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="AP9" s="5">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="AQ9" s="5">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="AR9" s="5">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="AS9" s="5">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="AT9" s="5">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="AU9" s="5">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="AV9" s="5">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="AW9" s="5">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="5">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="AY9" s="5">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
@@ -2244,148 +2166,148 @@
         <v>3</v>
       </c>
       <c r="D10" s="5">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G10" s="5">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K10" s="5">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="L10" s="5">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="M10" s="5">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N10" s="5">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="O10" s="5">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="P10" s="5">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="5">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="R10" s="5">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="S10" s="5">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="T10" s="5">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="U10" s="5">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="V10" s="5">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="W10" s="5">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="X10" s="5">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="5">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="5">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="5">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="5">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="5">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="5">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="5">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="5">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="5">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="5">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="5">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="5">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="5">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="5">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="5">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="5">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="5">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="5">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="5">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="5">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="5">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="5">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="5">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="5">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
@@ -2399,148 +2321,148 @@
         <v>3</v>
       </c>
       <c r="D11" s="5">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="H11" s="5">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I11" s="5">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="J11" s="5">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="K11" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="L11" s="5">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M11" s="5">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="N11" s="5">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="O11" s="5">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="P11" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="R11" s="5">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="S11" s="5">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="T11" s="5">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="U11" s="5">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="V11" s="5">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="W11" s="5">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="X11" s="5">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="Y11" s="5">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="Z11" s="5">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AA11" s="5">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="AB11" s="5">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AC11" s="5">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="AD11" s="5">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="AE11" s="5">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="AF11" s="5">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AG11" s="5">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="AH11" s="5">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="AI11" s="5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ11" s="5">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AK11" s="5">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AL11" s="5">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AM11" s="5">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AN11" s="5">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AO11" s="5">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AP11" s="5">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AQ11" s="5">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AR11" s="5">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AS11" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AT11" s="5">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="AU11" s="5">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="AV11" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AY11" s="5">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
@@ -2554,148 +2476,148 @@
         <v>3</v>
       </c>
       <c r="D12" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G12" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I12" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S12" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V12" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
@@ -2709,148 +2631,148 @@
         <v>3</v>
       </c>
       <c r="D13" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K13" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L13" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M13" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N13" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O13" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="P13" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="R13" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="S13" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T13" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="U13" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="V13" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="W13" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X13" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
@@ -2864,148 +2786,148 @@
         <v>3</v>
       </c>
       <c r="D14" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L14" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M14" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R14" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="S14" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T14" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U14" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V14" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="W14" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="X14" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
@@ -3019,148 +2941,148 @@
         <v>3</v>
       </c>
       <c r="D15" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F15" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G15" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H15" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I15" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K15" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L15" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M15" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N15" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O15" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P15" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R15" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="S15" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T15" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U15" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V15" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W15" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="X15" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX15" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
@@ -3174,148 +3096,148 @@
         <v>3</v>
       </c>
       <c r="D16" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I16" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K16" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L16" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M16" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N16" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O16" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P16" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R16" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S16" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T16" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U16" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V16" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="W16" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="X16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW16" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
@@ -3329,148 +3251,148 @@
         <v>3</v>
       </c>
       <c r="D17" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F17" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I17" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K17" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L17" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M17" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N17" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O17" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P17" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R17" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S17" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T17" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U17" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V17" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="W17" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="X17" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
@@ -3484,148 +3406,148 @@
         <v>3</v>
       </c>
       <c r="D18" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G18" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K18" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P18" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R18" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S18" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T18" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U18" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V18" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
@@ -3639,148 +3561,148 @@
         <v>3</v>
       </c>
       <c r="D19" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I19" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K19" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L19" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M19" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N19" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O19" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P19" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R19" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S19" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T19" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U19" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="V19" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="W19" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="X19" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN19" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AS19" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW19" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AX19" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
@@ -3794,148 +3716,148 @@
         <v>3</v>
       </c>
       <c r="D20" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I20" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K20" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L20" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M20" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N20" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O20" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P20" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R20" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S20" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T20" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U20" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V20" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="W20" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="X20" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AX20" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
@@ -3949,148 +3871,148 @@
         <v>3</v>
       </c>
       <c r="D21" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I21" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K21" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L21" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M21" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N21" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O21" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P21" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R21" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S21" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T21" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U21" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="V21" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="W21" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="X21" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AV21" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AW21" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
@@ -4104,148 +4026,148 @@
         <v>3</v>
       </c>
       <c r="D22" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G22" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H22" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I22" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K22" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L22" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M22" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N22" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O22" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P22" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R22" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="S22" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="T22" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U22" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V22" s="5">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="W22" s="5">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="X22" s="5">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="5">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AN22" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="5">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AS22" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AV22" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AW22" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
@@ -4259,148 +4181,148 @@
         <v>3</v>
       </c>
       <c r="D23" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E23" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F23" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G23" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H23" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I23" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K23" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L23" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M23" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N23" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O23" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P23" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R23" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S23" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T23" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U23" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V23" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W23" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X23" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
@@ -4414,148 +4336,148 @@
         <v>3</v>
       </c>
       <c r="D24" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F24" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G24" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H24" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I24" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K24" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L24" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M24" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P24" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U24" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="V24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="W24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="X24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AS24" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AW24" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
@@ -4569,148 +4491,148 @@
         <v>3</v>
       </c>
       <c r="D25" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E25" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F25" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G25" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O25" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P25" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AX25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.25">
@@ -4724,148 +4646,148 @@
         <v>3</v>
       </c>
       <c r="D26" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E26" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F26" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K26" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P26" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R26" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T26" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U26" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V26" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W26" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X26" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
@@ -4879,148 +4801,148 @@
         <v>3</v>
       </c>
       <c r="D27" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F27" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
@@ -5034,2164 +4956,838 @@
         <v>3</v>
       </c>
       <c r="D28" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="5">
-        <v>3</v>
-      </c>
-      <c r="E29" s="5">
-        <v>3</v>
-      </c>
-      <c r="F29" s="5">
-        <v>3</v>
-      </c>
-      <c r="G29" s="5">
-        <v>3</v>
-      </c>
-      <c r="H29" s="5">
-        <v>3</v>
-      </c>
-      <c r="I29" s="5">
-        <v>3</v>
-      </c>
-      <c r="J29" s="5">
-        <v>3</v>
-      </c>
-      <c r="K29" s="5">
-        <v>3</v>
-      </c>
-      <c r="L29" s="5">
-        <v>3</v>
-      </c>
-      <c r="M29" s="5">
-        <v>3</v>
-      </c>
-      <c r="N29" s="5">
-        <v>2</v>
-      </c>
-      <c r="O29" s="5">
-        <v>2</v>
-      </c>
-      <c r="P29" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>2</v>
-      </c>
-      <c r="R29" s="5">
-        <v>2</v>
-      </c>
-      <c r="S29" s="5">
-        <v>2</v>
-      </c>
-      <c r="T29" s="5">
-        <v>2</v>
-      </c>
-      <c r="U29" s="5">
-        <v>2</v>
-      </c>
-      <c r="V29" s="5">
-        <v>2</v>
-      </c>
-      <c r="W29" s="5">
-        <v>2</v>
-      </c>
-      <c r="X29" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y29" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AB29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AC29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AD29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AE29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AF29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AG29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AH29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AI29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AJ29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AK29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AL29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AM29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AN29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AP29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AQ29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AR29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AS29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AT29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AU29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AV29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AW29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AX29" s="5">
-        <v>2</v>
-      </c>
-      <c r="AY29" s="5">
-        <v>2</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2</v>
-      </c>
-      <c r="E30" s="5">
-        <v>2</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5">
-        <v>2</v>
-      </c>
-      <c r="I30" s="5">
-        <v>2</v>
-      </c>
-      <c r="J30" s="5">
-        <v>2</v>
-      </c>
-      <c r="K30" s="5">
-        <v>1</v>
-      </c>
-      <c r="L30" s="5">
-        <v>1</v>
-      </c>
-      <c r="M30" s="5">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5">
-        <v>0</v>
-      </c>
-      <c r="O30" s="5">
-        <v>0</v>
-      </c>
-      <c r="P30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>0</v>
-      </c>
-      <c r="R30" s="5">
-        <v>0</v>
-      </c>
-      <c r="S30" s="5">
-        <v>0</v>
-      </c>
-      <c r="T30" s="5">
-        <v>0</v>
-      </c>
-      <c r="U30" s="5">
-        <v>0</v>
-      </c>
-      <c r="V30" s="5">
-        <v>0</v>
-      </c>
-      <c r="W30" s="5">
-        <v>0</v>
-      </c>
-      <c r="X30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY30" s="5">
-        <v>0</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
-      <c r="J31" s="5">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5">
-        <v>1</v>
-      </c>
-      <c r="L31" s="5">
-        <v>1</v>
-      </c>
-      <c r="M31" s="5">
-        <v>1</v>
-      </c>
-      <c r="N31" s="5">
-        <v>1</v>
-      </c>
-      <c r="O31" s="5">
-        <v>1</v>
-      </c>
-      <c r="P31" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>1</v>
-      </c>
-      <c r="R31" s="5">
-        <v>1</v>
-      </c>
-      <c r="S31" s="5">
-        <v>1</v>
-      </c>
-      <c r="T31" s="5">
-        <v>1</v>
-      </c>
-      <c r="U31" s="5">
-        <v>1</v>
-      </c>
-      <c r="V31" s="5">
-        <v>1</v>
-      </c>
-      <c r="W31" s="5">
-        <v>1</v>
-      </c>
-      <c r="X31" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AR31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AS31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AT31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AV31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AW31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AX31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AY31" s="5">
-        <v>1</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5">
-        <v>1</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
-        <v>0</v>
-      </c>
-      <c r="K32" s="5">
-        <v>0</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
-      <c r="M32" s="5">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5">
-        <v>0</v>
-      </c>
-      <c r="O32" s="5">
-        <v>0</v>
-      </c>
-      <c r="P32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>0</v>
-      </c>
-      <c r="R32" s="5">
-        <v>0</v>
-      </c>
-      <c r="S32" s="5">
-        <v>0</v>
-      </c>
-      <c r="T32" s="5">
-        <v>0</v>
-      </c>
-      <c r="U32" s="5">
-        <v>0</v>
-      </c>
-      <c r="V32" s="5">
-        <v>0</v>
-      </c>
-      <c r="W32" s="5">
-        <v>0</v>
-      </c>
-      <c r="X32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AS32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AT32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AV32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AW32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AX32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AY32" s="5">
-        <v>1</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>2</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5">
-        <v>1</v>
-      </c>
-      <c r="J33" s="5">
-        <v>1</v>
-      </c>
-      <c r="K33" s="5">
-        <v>1</v>
-      </c>
-      <c r="L33" s="5">
-        <v>0</v>
-      </c>
-      <c r="M33" s="5">
-        <v>1</v>
-      </c>
-      <c r="N33" s="5">
-        <v>0</v>
-      </c>
-      <c r="O33" s="5">
-        <v>0</v>
-      </c>
-      <c r="P33" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>0</v>
-      </c>
-      <c r="R33" s="5">
-        <v>0</v>
-      </c>
-      <c r="S33" s="5">
-        <v>0</v>
-      </c>
-      <c r="T33" s="5">
-        <v>0</v>
-      </c>
-      <c r="U33" s="5">
-        <v>0</v>
-      </c>
-      <c r="V33" s="5">
-        <v>0</v>
-      </c>
-      <c r="W33" s="5">
-        <v>0</v>
-      </c>
-      <c r="X33" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY33" s="5">
-        <v>0</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0</v>
-      </c>
-      <c r="K34" s="5">
-        <v>0</v>
-      </c>
-      <c r="L34" s="5">
-        <v>0</v>
-      </c>
-      <c r="M34" s="5">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5">
-        <v>0</v>
-      </c>
-      <c r="O34" s="5">
-        <v>0</v>
-      </c>
-      <c r="P34" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>0</v>
-      </c>
-      <c r="R34" s="5">
-        <v>0</v>
-      </c>
-      <c r="S34" s="5">
-        <v>0</v>
-      </c>
-      <c r="T34" s="5">
-        <v>0</v>
-      </c>
-      <c r="U34" s="5">
-        <v>0</v>
-      </c>
-      <c r="V34" s="5">
-        <v>0</v>
-      </c>
-      <c r="W34" s="5">
-        <v>0</v>
-      </c>
-      <c r="X34" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY34" s="5">
-        <v>0</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5">
-        <v>0</v>
-      </c>
-      <c r="H35" s="5">
-        <v>0</v>
-      </c>
-      <c r="I35" s="5">
-        <v>0</v>
-      </c>
-      <c r="J35" s="5">
-        <v>0</v>
-      </c>
-      <c r="K35" s="5">
-        <v>0</v>
-      </c>
-      <c r="L35" s="5">
-        <v>0</v>
-      </c>
-      <c r="M35" s="5">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5">
-        <v>0</v>
-      </c>
-      <c r="O35" s="5">
-        <v>0</v>
-      </c>
-      <c r="P35" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>0</v>
-      </c>
-      <c r="R35" s="5">
-        <v>0</v>
-      </c>
-      <c r="S35" s="5">
-        <v>0</v>
-      </c>
-      <c r="T35" s="5">
-        <v>0</v>
-      </c>
-      <c r="U35" s="5">
-        <v>0</v>
-      </c>
-      <c r="V35" s="5">
-        <v>0</v>
-      </c>
-      <c r="W35" s="5">
-        <v>0</v>
-      </c>
-      <c r="X35" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY35" s="5">
-        <v>0</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5">
-        <v>0</v>
-      </c>
-      <c r="H36" s="5">
-        <v>0</v>
-      </c>
-      <c r="I36" s="5">
-        <v>0</v>
-      </c>
-      <c r="J36" s="5">
-        <v>0</v>
-      </c>
-      <c r="K36" s="5">
-        <v>0</v>
-      </c>
-      <c r="L36" s="5">
-        <v>0</v>
-      </c>
-      <c r="M36" s="5">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5">
-        <v>0</v>
-      </c>
-      <c r="O36" s="5">
-        <v>0</v>
-      </c>
-      <c r="P36" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>0</v>
-      </c>
-      <c r="R36" s="5">
-        <v>0</v>
-      </c>
-      <c r="S36" s="5">
-        <v>0</v>
-      </c>
-      <c r="T36" s="5">
-        <v>0</v>
-      </c>
-      <c r="U36" s="5">
-        <v>0</v>
-      </c>
-      <c r="V36" s="5">
-        <v>0</v>
-      </c>
-      <c r="W36" s="5">
-        <v>0</v>
-      </c>
-      <c r="X36" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY36" s="5">
-        <v>0</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5">
-        <v>0</v>
-      </c>
-      <c r="H37" s="5">
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
-        <v>0</v>
-      </c>
-      <c r="J37" s="5">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5">
-        <v>0</v>
-      </c>
-      <c r="L37" s="5">
-        <v>0</v>
-      </c>
-      <c r="M37" s="5">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5">
-        <v>0</v>
-      </c>
-      <c r="O37" s="5">
-        <v>0</v>
-      </c>
-      <c r="P37" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>0</v>
-      </c>
-      <c r="R37" s="5">
-        <v>0</v>
-      </c>
-      <c r="S37" s="5">
-        <v>0</v>
-      </c>
-      <c r="T37" s="5">
-        <v>0</v>
-      </c>
-      <c r="U37" s="5">
-        <v>0</v>
-      </c>
-      <c r="V37" s="5">
-        <v>0</v>
-      </c>
-      <c r="W37" s="5">
-        <v>0</v>
-      </c>
-      <c r="X37" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY37" s="5">
-        <v>0</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5">
-        <v>0</v>
-      </c>
-      <c r="H38" s="5">
-        <v>0</v>
-      </c>
-      <c r="I38" s="5">
-        <v>0</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5">
-        <v>0</v>
-      </c>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
-      <c r="M38" s="5">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5">
-        <v>0</v>
-      </c>
-      <c r="O38" s="5">
-        <v>0</v>
-      </c>
-      <c r="P38" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>0</v>
-      </c>
-      <c r="R38" s="5">
-        <v>0</v>
-      </c>
-      <c r="S38" s="5">
-        <v>0</v>
-      </c>
-      <c r="T38" s="5">
-        <v>0</v>
-      </c>
-      <c r="U38" s="5">
-        <v>0</v>
-      </c>
-      <c r="V38" s="5">
-        <v>0</v>
-      </c>
-      <c r="W38" s="5">
-        <v>0</v>
-      </c>
-      <c r="X38" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY38" s="5">
-        <v>0</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
-      <c r="H39" s="5">
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5">
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5">
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
-        <v>0</v>
-      </c>
-      <c r="P39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>0</v>
-      </c>
-      <c r="R39" s="5">
-        <v>0</v>
-      </c>
-      <c r="S39" s="5">
-        <v>0</v>
-      </c>
-      <c r="T39" s="5">
-        <v>0</v>
-      </c>
-      <c r="U39" s="5">
-        <v>0</v>
-      </c>
-      <c r="V39" s="5">
-        <v>0</v>
-      </c>
-      <c r="W39" s="5">
-        <v>0</v>
-      </c>
-      <c r="X39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="5">
-        <v>0</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="5">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0</v>
-      </c>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5">
-        <v>0</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0</v>
-      </c>
-      <c r="M40" s="5">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5">
-        <v>0</v>
-      </c>
-      <c r="O40" s="5">
-        <v>0</v>
-      </c>
-      <c r="P40" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>0</v>
-      </c>
-      <c r="R40" s="5">
-        <v>0</v>
-      </c>
-      <c r="S40" s="5">
-        <v>0</v>
-      </c>
-      <c r="T40" s="5">
-        <v>0</v>
-      </c>
-      <c r="U40" s="5">
-        <v>0</v>
-      </c>
-      <c r="V40" s="5">
-        <v>0</v>
-      </c>
-      <c r="W40" s="5">
-        <v>0</v>
-      </c>
-      <c r="X40" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY40" s="5">
-        <v>0</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="5">
-        <v>0</v>
-      </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-      <c r="F41" s="5">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-      <c r="H41" s="5">
-        <v>0</v>
-      </c>
-      <c r="I41" s="5">
-        <v>0</v>
-      </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5">
-        <v>0</v>
-      </c>
-      <c r="L41" s="5">
-        <v>0</v>
-      </c>
-      <c r="M41" s="5">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5">
-        <v>0</v>
-      </c>
-      <c r="O41" s="5">
-        <v>0</v>
-      </c>
-      <c r="P41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>0</v>
-      </c>
-      <c r="R41" s="5">
-        <v>0</v>
-      </c>
-      <c r="S41" s="5">
-        <v>0</v>
-      </c>
-      <c r="T41" s="5">
-        <v>0</v>
-      </c>
-      <c r="U41" s="5">
-        <v>0</v>
-      </c>
-      <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41" s="5">
-        <v>0</v>
-      </c>
-      <c r="X41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY41" s="5">
-        <v>0</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>

--- a/forecasts_folder/p90_forecast.xlsx
+++ b/forecasts_folder/p90_forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/forecasts_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{307B7E68-2E1C-4F9C-8531-DABDFB3BF0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EDE6332-7B51-46F9-8E43-0C041DFA79D1}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{307B7E68-2E1C-4F9C-8531-DABDFB3BF0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8264B04-631B-4093-8884-84975827F90E}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{BB49CF0C-2FE8-4923-9EC0-F82C871E6236}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{BB49CF0C-2FE8-4923-9EC0-F82C871E6236}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1466,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3F234E-C0CB-4379-BFE0-3FA5F0C15553}">
   <dimension ref="A1:AY147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A102" sqref="A102:AY147"/>
     </sheetView>
   </sheetViews>

--- a/forecasts_folder/p90_forecast.xlsx
+++ b/forecasts_folder/p90_forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/forecasts_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{307B7E68-2E1C-4F9C-8531-DABDFB3BF0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8264B04-631B-4093-8884-84975827F90E}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{307B7E68-2E1C-4F9C-8531-DABDFB3BF0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D3DFA3D-1BEF-4296-A720-B418E02E8A9D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{BB49CF0C-2FE8-4923-9EC0-F82C871E6236}"/>
   </bookViews>
@@ -506,150 +506,6 @@
     <t>GIGABYTE B650 UD AX (rev. 1.0) AM5 LGA 1718 AMD B650 ATX DDR5, PCIe 4.0 M.2, PCIe 4.0, USB 3.2 Gen2x2 Type-C, Wi-Fi 6, GbE LAN, Q-Flash, EZ-Latch</t>
   </si>
   <si>
-    <t>Week 0 (19 Jan - 25 Jan)</t>
-  </si>
-  <si>
-    <t>Week 1 (26 Jan - 1 Feb)</t>
-  </si>
-  <si>
-    <t>Week 2 (2 Feb - 8 Feb)</t>
-  </si>
-  <si>
-    <t>Week 3 (9 Feb - 15 Feb)</t>
-  </si>
-  <si>
-    <t>Week 4 (16 Feb - 22 Feb)</t>
-  </si>
-  <si>
-    <t>Week 5 (23 Feb - 1 Mar)</t>
-  </si>
-  <si>
-    <t>Week 6 (2 Mar - 8 Mar)</t>
-  </si>
-  <si>
-    <t>Week 7 (9 Mar - 15 Mar)</t>
-  </si>
-  <si>
-    <t>Week 8 (16 Mar - 22 Mar)</t>
-  </si>
-  <si>
-    <t>Week 9 (23 Mar - 29 Mar)</t>
-  </si>
-  <si>
-    <t>Week 10 (30 Mar - 5 Apr)</t>
-  </si>
-  <si>
-    <t>Week 11 (6 Apr - 12 Apr)</t>
-  </si>
-  <si>
-    <t>Week 12 (13 Apr - 19 Apr)</t>
-  </si>
-  <si>
-    <t>Week 13 (20 Apr - 26 Apr)</t>
-  </si>
-  <si>
-    <t>Week 14 (27 Apr - 3 May)</t>
-  </si>
-  <si>
-    <t>Week 15 (4 May - 10 May)</t>
-  </si>
-  <si>
-    <t>Week 16 (11 May - 17 May)</t>
-  </si>
-  <si>
-    <t>Week 17 (18 May - 24 May)</t>
-  </si>
-  <si>
-    <t>Week 18 (25 May - 31 May)</t>
-  </si>
-  <si>
-    <t>Week 19 (1 Jun - 7 Jun)</t>
-  </si>
-  <si>
-    <t>Week 20 (8 Jun - 14 Jun)</t>
-  </si>
-  <si>
-    <t>Week 21 (15 Jun - 21 Jun)</t>
-  </si>
-  <si>
-    <t>Week 22 (22 Jun - 28 Jun)</t>
-  </si>
-  <si>
-    <t>Week 23 (29 Jun - 5 Jul)</t>
-  </si>
-  <si>
-    <t>Week 24 (6 Jul - 12 Jul)</t>
-  </si>
-  <si>
-    <t>Week 25 (13 Jul - 19 Jul)</t>
-  </si>
-  <si>
-    <t>Week 26 (20 Jul - 26 Jul)</t>
-  </si>
-  <si>
-    <t>Week 27 (27 Jul - 2 Aug)</t>
-  </si>
-  <si>
-    <t>Week 28 (3 Aug - 9 Aug)</t>
-  </si>
-  <si>
-    <t>Week 29 (10 Aug - 16 Aug)</t>
-  </si>
-  <si>
-    <t>Week 30 (17 Aug - 23 Aug)</t>
-  </si>
-  <si>
-    <t>Week 31 (24 Aug - 30 Aug)</t>
-  </si>
-  <si>
-    <t>Week 32 (31 Aug - 6 Sep)</t>
-  </si>
-  <si>
-    <t>Week 33 (7 Sep - 13 Sep)</t>
-  </si>
-  <si>
-    <t>Week 34 (14 Sep - 20 Sep)</t>
-  </si>
-  <si>
-    <t>Week 35 (21 Sep - 27 Sep)</t>
-  </si>
-  <si>
-    <t>Week 36 (28 Sep - 4 Oct)</t>
-  </si>
-  <si>
-    <t>Week 37 (5 Oct - 11 Oct)</t>
-  </si>
-  <si>
-    <t>Week 38 (12 Oct - 18 Oct)</t>
-  </si>
-  <si>
-    <t>Week 39 (19 Oct - 25 Oct)</t>
-  </si>
-  <si>
-    <t>Week 40 (26 Oct - 1 Nov)</t>
-  </si>
-  <si>
-    <t>Week 41 (2 Nov - 8 Nov)</t>
-  </si>
-  <si>
-    <t>Week 42 (9 Nov - 15 Nov)</t>
-  </si>
-  <si>
-    <t>Week 43 (16 Nov - 22 Nov)</t>
-  </si>
-  <si>
-    <t>Week 44 (23 Nov - 29 Nov)</t>
-  </si>
-  <si>
-    <t>Week 45 (30 Nov - 6 Dec)</t>
-  </si>
-  <si>
-    <t>Week 46 (7 Dec - 13 Dec)</t>
-  </si>
-  <si>
-    <t>Week 47 (14 Dec - 20 Dec)</t>
-  </si>
-  <si>
     <t>B0DQLJGTRM</t>
   </si>
   <si>
@@ -1068,6 +924,150 @@
   </si>
   <si>
     <t>GIGABYTE Z590 AORUS ELITE (LGA 1200/ Intel Z590/ ATX/ Triple M.2/ PCIe 4.0/ USB 3.2 Gen2X2 Type-C/ 2.5GbE LAN/ Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>Week 0 (26 Jan - 1 Feb)</t>
+  </si>
+  <si>
+    <t>Week 1 (2 Feb - 8 Feb)</t>
+  </si>
+  <si>
+    <t>Week 2 (9 Feb - 15 Feb)</t>
+  </si>
+  <si>
+    <t>Week 3 (16 Feb - 22 Feb)</t>
+  </si>
+  <si>
+    <t>Week 4 (23 Feb - 1 Mar)</t>
+  </si>
+  <si>
+    <t>Week 5 (2 Mar - 8 Mar)</t>
+  </si>
+  <si>
+    <t>Week 6 (9 Mar - 15 Mar)</t>
+  </si>
+  <si>
+    <t>Week 7 (16 Mar - 22 Mar)</t>
+  </si>
+  <si>
+    <t>Week 8 (23 Mar - 29 Mar)</t>
+  </si>
+  <si>
+    <t>Week 9 (30 Mar - 5 Apr)</t>
+  </si>
+  <si>
+    <t>Week 10 (6 Apr - 12 Apr)</t>
+  </si>
+  <si>
+    <t>Week 11 (13 Apr - 19 Apr)</t>
+  </si>
+  <si>
+    <t>Week 12 (20 Apr - 26 Apr)</t>
+  </si>
+  <si>
+    <t>Week 13 (27 Apr - 3 May)</t>
+  </si>
+  <si>
+    <t>Week 14 (4 May - 10 May)</t>
+  </si>
+  <si>
+    <t>Week 15 (11 May - 17 May)</t>
+  </si>
+  <si>
+    <t>Week 16 (18 May - 24 May)</t>
+  </si>
+  <si>
+    <t>Week 17 (25 May - 31 May)</t>
+  </si>
+  <si>
+    <t>Week 18 (1 Jun - 7 Jun)</t>
+  </si>
+  <si>
+    <t>Week 19 (8 Jun - 14 Jun)</t>
+  </si>
+  <si>
+    <t>Week 20 (15 Jun - 21 Jun)</t>
+  </si>
+  <si>
+    <t>Week 21 (22 Jun - 28 Jun)</t>
+  </si>
+  <si>
+    <t>Week 22 (29 Jun - 5 Jul)</t>
+  </si>
+  <si>
+    <t>Week 23 (6 Jul - 12 Jul)</t>
+  </si>
+  <si>
+    <t>Week 24 (13 Jul - 19 Jul)</t>
+  </si>
+  <si>
+    <t>Week 25 (20 Jul - 26 Jul)</t>
+  </si>
+  <si>
+    <t>Week 26 (27 Jul - 2 Aug)</t>
+  </si>
+  <si>
+    <t>Week 27 (3 Aug - 9 Aug)</t>
+  </si>
+  <si>
+    <t>Week 28 (10 Aug - 16 Aug)</t>
+  </si>
+  <si>
+    <t>Week 29 (17 Aug - 23 Aug)</t>
+  </si>
+  <si>
+    <t>Week 30 (24 Aug - 30 Aug)</t>
+  </si>
+  <si>
+    <t>Week 31 (31 Aug - 6 Sep)</t>
+  </si>
+  <si>
+    <t>Week 32 (7 Sep - 13 Sep)</t>
+  </si>
+  <si>
+    <t>Week 33 (14 Sep - 20 Sep)</t>
+  </si>
+  <si>
+    <t>Week 34 (21 Sep - 27 Sep)</t>
+  </si>
+  <si>
+    <t>Week 35 (28 Sep - 4 Oct)</t>
+  </si>
+  <si>
+    <t>Week 36 (5 Oct - 11 Oct)</t>
+  </si>
+  <si>
+    <t>Week 37 (12 Oct - 18 Oct)</t>
+  </si>
+  <si>
+    <t>Week 38 (19 Oct - 25 Oct)</t>
+  </si>
+  <si>
+    <t>Week 39 (26 Oct - 1 Nov)</t>
+  </si>
+  <si>
+    <t>Week 40 (2 Nov - 8 Nov)</t>
+  </si>
+  <si>
+    <t>Week 41 (9 Nov - 15 Nov)</t>
+  </si>
+  <si>
+    <t>Week 42 (16 Nov - 22 Nov)</t>
+  </si>
+  <si>
+    <t>Week 43 (23 Nov - 29 Nov)</t>
+  </si>
+  <si>
+    <t>Week 44 (30 Nov - 6 Dec)</t>
+  </si>
+  <si>
+    <t>Week 45 (7 Dec - 13 Dec)</t>
+  </si>
+  <si>
+    <t>Week 46 (14 Dec - 20 Dec)</t>
+  </si>
+  <si>
+    <t>Week 47 (21 Dec - 27 Dec)</t>
   </si>
 </sst>
 </file>
@@ -1483,148 +1483,148 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>297</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>158</v>
+        <v>298</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>163</v>
+        <v>303</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>164</v>
+        <v>304</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>165</v>
+        <v>305</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>167</v>
+        <v>307</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>168</v>
+        <v>308</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>171</v>
+        <v>311</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>172</v>
+        <v>312</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>173</v>
+        <v>313</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>175</v>
+        <v>315</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>176</v>
+        <v>316</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>177</v>
+        <v>317</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>181</v>
+        <v>321</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>182</v>
+        <v>322</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>183</v>
+        <v>323</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>184</v>
+        <v>324</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>186</v>
+        <v>326</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>188</v>
+        <v>328</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>189</v>
+        <v>329</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>191</v>
+        <v>331</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>193</v>
+        <v>333</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>195</v>
+        <v>335</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>196</v>
+        <v>336</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>197</v>
+        <v>337</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>198</v>
+        <v>338</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>199</v>
+        <v>339</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>201</v>
+        <v>341</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>202</v>
+        <v>342</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>203</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
@@ -3954,10 +3954,10 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
@@ -6279,10 +6279,10 @@
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
@@ -7519,10 +7519,10 @@
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
@@ -8294,10 +8294,10 @@
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>3</v>
@@ -8604,10 +8604,10 @@
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>3</v>
@@ -8759,10 +8759,10 @@
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
@@ -11084,10 +11084,10 @@
     </row>
     <row r="63" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>3</v>
@@ -12324,10 +12324,10 @@
     </row>
     <row r="71" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>3</v>
@@ -13254,10 +13254,10 @@
     </row>
     <row r="77" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>3</v>
@@ -13719,10 +13719,10 @@
     </row>
     <row r="80" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
@@ -13874,10 +13874,10 @@
     </row>
     <row r="81" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>3</v>
@@ -14029,10 +14029,10 @@
     </row>
     <row r="82" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -14339,10 +14339,10 @@
     </row>
     <row r="84" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>3</v>
@@ -14494,10 +14494,10 @@
     </row>
     <row r="85" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>3</v>
@@ -14649,10 +14649,10 @@
     </row>
     <row r="86" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="B86" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -14959,10 +14959,10 @@
     </row>
     <row r="88" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -15269,10 +15269,10 @@
     </row>
     <row r="90" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="B90" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -15424,10 +15424,10 @@
     </row>
     <row r="91" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="B91" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -16044,10 +16044,10 @@
     </row>
     <row r="95" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="B95" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -16199,10 +16199,10 @@
     </row>
     <row r="96" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -16354,10 +16354,10 @@
     </row>
     <row r="97" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="B97" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -16509,10 +16509,10 @@
     </row>
     <row r="98" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="B98" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -16819,10 +16819,10 @@
     </row>
     <row r="100" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
@@ -16974,10 +16974,10 @@
     </row>
     <row r="101" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="C101" t="s">
         <v>3</v>
@@ -17129,10 +17129,10 @@
     </row>
     <row r="102" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="B102" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
         <v>3</v>
@@ -17284,10 +17284,10 @@
     </row>
     <row r="103" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="C103" t="s">
         <v>3</v>
@@ -17439,10 +17439,10 @@
     </row>
     <row r="104" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="C104" t="s">
         <v>3</v>
@@ -17594,10 +17594,10 @@
     </row>
     <row r="105" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="B105" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="C105" t="s">
         <v>3</v>
@@ -17749,10 +17749,10 @@
     </row>
     <row r="106" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s">
         <v>3</v>
@@ -17904,10 +17904,10 @@
     </row>
     <row r="107" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="B107" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s">
         <v>3</v>
@@ -18059,10 +18059,10 @@
     </row>
     <row r="108" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="B108" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
         <v>3</v>
@@ -18214,10 +18214,10 @@
     </row>
     <row r="109" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="C109" t="s">
         <v>3</v>
@@ -18369,10 +18369,10 @@
     </row>
     <row r="110" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="C110" t="s">
         <v>3</v>
@@ -18524,10 +18524,10 @@
     </row>
     <row r="111" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="B111" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="C111" t="s">
         <v>3</v>
@@ -18679,10 +18679,10 @@
     </row>
     <row r="112" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="B112" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="C112" t="s">
         <v>3</v>
@@ -18834,10 +18834,10 @@
     </row>
     <row r="113" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="C113" t="s">
         <v>3</v>
@@ -18989,10 +18989,10 @@
     </row>
     <row r="114" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="B114" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
@@ -19144,10 +19144,10 @@
     </row>
     <row r="115" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="B115" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="C115" t="s">
         <v>3</v>
@@ -19299,10 +19299,10 @@
     </row>
     <row r="116" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="B116" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="C116" t="s">
         <v>3</v>
@@ -19454,10 +19454,10 @@
     </row>
     <row r="117" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="C117" t="s">
         <v>3</v>
@@ -19609,10 +19609,10 @@
     </row>
     <row r="118" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="B118" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C118" t="s">
         <v>3</v>
@@ -19764,10 +19764,10 @@
     </row>
     <row r="119" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="B119" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="C119" t="s">
         <v>3</v>
@@ -19919,10 +19919,10 @@
     </row>
     <row r="120" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="B120" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="C120" t="s">
         <v>3</v>
@@ -20074,10 +20074,10 @@
     </row>
     <row r="121" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="B121" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="C121" t="s">
         <v>3</v>
@@ -20229,10 +20229,10 @@
     </row>
     <row r="122" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="B122" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="C122" t="s">
         <v>3</v>
@@ -20384,10 +20384,10 @@
     </row>
     <row r="123" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="B123" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="C123" t="s">
         <v>3</v>
@@ -20539,10 +20539,10 @@
     </row>
     <row r="124" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="B124" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="C124" t="s">
         <v>3</v>
@@ -20694,10 +20694,10 @@
     </row>
     <row r="125" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="B125" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="C125" t="s">
         <v>3</v>
@@ -20849,10 +20849,10 @@
     </row>
     <row r="126" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="B126" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="C126" t="s">
         <v>3</v>
@@ -21004,10 +21004,10 @@
     </row>
     <row r="127" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="B127" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="C127" t="s">
         <v>3</v>
@@ -21159,10 +21159,10 @@
     </row>
     <row r="128" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="B128" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="C128" t="s">
         <v>3</v>
@@ -21314,10 +21314,10 @@
     </row>
     <row r="129" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="B129" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="C129" t="s">
         <v>3</v>
@@ -21469,10 +21469,10 @@
     </row>
     <row r="130" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="B130" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="C130" t="s">
         <v>3</v>
@@ -21624,10 +21624,10 @@
     </row>
     <row r="131" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="B131" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="C131" t="s">
         <v>3</v>
@@ -21779,10 +21779,10 @@
     </row>
     <row r="132" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="B132" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="C132" t="s">
         <v>3</v>
@@ -21934,10 +21934,10 @@
     </row>
     <row r="133" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="B133" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="C133" t="s">
         <v>3</v>
@@ -22089,10 +22089,10 @@
     </row>
     <row r="134" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="B134" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="C134" t="s">
         <v>3</v>
@@ -22244,10 +22244,10 @@
     </row>
     <row r="135" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="B135" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="C135" t="s">
         <v>3</v>
@@ -22399,10 +22399,10 @@
     </row>
     <row r="136" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="B136" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="C136" t="s">
         <v>3</v>
@@ -22554,10 +22554,10 @@
     </row>
     <row r="137" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="B137" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="C137" t="s">
         <v>3</v>
@@ -22709,10 +22709,10 @@
     </row>
     <row r="138" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="B138" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="C138" t="s">
         <v>3</v>
@@ -22864,10 +22864,10 @@
     </row>
     <row r="139" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="B139" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="C139" t="s">
         <v>3</v>
@@ -23019,10 +23019,10 @@
     </row>
     <row r="140" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="B140" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="C140" t="s">
         <v>3</v>
@@ -23174,10 +23174,10 @@
     </row>
     <row r="141" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="B141" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="C141" t="s">
         <v>3</v>
@@ -23329,10 +23329,10 @@
     </row>
     <row r="142" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="B142" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="C142" t="s">
         <v>3</v>
@@ -23484,10 +23484,10 @@
     </row>
     <row r="143" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="B143" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="C143" t="s">
         <v>3</v>
@@ -23639,10 +23639,10 @@
     </row>
     <row r="144" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="B144" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="C144" t="s">
         <v>3</v>
@@ -23794,10 +23794,10 @@
     </row>
     <row r="145" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="B145" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="C145" t="s">
         <v>3</v>
@@ -23949,10 +23949,10 @@
     </row>
     <row r="146" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="B146" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="C146" t="s">
         <v>3</v>
@@ -24104,10 +24104,10 @@
     </row>
     <row r="147" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="B147" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="C147" t="s">
         <v>3</v>

--- a/forecasts_folder/p90_forecast.xlsx
+++ b/forecasts_folder/p90_forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/forecasts_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B1A6B87B-C079-478F-AB17-47B39DB82B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C38E27-7D48-4D90-9E8E-87AE861F8F1E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B1A6B87B-C079-478F-AB17-47B39DB82B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61FAC10E-E791-48F1-8365-8CA651AE8CFC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{BB49CF0C-2FE8-4923-9EC0-F82C871E6236}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="344">
   <si>
     <t>ASIN</t>
   </si>
@@ -792,6 +792,282 @@
   </si>
   <si>
     <t>Week 47 (25 Jan - 31 Jan)</t>
+  </si>
+  <si>
+    <t>B0DGVBM73J</t>
+  </si>
+  <si>
+    <t>GIGABYTE X870E AORUS Elite WIFI7 AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+  </si>
+  <si>
+    <t>B0BH9DXY38</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AORUS Elite AX (LGA 1700/ Intel Z790/ ATX/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel WiFi 6E/ 2.5GbE LAN/Q-Flash Plus/PCIe EZ-Latch/Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>B0DGVBSLLP</t>
+  </si>
+  <si>
+    <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+  </si>
+  <si>
+    <t>B0D2RL4PT6</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 S WiFi DDR4 LGA 1700 Intel Z790 ATX Motherboard with DDR4, Triple M.2, PCIe 4.0, USB 3.2 Gen2 Type-C, 2.5GbE LAN, PCIe EZ-Latch, Multi-Key</t>
+  </si>
+  <si>
+    <t>B0DGVGT3PJ</t>
+  </si>
+  <si>
+    <t>GIGABYTE X870 Gaming X WIFI7 AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 3X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+  </si>
+  <si>
+    <t>B0D2PK3CC1</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790M AORUS Elite AX ICE LGA 1700 Intel Z790 M-ATX Motherboard with DDR5, Triple M.2, PCIe 5.0, USB 3.2 Gen2X2 Type-C, Intel Wi-Fi 6E, 2.5GbE LAN, Q-Flash Plus, EZ-Latch Plus</t>
+  </si>
+  <si>
+    <t>B0CTNPZLNH</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 Eagle AX LGA 1700 Intel Z790 ATX Motherboard with DDR5, M.2, PCIe 5.0, USB 3.2 Gen2X2 Type-C, Intel Wi-Fi 6E, 2.5GbE LAN, Q-Flash Plus, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0DGVSW4FD</t>
+  </si>
+  <si>
+    <t>GIGABYTE X870E AORUS Master AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+  </si>
+  <si>
+    <t>B0BHTMXMRQ</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 UD AC (LGA 1700/ Intel Z790/ ATX/ DDR5/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Wi-Fi/ 2.5GbE LAN/PCIe EZ-Latch/Multi-Key/Motherboard)</t>
+  </si>
+  <si>
+    <t>B083RW9TJF</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AORUS PRO X (LGA 1700/ Intel/ Z790 X/ATX/ DDR5/ 5* M.2/ PCIe 5.0/ USB 3.2 Type-C/Wi-Fi 7/ 5GbE LAN/Q-Flash Plus/EZ-Latch Plus/Motherboard)</t>
+  </si>
+  <si>
+    <t>B0DGVGV7YN</t>
+  </si>
+  <si>
+    <t>GIGABYTE X870E AORUS PRO AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+  </si>
+  <si>
+    <t>B0CTTVFWHM</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AORUS PRO X WIFI7 LGA 1700 Intel Z790 X ATX Motherboard with DDR5, 5* M.2, PCIe 5.0, USB 3.2 Type-C, Wi-Fi 7, 5GbE LAN, Q-Flash Plus, EZ-Latch Plus</t>
+  </si>
+  <si>
+    <t>B083RW9KDM</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AORUS Elite X WIFI7 (LGA 1700/ Intel/ Z790 X/ATX/ DDR5/ 4* M.2/ PCIe 5.0/ USB 3.2 Type-C/Wi-Fi 7/2.5GbE LAN/Q-Flash Plus/EZ-Latch Plus/Motherboard)</t>
+  </si>
+  <si>
+    <t>B0DJP95MGB</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 AORUS Elite WIFI7 Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, Thunderbolt 4, WIFI7, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0CKS6BMH7</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AORUS Elite AX ICE (LGA 1700/ Intel/ Z790 X/ATX/ DDR5/ 4* M.2/ PCIe 5.0/ USB 3.2 Type-C/Wi-Fi 6E/ 2.5GbE LAN/Q-Flash Plus/EZ-Latch Plus/Motherboard)</t>
+  </si>
+  <si>
+    <t>B083RVX2FQ</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AORUS Master X (LGA 1700/ Intel Z790 X/EATX/ DDR5/ 5* M.2/ PCIe 5.0/ USB 3.2 Type-C/Wi-Fi 7/ 10GbE LAN/Q-Flash Plus/EZ-Latch Plus/Motherboard)</t>
+  </si>
+  <si>
+    <t>B0D8WH39QJ</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 Gaming Plus AX LGA 1700 Intel Z790 ATX Motherboard with DDR5, Triple M.2, PCIe 4.0, USB 3.2 Gen2 Type-C, Realtek Wi-Fi 6, Realtek LAN, Q-Flash Plus, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0BH9F7DKS</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AORUS Master EATX Motherboard with DDR5, PCIe 5.0, WiFi 6E, 10GbE LAN, Q-Flash Plus</t>
+  </si>
+  <si>
+    <t>B0DJP9FZYK</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890M Gaming X Ultra Core (Series 2) LGA 1851, mATX, DDR5, 3X M.2, PCIe 5.0, Front USB Type-C, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0DJP8MMMJ</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 Eagle WIFI7 Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0DJP7NRXX</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 AORUS Elite WIFI7 ICE Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 3X M.2, PCIe 5.0, Thunderbolt 4, WIFI7, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0BSVYXM5C</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 Gaming X AX (LGA 1700/ Intel/ Z790/ ATX/ DDR5/ M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Wi-Fi 6E/ 2.5GbE LAN/Q-Flash Plus/EZ-Latch Plus/Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>B0DJP8W3BY</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 UD WIFI6E Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 3X M.2, PCIe 5.0, Front USB Type-C, WIFI6E, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0DJP8Q6JK</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890M AORUS Elite WIFI7 ICE Ultra Core (Series 2) LGA 1851, ATX, DDR5, 3X M.2, PCIe 5.0, Thunderbolt 4, WIFI7, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0DJP9KLLD</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 AERO G Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 5xM.2, PCIe 5.0, Thunderbolt 4, WIFI7, Dual 2.5Gbe LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0DJP76L1F</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 AORUS Elite X ICE Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 5X M.2, PCIe 5.0, Thunderbolt 4, WIFI7, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0BZQ43XXL</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790I AORUS Ultra (LGA 1700/ Intel/ Z790/ Mini-ITX/ DDR5/ Dual M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Killer Wi-Fi 6E/ Intel 2.5GbE LAN/Q-Flash Plus/Motherboard)</t>
+  </si>
+  <si>
+    <t>B0DJP8NFWP</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 AORUS PRO ICE Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 5X M.2, PCIe 5.0, Thunderbolt 4, WIFI7, 5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0DJP82ML2</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890I AORUS Ultra Ultra Core (Series 2) LGA 1851, Mini-ITX, DDR5, 2X M.2, PCIe 5.0, Thunderbolt 4, WIFI7, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0DJP9LCYC</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 AORUS Master Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 5X M.2, PCIe 5.0, Thunderbolt 4, WIFI7, 10GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0BH9BBLHB</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AERO G (LGA 1700/ Intel Z790/ ATX/ DDR5/ 5 * 5.0 M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/WiFi 6E/ Intel 2.5GbE LAN/Motherboard), 128 GB</t>
+  </si>
+  <si>
+    <t>B09J6BWK2Z</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z690 AORUS Elite AX DDR4 (LGA 1700/ Intel Z690/ ATX/ DDR4/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/WiFi 6/2.5GbE LAN/Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>B09L9DY4L1</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z690 AERO G DDR4 (LGA 1700/ Intel Z690/ ATX/ DDR4/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ WiFi 6/ Intel 2.5 GbE LAN/ Motherboard)</t>
+  </si>
+  <si>
+    <t>B083R7T5P4</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 UD AX (LGA 1700/ Intel/ Z790/ ATX/DDR5/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Wi-Fi 6E/ 2.5GbE LAN/PCIe EZ-Latch/Multi-Key/Motherboard)</t>
+  </si>
+  <si>
+    <t>B0DJP9DBVS</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 Gaming X WIFI7 Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B09JZFT4SN</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z690 AORUS ULTRA (LGA 1700/ Intel Z690/ ATX/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2/ Type-C/ WiFi 6/ 2.5GbE LAN/ Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>B0CTTWH6TD</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 D AC LGA 1700 Intel Z790 ATX Motherboard with DDR5, Triple M.2, PCIe 5.0, USB 3.2 Gen2X2 Type-C, 2.5GbE LAN, PCIe EZ-Latch, Multi-Key</t>
+  </si>
+  <si>
+    <t>B083R7PHMX</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 D DDR4 (LGA 1700/ Intel/ Z790/ ATX/ DDR4/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C 2.5GbE LAN/PCIe EZ-Latch/Multi-Key/Motherboard)</t>
+  </si>
+  <si>
+    <t>B09J64TBJG</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z690 AORUS MASTER (LGA 1700/ Intel Z690/ ATX/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ Intel WiFi 6E/ AQUANTIA 10GbE LAN/ Intel Thunderbolt 4/ Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>B09JZGTYXJ</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z690 UD AX DDR4 (LGA 1700/ Intel Z690/ ATX/ DDR4/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2/ Type-C/WiFi 6/2.5GbE LAN/Motherboard)</t>
+  </si>
+  <si>
+    <t>B09J5TC4F8</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z690 Gaming X DDR4 (LGA 1700/ Intel Z690/ ATX/ DDR4/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ 2.5GbE LAN/Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>B083NN4MLZ</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z690 AERO G (LGA 1700/ Intel Z690/ ATX/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/WiFi 6/ Intel 2.5 GbE LAN/Motherboard)</t>
+  </si>
+  <si>
+    <t>B087GH5SK2</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z490 AORUS Master (Intel LGA1200/Z490/ATX/Intel 2.5G LAN/3xM.2 Thermal Guard/SATA 6Gb/s/USB 3.2 Gen 2/Intel Wi-Fi 6/ESS Sabre DAC/Fins Array II/Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>B083GT6ZBX</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z590 AORUS Tachyon (LGA 1200/ Intel/ Z590/ ATX/Triple M.2/ PCIe 4.0/ USB 3.2 Gen2X2 Type-C/Intel WiFi 6E/ 2.5GbE LAN/Onboard Overclocking Kit/Motherboard)</t>
+  </si>
+  <si>
+    <t>B07HS59X7P</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z390 UD (LGA 1151 (300 Series) Intel Z390 SATA 6Gb/s ATX Intel Motherboard for Cryptocurrency Mining with above 4G Decoding, 6 x PCIe Slots)</t>
+  </si>
+  <si>
+    <t>B08WPV5HS7</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z590 AORUS ELITE (LGA 1200/ Intel Z590/ ATX/ Triple M.2/ PCIe 4.0/ USB 3.2 Gen2X2 Type-C/ 2.5GbE LAN/ Gaming Motherboard)</t>
   </si>
 </sst>
 </file>
@@ -866,6 +1142,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1185,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3F234E-C0CB-4379-BFE0-3FA5F0C15553}">
-  <dimension ref="A1:AY101"/>
+  <dimension ref="A1:AY147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:AY1"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16851,6 +17131,7136 @@
         <v>6.3</v>
       </c>
     </row>
+    <row r="102" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>252</v>
+      </c>
+      <c r="B102" t="s">
+        <v>253</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="4">
+        <v>345.26</v>
+      </c>
+      <c r="E102" s="4">
+        <v>369.68</v>
+      </c>
+      <c r="F102" s="4">
+        <v>363.91</v>
+      </c>
+      <c r="G102" s="4">
+        <v>360.36</v>
+      </c>
+      <c r="H102" s="4">
+        <v>384.67</v>
+      </c>
+      <c r="I102" s="4">
+        <v>339.79</v>
+      </c>
+      <c r="J102" s="4">
+        <v>389.18</v>
+      </c>
+      <c r="K102" s="4">
+        <v>405.35</v>
+      </c>
+      <c r="L102" s="4">
+        <v>342.77</v>
+      </c>
+      <c r="M102" s="4">
+        <v>381.72</v>
+      </c>
+      <c r="N102" s="4">
+        <v>410.04</v>
+      </c>
+      <c r="O102" s="4">
+        <v>386.07</v>
+      </c>
+      <c r="P102" s="4">
+        <v>385</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>345.46</v>
+      </c>
+      <c r="R102" s="4">
+        <v>389.87</v>
+      </c>
+      <c r="S102" s="4">
+        <v>366.23</v>
+      </c>
+      <c r="T102" s="4">
+        <v>378.3</v>
+      </c>
+      <c r="U102" s="4">
+        <v>386.19</v>
+      </c>
+      <c r="V102" s="4">
+        <v>422.32</v>
+      </c>
+      <c r="W102" s="4">
+        <v>574.73</v>
+      </c>
+      <c r="X102" s="4">
+        <v>574.85</v>
+      </c>
+      <c r="Y102" s="4">
+        <v>403.78</v>
+      </c>
+      <c r="Z102" s="4">
+        <v>368.6</v>
+      </c>
+      <c r="AA102" s="4">
+        <v>403.18</v>
+      </c>
+      <c r="AB102" s="4">
+        <v>433.04</v>
+      </c>
+      <c r="AC102" s="4">
+        <v>367.07</v>
+      </c>
+      <c r="AD102" s="4">
+        <v>372.51</v>
+      </c>
+      <c r="AE102" s="4">
+        <v>366.27</v>
+      </c>
+      <c r="AF102" s="4">
+        <v>337.47</v>
+      </c>
+      <c r="AG102" s="4">
+        <v>380.75</v>
+      </c>
+      <c r="AH102" s="4">
+        <v>370.99</v>
+      </c>
+      <c r="AI102" s="4">
+        <v>367.6</v>
+      </c>
+      <c r="AJ102" s="4">
+        <v>354.19</v>
+      </c>
+      <c r="AK102" s="4">
+        <v>389.94</v>
+      </c>
+      <c r="AL102" s="4">
+        <v>384.14</v>
+      </c>
+      <c r="AM102" s="4">
+        <v>461.53</v>
+      </c>
+      <c r="AN102" s="4">
+        <v>456.61</v>
+      </c>
+      <c r="AO102" s="4">
+        <v>451.97</v>
+      </c>
+      <c r="AP102" s="4">
+        <v>578.04999999999995</v>
+      </c>
+      <c r="AQ102" s="4">
+        <v>802.15</v>
+      </c>
+      <c r="AR102" s="4">
+        <v>850.36</v>
+      </c>
+      <c r="AS102" s="4">
+        <v>771.23</v>
+      </c>
+      <c r="AT102" s="4">
+        <v>589.77</v>
+      </c>
+      <c r="AU102" s="4">
+        <v>513.35</v>
+      </c>
+      <c r="AV102" s="4">
+        <v>436.77</v>
+      </c>
+      <c r="AW102" s="4">
+        <v>442.65</v>
+      </c>
+      <c r="AX102" s="4">
+        <v>416.36</v>
+      </c>
+      <c r="AY102" s="4">
+        <v>371.68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>254</v>
+      </c>
+      <c r="B103" t="s">
+        <v>255</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="4">
+        <v>276.95</v>
+      </c>
+      <c r="E103" s="4">
+        <v>230.11</v>
+      </c>
+      <c r="F103" s="4">
+        <v>245.97</v>
+      </c>
+      <c r="G103" s="4">
+        <v>260.62</v>
+      </c>
+      <c r="H103" s="4">
+        <v>270.91000000000003</v>
+      </c>
+      <c r="I103" s="4">
+        <v>261.33</v>
+      </c>
+      <c r="J103" s="4">
+        <v>267.10000000000002</v>
+      </c>
+      <c r="K103" s="4">
+        <v>279.89</v>
+      </c>
+      <c r="L103" s="4">
+        <v>258.04000000000002</v>
+      </c>
+      <c r="M103" s="4">
+        <v>259.43</v>
+      </c>
+      <c r="N103" s="4">
+        <v>264.20999999999998</v>
+      </c>
+      <c r="O103" s="4">
+        <v>265.8</v>
+      </c>
+      <c r="P103" s="4">
+        <v>258.79000000000002</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>246.43</v>
+      </c>
+      <c r="R103" s="4">
+        <v>250.83</v>
+      </c>
+      <c r="S103" s="4">
+        <v>245.97</v>
+      </c>
+      <c r="T103" s="4">
+        <v>243.99</v>
+      </c>
+      <c r="U103" s="4">
+        <v>243.35</v>
+      </c>
+      <c r="V103" s="4">
+        <v>261.75</v>
+      </c>
+      <c r="W103" s="4">
+        <v>429.81</v>
+      </c>
+      <c r="X103" s="4">
+        <v>445.1</v>
+      </c>
+      <c r="Y103" s="4">
+        <v>258.10000000000002</v>
+      </c>
+      <c r="Z103" s="4">
+        <v>240.63</v>
+      </c>
+      <c r="AA103" s="4">
+        <v>246.9</v>
+      </c>
+      <c r="AB103" s="4">
+        <v>258.36</v>
+      </c>
+      <c r="AC103" s="4">
+        <v>239.03</v>
+      </c>
+      <c r="AD103" s="4">
+        <v>236.58</v>
+      </c>
+      <c r="AE103" s="4">
+        <v>241.64</v>
+      </c>
+      <c r="AF103" s="4">
+        <v>218.25</v>
+      </c>
+      <c r="AG103" s="4">
+        <v>236.1</v>
+      </c>
+      <c r="AH103" s="4">
+        <v>232.14</v>
+      </c>
+      <c r="AI103" s="4">
+        <v>234.26</v>
+      </c>
+      <c r="AJ103" s="4">
+        <v>226.14</v>
+      </c>
+      <c r="AK103" s="4">
+        <v>245.75</v>
+      </c>
+      <c r="AL103" s="4">
+        <v>239.29</v>
+      </c>
+      <c r="AM103" s="4">
+        <v>271.45999999999998</v>
+      </c>
+      <c r="AN103" s="4">
+        <v>275.5</v>
+      </c>
+      <c r="AO103" s="4">
+        <v>295.02999999999997</v>
+      </c>
+      <c r="AP103" s="4">
+        <v>357.21</v>
+      </c>
+      <c r="AQ103" s="4">
+        <v>481.43</v>
+      </c>
+      <c r="AR103" s="4">
+        <v>484.58</v>
+      </c>
+      <c r="AS103" s="4">
+        <v>411.84</v>
+      </c>
+      <c r="AT103" s="4">
+        <v>481.66</v>
+      </c>
+      <c r="AU103" s="4">
+        <v>381.17</v>
+      </c>
+      <c r="AV103" s="4">
+        <v>249.1</v>
+      </c>
+      <c r="AW103" s="4">
+        <v>268.37</v>
+      </c>
+      <c r="AX103" s="4">
+        <v>248.93</v>
+      </c>
+      <c r="AY103" s="4">
+        <v>236.76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>256</v>
+      </c>
+      <c r="B104" t="s">
+        <v>257</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="4">
+        <v>187.97</v>
+      </c>
+      <c r="E104" s="4">
+        <v>213.05</v>
+      </c>
+      <c r="F104" s="4">
+        <v>216.94</v>
+      </c>
+      <c r="G104" s="4">
+        <v>209.99</v>
+      </c>
+      <c r="H104" s="4">
+        <v>236.15</v>
+      </c>
+      <c r="I104" s="4">
+        <v>199.47</v>
+      </c>
+      <c r="J104" s="4">
+        <v>248.22</v>
+      </c>
+      <c r="K104" s="4">
+        <v>257.7</v>
+      </c>
+      <c r="L104" s="4">
+        <v>209.1</v>
+      </c>
+      <c r="M104" s="4">
+        <v>236.83</v>
+      </c>
+      <c r="N104" s="4">
+        <v>261.04000000000002</v>
+      </c>
+      <c r="O104" s="4">
+        <v>257.75</v>
+      </c>
+      <c r="P104" s="4">
+        <v>248.67</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>224.11</v>
+      </c>
+      <c r="R104" s="4">
+        <v>254.97</v>
+      </c>
+      <c r="S104" s="4">
+        <v>234.89</v>
+      </c>
+      <c r="T104" s="4">
+        <v>239.25</v>
+      </c>
+      <c r="U104" s="4">
+        <v>251.76</v>
+      </c>
+      <c r="V104" s="4">
+        <v>270.23</v>
+      </c>
+      <c r="W104" s="4">
+        <v>389.94</v>
+      </c>
+      <c r="X104" s="4">
+        <v>385.39</v>
+      </c>
+      <c r="Y104" s="4">
+        <v>256.39</v>
+      </c>
+      <c r="Z104" s="4">
+        <v>233.73</v>
+      </c>
+      <c r="AA104" s="4">
+        <v>259.76</v>
+      </c>
+      <c r="AB104" s="4">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="AC104" s="4">
+        <v>237.34</v>
+      </c>
+      <c r="AD104" s="4">
+        <v>237.54</v>
+      </c>
+      <c r="AE104" s="4">
+        <v>244.34</v>
+      </c>
+      <c r="AF104" s="4">
+        <v>221.51</v>
+      </c>
+      <c r="AG104" s="4">
+        <v>248.28</v>
+      </c>
+      <c r="AH104" s="4">
+        <v>244.93</v>
+      </c>
+      <c r="AI104" s="4">
+        <v>235.22</v>
+      </c>
+      <c r="AJ104" s="4">
+        <v>225.42</v>
+      </c>
+      <c r="AK104" s="4">
+        <v>239.84</v>
+      </c>
+      <c r="AL104" s="4">
+        <v>230.13</v>
+      </c>
+      <c r="AM104" s="4">
+        <v>307.77999999999997</v>
+      </c>
+      <c r="AN104" s="4">
+        <v>302.74</v>
+      </c>
+      <c r="AO104" s="4">
+        <v>300.25</v>
+      </c>
+      <c r="AP104" s="4">
+        <v>428.17</v>
+      </c>
+      <c r="AQ104" s="4">
+        <v>561.75</v>
+      </c>
+      <c r="AR104" s="4">
+        <v>615.85</v>
+      </c>
+      <c r="AS104" s="4">
+        <v>509.18</v>
+      </c>
+      <c r="AT104" s="4">
+        <v>414.38</v>
+      </c>
+      <c r="AU104" s="4">
+        <v>344.97</v>
+      </c>
+      <c r="AV104" s="4">
+        <v>247.14</v>
+      </c>
+      <c r="AW104" s="4">
+        <v>270.13</v>
+      </c>
+      <c r="AX104" s="4">
+        <v>247.85</v>
+      </c>
+      <c r="AY104" s="4">
+        <v>217.56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>258</v>
+      </c>
+      <c r="B105" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="4">
+        <v>164.47</v>
+      </c>
+      <c r="E105" s="4">
+        <v>173.48</v>
+      </c>
+      <c r="F105" s="4">
+        <v>172.69</v>
+      </c>
+      <c r="G105" s="4">
+        <v>169.98</v>
+      </c>
+      <c r="H105" s="4">
+        <v>183.06</v>
+      </c>
+      <c r="I105" s="4">
+        <v>169.89</v>
+      </c>
+      <c r="J105" s="4">
+        <v>182.66</v>
+      </c>
+      <c r="K105" s="4">
+        <v>185.31</v>
+      </c>
+      <c r="L105" s="4">
+        <v>168.57</v>
+      </c>
+      <c r="M105" s="4">
+        <v>170.1</v>
+      </c>
+      <c r="N105" s="4">
+        <v>192.46</v>
+      </c>
+      <c r="O105" s="4">
+        <v>173.33</v>
+      </c>
+      <c r="P105" s="4">
+        <v>176.87</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>166.15</v>
+      </c>
+      <c r="R105" s="4">
+        <v>175.33</v>
+      </c>
+      <c r="S105" s="4">
+        <v>170.31</v>
+      </c>
+      <c r="T105" s="4">
+        <v>170.19</v>
+      </c>
+      <c r="U105" s="4">
+        <v>173.06</v>
+      </c>
+      <c r="V105" s="4">
+        <v>188.43</v>
+      </c>
+      <c r="W105" s="4">
+        <v>276.77999999999997</v>
+      </c>
+      <c r="X105" s="4">
+        <v>272.57</v>
+      </c>
+      <c r="Y105" s="4">
+        <v>187.23</v>
+      </c>
+      <c r="Z105" s="4">
+        <v>169.11</v>
+      </c>
+      <c r="AA105" s="4">
+        <v>176.03</v>
+      </c>
+      <c r="AB105" s="4">
+        <v>192.32</v>
+      </c>
+      <c r="AC105" s="4">
+        <v>167.74</v>
+      </c>
+      <c r="AD105" s="4">
+        <v>167.52</v>
+      </c>
+      <c r="AE105" s="4">
+        <v>168.02</v>
+      </c>
+      <c r="AF105" s="4">
+        <v>162.05000000000001</v>
+      </c>
+      <c r="AG105" s="4">
+        <v>172.76</v>
+      </c>
+      <c r="AH105" s="4">
+        <v>163.06</v>
+      </c>
+      <c r="AI105" s="4">
+        <v>169.2</v>
+      </c>
+      <c r="AJ105" s="4">
+        <v>165.51</v>
+      </c>
+      <c r="AK105" s="4">
+        <v>176.43</v>
+      </c>
+      <c r="AL105" s="4">
+        <v>170.33</v>
+      </c>
+      <c r="AM105" s="4">
+        <v>199.89</v>
+      </c>
+      <c r="AN105" s="4">
+        <v>198.42</v>
+      </c>
+      <c r="AO105" s="4">
+        <v>204.53</v>
+      </c>
+      <c r="AP105" s="4">
+        <v>285.52</v>
+      </c>
+      <c r="AQ105" s="4">
+        <v>342.46</v>
+      </c>
+      <c r="AR105" s="4">
+        <v>383.96</v>
+      </c>
+      <c r="AS105" s="4">
+        <v>360.19</v>
+      </c>
+      <c r="AT105" s="4">
+        <v>328.78</v>
+      </c>
+      <c r="AU105" s="4">
+        <v>271.36</v>
+      </c>
+      <c r="AV105" s="4">
+        <v>222.75</v>
+      </c>
+      <c r="AW105" s="4">
+        <v>215.77</v>
+      </c>
+      <c r="AX105" s="4">
+        <v>202.05</v>
+      </c>
+      <c r="AY105" s="4">
+        <v>188.99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>260</v>
+      </c>
+      <c r="B106" t="s">
+        <v>261</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="4">
+        <v>137.04</v>
+      </c>
+      <c r="E106" s="4">
+        <v>115.43</v>
+      </c>
+      <c r="F106" s="4">
+        <v>119.1</v>
+      </c>
+      <c r="G106" s="4">
+        <v>119.47</v>
+      </c>
+      <c r="H106" s="4">
+        <v>127.68</v>
+      </c>
+      <c r="I106" s="4">
+        <v>116.12</v>
+      </c>
+      <c r="J106" s="4">
+        <v>131.78</v>
+      </c>
+      <c r="K106" s="4">
+        <v>138.11000000000001</v>
+      </c>
+      <c r="L106" s="4">
+        <v>114.49</v>
+      </c>
+      <c r="M106" s="4">
+        <v>128.13999999999999</v>
+      </c>
+      <c r="N106" s="4">
+        <v>133</v>
+      </c>
+      <c r="O106" s="4">
+        <v>135.12</v>
+      </c>
+      <c r="P106" s="4">
+        <v>132.9</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>126.13</v>
+      </c>
+      <c r="R106" s="4">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="S106" s="4">
+        <v>128.63999999999999</v>
+      </c>
+      <c r="T106" s="4">
+        <v>125.88</v>
+      </c>
+      <c r="U106" s="4">
+        <v>129.32</v>
+      </c>
+      <c r="V106" s="4">
+        <v>138.82</v>
+      </c>
+      <c r="W106" s="4">
+        <v>196.95</v>
+      </c>
+      <c r="X106" s="4">
+        <v>198.61</v>
+      </c>
+      <c r="Y106" s="4">
+        <v>132.32</v>
+      </c>
+      <c r="Z106" s="4">
+        <v>123.11</v>
+      </c>
+      <c r="AA106" s="4">
+        <v>131.34</v>
+      </c>
+      <c r="AB106" s="4">
+        <v>139.21</v>
+      </c>
+      <c r="AC106" s="4">
+        <v>123.9</v>
+      </c>
+      <c r="AD106" s="4">
+        <v>123.46</v>
+      </c>
+      <c r="AE106" s="4">
+        <v>122.09</v>
+      </c>
+      <c r="AF106" s="4">
+        <v>117.76</v>
+      </c>
+      <c r="AG106" s="4">
+        <v>129.88999999999999</v>
+      </c>
+      <c r="AH106" s="4">
+        <v>124.89</v>
+      </c>
+      <c r="AI106" s="4">
+        <v>123.79</v>
+      </c>
+      <c r="AJ106" s="4">
+        <v>119.03</v>
+      </c>
+      <c r="AK106" s="4">
+        <v>125.62</v>
+      </c>
+      <c r="AL106" s="4">
+        <v>121.28</v>
+      </c>
+      <c r="AM106" s="4">
+        <v>152.55000000000001</v>
+      </c>
+      <c r="AN106" s="4">
+        <v>147.33000000000001</v>
+      </c>
+      <c r="AO106" s="4">
+        <v>144.53</v>
+      </c>
+      <c r="AP106" s="4">
+        <v>205.49</v>
+      </c>
+      <c r="AQ106" s="4">
+        <v>271.77999999999997</v>
+      </c>
+      <c r="AR106" s="4">
+        <v>304.58</v>
+      </c>
+      <c r="AS106" s="4">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="AT106" s="4">
+        <v>197.52</v>
+      </c>
+      <c r="AU106" s="4">
+        <v>172.36</v>
+      </c>
+      <c r="AV106" s="4">
+        <v>137.32</v>
+      </c>
+      <c r="AW106" s="4">
+        <v>148.55000000000001</v>
+      </c>
+      <c r="AX106" s="4">
+        <v>141.44</v>
+      </c>
+      <c r="AY106" s="4">
+        <v>118.82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>262</v>
+      </c>
+      <c r="B107" t="s">
+        <v>263</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="4">
+        <v>79.47</v>
+      </c>
+      <c r="E107" s="4">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="F107" s="4">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="G107" s="4">
+        <v>67.42</v>
+      </c>
+      <c r="H107" s="4">
+        <v>69.260000000000005</v>
+      </c>
+      <c r="I107" s="4">
+        <v>67.13</v>
+      </c>
+      <c r="J107" s="4">
+        <v>69.67</v>
+      </c>
+      <c r="K107" s="4">
+        <v>75.3</v>
+      </c>
+      <c r="L107" s="4">
+        <v>66.98</v>
+      </c>
+      <c r="M107" s="4">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="N107" s="4">
+        <v>71.040000000000006</v>
+      </c>
+      <c r="O107" s="4">
+        <v>71.02</v>
+      </c>
+      <c r="P107" s="4">
+        <v>70.459999999999994</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>68.62</v>
+      </c>
+      <c r="R107" s="4">
+        <v>72.52</v>
+      </c>
+      <c r="S107" s="4">
+        <v>71.56</v>
+      </c>
+      <c r="T107" s="4">
+        <v>66.34</v>
+      </c>
+      <c r="U107" s="4">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="V107" s="4">
+        <v>73.430000000000007</v>
+      </c>
+      <c r="W107" s="4">
+        <v>100.59</v>
+      </c>
+      <c r="X107" s="4">
+        <v>102.95</v>
+      </c>
+      <c r="Y107" s="4">
+        <v>71.94</v>
+      </c>
+      <c r="Z107" s="4">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="AA107" s="4">
+        <v>70.16</v>
+      </c>
+      <c r="AB107" s="4">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="AC107" s="4">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="AD107" s="4">
+        <v>64.63</v>
+      </c>
+      <c r="AE107" s="4">
+        <v>68.92</v>
+      </c>
+      <c r="AF107" s="4">
+        <v>63.93</v>
+      </c>
+      <c r="AG107" s="4">
+        <v>70.91</v>
+      </c>
+      <c r="AH107" s="4">
+        <v>67.92</v>
+      </c>
+      <c r="AI107" s="4">
+        <v>69.27</v>
+      </c>
+      <c r="AJ107" s="4">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="AK107" s="4">
+        <v>72.25</v>
+      </c>
+      <c r="AL107" s="4">
+        <v>69.05</v>
+      </c>
+      <c r="AM107" s="4">
+        <v>82.78</v>
+      </c>
+      <c r="AN107" s="4">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="AO107" s="4">
+        <v>77.78</v>
+      </c>
+      <c r="AP107" s="4">
+        <v>102.64</v>
+      </c>
+      <c r="AQ107" s="4">
+        <v>116.11</v>
+      </c>
+      <c r="AR107" s="4">
+        <v>130.75</v>
+      </c>
+      <c r="AS107" s="4">
+        <v>113.54</v>
+      </c>
+      <c r="AT107" s="4">
+        <v>108.06</v>
+      </c>
+      <c r="AU107" s="4">
+        <v>100.57</v>
+      </c>
+      <c r="AV107" s="4">
+        <v>77.8</v>
+      </c>
+      <c r="AW107" s="4">
+        <v>81.73</v>
+      </c>
+      <c r="AX107" s="4">
+        <v>75.61</v>
+      </c>
+      <c r="AY107" s="4">
+        <v>69.27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>264</v>
+      </c>
+      <c r="B108" t="s">
+        <v>265</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="4">
+        <v>76.58</v>
+      </c>
+      <c r="E108" s="4">
+        <v>75.44</v>
+      </c>
+      <c r="F108" s="4">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="G108" s="4">
+        <v>82.61</v>
+      </c>
+      <c r="H108" s="4">
+        <v>87.54</v>
+      </c>
+      <c r="I108" s="4">
+        <v>82.74</v>
+      </c>
+      <c r="J108" s="4">
+        <v>91.73</v>
+      </c>
+      <c r="K108" s="4">
+        <v>97.92</v>
+      </c>
+      <c r="L108" s="4">
+        <v>86.32</v>
+      </c>
+      <c r="M108" s="4">
+        <v>93.72</v>
+      </c>
+      <c r="N108" s="4">
+        <v>94.76</v>
+      </c>
+      <c r="O108" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="P108" s="4">
+        <v>94.31</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>91.06</v>
+      </c>
+      <c r="R108" s="4">
+        <v>93.77</v>
+      </c>
+      <c r="S108" s="4">
+        <v>93.08</v>
+      </c>
+      <c r="T108" s="4">
+        <v>89.01</v>
+      </c>
+      <c r="U108" s="4">
+        <v>92.86</v>
+      </c>
+      <c r="V108" s="4">
+        <v>96.24</v>
+      </c>
+      <c r="W108" s="4">
+        <v>118.53</v>
+      </c>
+      <c r="X108" s="4">
+        <v>119.19</v>
+      </c>
+      <c r="Y108" s="4">
+        <v>98.09</v>
+      </c>
+      <c r="Z108" s="4">
+        <v>93.02</v>
+      </c>
+      <c r="AA108" s="4">
+        <v>93.87</v>
+      </c>
+      <c r="AB108" s="4">
+        <v>95.35</v>
+      </c>
+      <c r="AC108" s="4">
+        <v>88.38</v>
+      </c>
+      <c r="AD108" s="4">
+        <v>88.32</v>
+      </c>
+      <c r="AE108" s="4">
+        <v>93.24</v>
+      </c>
+      <c r="AF108" s="4">
+        <v>85.29</v>
+      </c>
+      <c r="AG108" s="4">
+        <v>90.51</v>
+      </c>
+      <c r="AH108" s="4">
+        <v>85.45</v>
+      </c>
+      <c r="AI108" s="4">
+        <v>88.34</v>
+      </c>
+      <c r="AJ108" s="4">
+        <v>86.43</v>
+      </c>
+      <c r="AK108" s="4">
+        <v>89.41</v>
+      </c>
+      <c r="AL108" s="4">
+        <v>85.71</v>
+      </c>
+      <c r="AM108" s="4">
+        <v>91.36</v>
+      </c>
+      <c r="AN108" s="4">
+        <v>90.67</v>
+      </c>
+      <c r="AO108" s="4">
+        <v>89.84</v>
+      </c>
+      <c r="AP108" s="4">
+        <v>107.49</v>
+      </c>
+      <c r="AQ108" s="4">
+        <v>133.82</v>
+      </c>
+      <c r="AR108" s="4">
+        <v>165.49</v>
+      </c>
+      <c r="AS108" s="4">
+        <v>150.44</v>
+      </c>
+      <c r="AT108" s="4">
+        <v>122.23</v>
+      </c>
+      <c r="AU108" s="4">
+        <v>118.89</v>
+      </c>
+      <c r="AV108" s="4">
+        <v>83.45</v>
+      </c>
+      <c r="AW108" s="4">
+        <v>84.04</v>
+      </c>
+      <c r="AX108" s="4">
+        <v>77.14</v>
+      </c>
+      <c r="AY108" s="4">
+        <v>69.31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>266</v>
+      </c>
+      <c r="B109" t="s">
+        <v>267</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="4">
+        <v>74.430000000000007</v>
+      </c>
+      <c r="E109" s="4">
+        <v>79.77</v>
+      </c>
+      <c r="F109" s="4">
+        <v>68.87</v>
+      </c>
+      <c r="G109" s="4">
+        <v>74.66</v>
+      </c>
+      <c r="H109" s="4">
+        <v>82.75</v>
+      </c>
+      <c r="I109" s="4">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="J109" s="4">
+        <v>92.96</v>
+      </c>
+      <c r="K109" s="4">
+        <v>101.58</v>
+      </c>
+      <c r="L109" s="4">
+        <v>76.19</v>
+      </c>
+      <c r="M109" s="4">
+        <v>91.45</v>
+      </c>
+      <c r="N109" s="4">
+        <v>95.97</v>
+      </c>
+      <c r="O109" s="4">
+        <v>91.67</v>
+      </c>
+      <c r="P109" s="4">
+        <v>90.69</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>87.51</v>
+      </c>
+      <c r="R109" s="4">
+        <v>95.32</v>
+      </c>
+      <c r="S109" s="4">
+        <v>88.88</v>
+      </c>
+      <c r="T109" s="4">
+        <v>89.17</v>
+      </c>
+      <c r="U109" s="4">
+        <v>107.46</v>
+      </c>
+      <c r="V109" s="4">
+        <v>113.25</v>
+      </c>
+      <c r="W109" s="4">
+        <v>151.81</v>
+      </c>
+      <c r="X109" s="4">
+        <v>149.33000000000001</v>
+      </c>
+      <c r="Y109" s="4">
+        <v>100.44</v>
+      </c>
+      <c r="Z109" s="4">
+        <v>92.56</v>
+      </c>
+      <c r="AA109" s="4">
+        <v>103.33</v>
+      </c>
+      <c r="AB109" s="4">
+        <v>110.68</v>
+      </c>
+      <c r="AC109" s="4">
+        <v>93.27</v>
+      </c>
+      <c r="AD109" s="4">
+        <v>93.51</v>
+      </c>
+      <c r="AE109" s="4">
+        <v>96.05</v>
+      </c>
+      <c r="AF109" s="4">
+        <v>88.63</v>
+      </c>
+      <c r="AG109" s="4">
+        <v>95.46</v>
+      </c>
+      <c r="AH109" s="4">
+        <v>94.58</v>
+      </c>
+      <c r="AI109" s="4">
+        <v>90.43</v>
+      </c>
+      <c r="AJ109" s="4">
+        <v>88.54</v>
+      </c>
+      <c r="AK109" s="4">
+        <v>91.62</v>
+      </c>
+      <c r="AL109" s="4">
+        <v>85.8</v>
+      </c>
+      <c r="AM109" s="4">
+        <v>113.76</v>
+      </c>
+      <c r="AN109" s="4">
+        <v>99.53</v>
+      </c>
+      <c r="AO109" s="4">
+        <v>98.66</v>
+      </c>
+      <c r="AP109" s="4">
+        <v>145.1</v>
+      </c>
+      <c r="AQ109" s="4">
+        <v>174.7</v>
+      </c>
+      <c r="AR109" s="4">
+        <v>209.76</v>
+      </c>
+      <c r="AS109" s="4">
+        <v>171.41</v>
+      </c>
+      <c r="AT109" s="4">
+        <v>147.53</v>
+      </c>
+      <c r="AU109" s="4">
+        <v>115.21</v>
+      </c>
+      <c r="AV109" s="4">
+        <v>99.04</v>
+      </c>
+      <c r="AW109" s="4">
+        <v>112.18</v>
+      </c>
+      <c r="AX109" s="4">
+        <v>101.83</v>
+      </c>
+      <c r="AY109" s="4">
+        <v>95.72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>268</v>
+      </c>
+      <c r="B110" t="s">
+        <v>269</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="4">
+        <v>58.26</v>
+      </c>
+      <c r="E110" s="4">
+        <v>53.5</v>
+      </c>
+      <c r="F110" s="4">
+        <v>53.62</v>
+      </c>
+      <c r="G110" s="4">
+        <v>57.81</v>
+      </c>
+      <c r="H110" s="4">
+        <v>59.27</v>
+      </c>
+      <c r="I110" s="4">
+        <v>57.19</v>
+      </c>
+      <c r="J110" s="4">
+        <v>60.66</v>
+      </c>
+      <c r="K110" s="4">
+        <v>62.82</v>
+      </c>
+      <c r="L110" s="4">
+        <v>57.57</v>
+      </c>
+      <c r="M110" s="4">
+        <v>59.61</v>
+      </c>
+      <c r="N110" s="4">
+        <v>59.28</v>
+      </c>
+      <c r="O110" s="4">
+        <v>58.97</v>
+      </c>
+      <c r="P110" s="4">
+        <v>59.25</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>58.69</v>
+      </c>
+      <c r="R110" s="4">
+        <v>58.38</v>
+      </c>
+      <c r="S110" s="4">
+        <v>58.61</v>
+      </c>
+      <c r="T110" s="4">
+        <v>56.02</v>
+      </c>
+      <c r="U110" s="4">
+        <v>57.24</v>
+      </c>
+      <c r="V110" s="4">
+        <v>57.39</v>
+      </c>
+      <c r="W110" s="4">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="X110" s="4">
+        <v>82.92</v>
+      </c>
+      <c r="Y110" s="4">
+        <v>58.92</v>
+      </c>
+      <c r="Z110" s="4">
+        <v>54.83</v>
+      </c>
+      <c r="AA110" s="4">
+        <v>55.96</v>
+      </c>
+      <c r="AB110" s="4">
+        <v>57.58</v>
+      </c>
+      <c r="AC110" s="4">
+        <v>53.74</v>
+      </c>
+      <c r="AD110" s="4">
+        <v>51.92</v>
+      </c>
+      <c r="AE110" s="4">
+        <v>55.84</v>
+      </c>
+      <c r="AF110" s="4">
+        <v>49.79</v>
+      </c>
+      <c r="AG110" s="4">
+        <v>51.59</v>
+      </c>
+      <c r="AH110" s="4">
+        <v>50.2</v>
+      </c>
+      <c r="AI110" s="4">
+        <v>51.63</v>
+      </c>
+      <c r="AJ110" s="4">
+        <v>49.94</v>
+      </c>
+      <c r="AK110" s="4">
+        <v>53.59</v>
+      </c>
+      <c r="AL110" s="4">
+        <v>53.61</v>
+      </c>
+      <c r="AM110" s="4">
+        <v>62.27</v>
+      </c>
+      <c r="AN110" s="4">
+        <v>58.47</v>
+      </c>
+      <c r="AO110" s="4">
+        <v>64.59</v>
+      </c>
+      <c r="AP110" s="4">
+        <v>70.41</v>
+      </c>
+      <c r="AQ110" s="4">
+        <v>86.8</v>
+      </c>
+      <c r="AR110" s="4">
+        <v>85.32</v>
+      </c>
+      <c r="AS110" s="4">
+        <v>82.67</v>
+      </c>
+      <c r="AT110" s="4">
+        <v>87.78</v>
+      </c>
+      <c r="AU110" s="4">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="AV110" s="4">
+        <v>56.8</v>
+      </c>
+      <c r="AW110" s="4">
+        <v>58.08</v>
+      </c>
+      <c r="AX110" s="4">
+        <v>50.63</v>
+      </c>
+      <c r="AY110" s="4">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>270</v>
+      </c>
+      <c r="B111" t="s">
+        <v>271</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="4">
+        <v>53.74</v>
+      </c>
+      <c r="E111" s="4">
+        <v>49.05</v>
+      </c>
+      <c r="F111" s="4">
+        <v>47.34</v>
+      </c>
+      <c r="G111" s="4">
+        <v>50.84</v>
+      </c>
+      <c r="H111" s="4">
+        <v>53.56</v>
+      </c>
+      <c r="I111" s="4">
+        <v>52.29</v>
+      </c>
+      <c r="J111" s="4">
+        <v>57.67</v>
+      </c>
+      <c r="K111" s="4">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="L111" s="4">
+        <v>51.26</v>
+      </c>
+      <c r="M111" s="4">
+        <v>64.03</v>
+      </c>
+      <c r="N111" s="4">
+        <v>60.05</v>
+      </c>
+      <c r="O111" s="4">
+        <v>59.21</v>
+      </c>
+      <c r="P111" s="4">
+        <v>62.93</v>
+      </c>
+      <c r="Q111" s="4">
+        <v>60.93</v>
+      </c>
+      <c r="R111" s="4">
+        <v>62.35</v>
+      </c>
+      <c r="S111" s="4">
+        <v>59.19</v>
+      </c>
+      <c r="T111" s="4">
+        <v>54.57</v>
+      </c>
+      <c r="U111" s="4">
+        <v>61.73</v>
+      </c>
+      <c r="V111" s="4">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="W111" s="4">
+        <v>78.680000000000007</v>
+      </c>
+      <c r="X111" s="4">
+        <v>81.77</v>
+      </c>
+      <c r="Y111" s="4">
+        <v>63.3</v>
+      </c>
+      <c r="Z111" s="4">
+        <v>56</v>
+      </c>
+      <c r="AA111" s="4">
+        <v>56.6</v>
+      </c>
+      <c r="AB111" s="4">
+        <v>58.34</v>
+      </c>
+      <c r="AC111" s="4">
+        <v>54.45</v>
+      </c>
+      <c r="AD111" s="4">
+        <v>52.56</v>
+      </c>
+      <c r="AE111" s="4">
+        <v>54.4</v>
+      </c>
+      <c r="AF111" s="4">
+        <v>49.25</v>
+      </c>
+      <c r="AG111" s="4">
+        <v>53.17</v>
+      </c>
+      <c r="AH111" s="4">
+        <v>53.74</v>
+      </c>
+      <c r="AI111" s="4">
+        <v>53</v>
+      </c>
+      <c r="AJ111" s="4">
+        <v>50.75</v>
+      </c>
+      <c r="AK111" s="4">
+        <v>54.56</v>
+      </c>
+      <c r="AL111" s="4">
+        <v>51.58</v>
+      </c>
+      <c r="AM111" s="4">
+        <v>58.14</v>
+      </c>
+      <c r="AN111" s="4">
+        <v>49.37</v>
+      </c>
+      <c r="AO111" s="4">
+        <v>53.93</v>
+      </c>
+      <c r="AP111" s="4">
+        <v>61.38</v>
+      </c>
+      <c r="AQ111" s="4">
+        <v>65.48</v>
+      </c>
+      <c r="AR111" s="4">
+        <v>66.209999999999994</v>
+      </c>
+      <c r="AS111" s="4">
+        <v>58.15</v>
+      </c>
+      <c r="AT111" s="4">
+        <v>55.63</v>
+      </c>
+      <c r="AU111" s="4">
+        <v>57.83</v>
+      </c>
+      <c r="AV111" s="4">
+        <v>51.2</v>
+      </c>
+      <c r="AW111" s="4">
+        <v>53.66</v>
+      </c>
+      <c r="AX111" s="4">
+        <v>47.37</v>
+      </c>
+      <c r="AY111" s="4">
+        <v>48.36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>272</v>
+      </c>
+      <c r="B112" t="s">
+        <v>273</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="4">
+        <v>52.95</v>
+      </c>
+      <c r="E112" s="4">
+        <v>61.96</v>
+      </c>
+      <c r="F112" s="4">
+        <v>63.74</v>
+      </c>
+      <c r="G112" s="4">
+        <v>69.92</v>
+      </c>
+      <c r="H112" s="4">
+        <v>77.73</v>
+      </c>
+      <c r="I112" s="4">
+        <v>70.14</v>
+      </c>
+      <c r="J112" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="K112" s="4">
+        <v>91.64</v>
+      </c>
+      <c r="L112" s="4">
+        <v>74.63</v>
+      </c>
+      <c r="M112" s="4">
+        <v>82.94</v>
+      </c>
+      <c r="N112" s="4">
+        <v>88.62</v>
+      </c>
+      <c r="O112" s="4">
+        <v>89.91</v>
+      </c>
+      <c r="P112" s="4">
+        <v>86.83</v>
+      </c>
+      <c r="Q112" s="4">
+        <v>82.55</v>
+      </c>
+      <c r="R112" s="4">
+        <v>91.98</v>
+      </c>
+      <c r="S112" s="4">
+        <v>87.59</v>
+      </c>
+      <c r="T112" s="4">
+        <v>86.16</v>
+      </c>
+      <c r="U112" s="4">
+        <v>96.7</v>
+      </c>
+      <c r="V112" s="4">
+        <v>98.5</v>
+      </c>
+      <c r="W112" s="4">
+        <v>120.95</v>
+      </c>
+      <c r="X112" s="4">
+        <v>121.46</v>
+      </c>
+      <c r="Y112" s="4">
+        <v>94.39</v>
+      </c>
+      <c r="Z112" s="4">
+        <v>89.51</v>
+      </c>
+      <c r="AA112" s="4">
+        <v>95.48</v>
+      </c>
+      <c r="AB112" s="4">
+        <v>97.82</v>
+      </c>
+      <c r="AC112" s="4">
+        <v>91.66</v>
+      </c>
+      <c r="AD112" s="4">
+        <v>88.41</v>
+      </c>
+      <c r="AE112" s="4">
+        <v>89.32</v>
+      </c>
+      <c r="AF112" s="4">
+        <v>81.09</v>
+      </c>
+      <c r="AG112" s="4">
+        <v>90.71</v>
+      </c>
+      <c r="AH112" s="4">
+        <v>90.13</v>
+      </c>
+      <c r="AI112" s="4">
+        <v>90.46</v>
+      </c>
+      <c r="AJ112" s="4">
+        <v>87.7</v>
+      </c>
+      <c r="AK112" s="4">
+        <v>90.54</v>
+      </c>
+      <c r="AL112" s="4">
+        <v>91.01</v>
+      </c>
+      <c r="AM112" s="4">
+        <v>105.15</v>
+      </c>
+      <c r="AN112" s="4">
+        <v>102.2</v>
+      </c>
+      <c r="AO112" s="4">
+        <v>101.36</v>
+      </c>
+      <c r="AP112" s="4">
+        <v>138.63999999999999</v>
+      </c>
+      <c r="AQ112" s="4">
+        <v>158.09</v>
+      </c>
+      <c r="AR112" s="4">
+        <v>187.8</v>
+      </c>
+      <c r="AS112" s="4">
+        <v>162.32</v>
+      </c>
+      <c r="AT112" s="4">
+        <v>129.62</v>
+      </c>
+      <c r="AU112" s="4">
+        <v>108.68</v>
+      </c>
+      <c r="AV112" s="4">
+        <v>98.19</v>
+      </c>
+      <c r="AW112" s="4">
+        <v>99.56</v>
+      </c>
+      <c r="AX112" s="4">
+        <v>91.6</v>
+      </c>
+      <c r="AY112" s="4">
+        <v>82.49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>274</v>
+      </c>
+      <c r="B113" t="s">
+        <v>275</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="4">
+        <v>44.09</v>
+      </c>
+      <c r="E113" s="4">
+        <v>37.67</v>
+      </c>
+      <c r="F113" s="4">
+        <v>36.29</v>
+      </c>
+      <c r="G113" s="4">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="H113" s="4">
+        <v>43.03</v>
+      </c>
+      <c r="I113" s="4">
+        <v>41.82</v>
+      </c>
+      <c r="J113" s="4">
+        <v>47.56</v>
+      </c>
+      <c r="K113" s="4">
+        <v>55.66</v>
+      </c>
+      <c r="L113" s="4">
+        <v>42.01</v>
+      </c>
+      <c r="M113" s="4">
+        <v>51.93</v>
+      </c>
+      <c r="N113" s="4">
+        <v>49.48</v>
+      </c>
+      <c r="O113" s="4">
+        <v>49.28</v>
+      </c>
+      <c r="P113" s="4">
+        <v>50.91</v>
+      </c>
+      <c r="Q113" s="4">
+        <v>49.34</v>
+      </c>
+      <c r="R113" s="4">
+        <v>50.69</v>
+      </c>
+      <c r="S113" s="4">
+        <v>48.74</v>
+      </c>
+      <c r="T113" s="4">
+        <v>45.98</v>
+      </c>
+      <c r="U113" s="4">
+        <v>52.55</v>
+      </c>
+      <c r="V113" s="4">
+        <v>55.38</v>
+      </c>
+      <c r="W113" s="4">
+        <v>61.88</v>
+      </c>
+      <c r="X113" s="4">
+        <v>64.72</v>
+      </c>
+      <c r="Y113" s="4">
+        <v>51.64</v>
+      </c>
+      <c r="Z113" s="4">
+        <v>46.46</v>
+      </c>
+      <c r="AA113" s="4">
+        <v>48.18</v>
+      </c>
+      <c r="AB113" s="4">
+        <v>50.67</v>
+      </c>
+      <c r="AC113" s="4">
+        <v>45.83</v>
+      </c>
+      <c r="AD113" s="4">
+        <v>42.73</v>
+      </c>
+      <c r="AE113" s="4">
+        <v>45.63</v>
+      </c>
+      <c r="AF113" s="4">
+        <v>41.24</v>
+      </c>
+      <c r="AG113" s="4">
+        <v>44.44</v>
+      </c>
+      <c r="AH113" s="4">
+        <v>41.63</v>
+      </c>
+      <c r="AI113" s="4">
+        <v>40.47</v>
+      </c>
+      <c r="AJ113" s="4">
+        <v>40.229999999999997</v>
+      </c>
+      <c r="AK113" s="4">
+        <v>43.9</v>
+      </c>
+      <c r="AL113" s="4">
+        <v>40.369999999999997</v>
+      </c>
+      <c r="AM113" s="4">
+        <v>48.21</v>
+      </c>
+      <c r="AN113" s="4">
+        <v>40.83</v>
+      </c>
+      <c r="AO113" s="4">
+        <v>44.49</v>
+      </c>
+      <c r="AP113" s="4">
+        <v>56.81</v>
+      </c>
+      <c r="AQ113" s="4">
+        <v>60.89</v>
+      </c>
+      <c r="AR113" s="4">
+        <v>66.34</v>
+      </c>
+      <c r="AS113" s="4">
+        <v>62.97</v>
+      </c>
+      <c r="AT113" s="4">
+        <v>62.6</v>
+      </c>
+      <c r="AU113" s="4">
+        <v>57.1</v>
+      </c>
+      <c r="AV113" s="4">
+        <v>41.36</v>
+      </c>
+      <c r="AW113" s="4">
+        <v>44.02</v>
+      </c>
+      <c r="AX113" s="4">
+        <v>40.520000000000003</v>
+      </c>
+      <c r="AY113" s="4">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>276</v>
+      </c>
+      <c r="B114" t="s">
+        <v>277</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="4">
+        <v>41.92</v>
+      </c>
+      <c r="E114" s="4">
+        <v>37.9</v>
+      </c>
+      <c r="F114" s="4">
+        <v>38.29</v>
+      </c>
+      <c r="G114" s="4">
+        <v>40.68</v>
+      </c>
+      <c r="H114" s="4">
+        <v>42.35</v>
+      </c>
+      <c r="I114" s="4">
+        <v>40.76</v>
+      </c>
+      <c r="J114" s="4">
+        <v>44.86</v>
+      </c>
+      <c r="K114" s="4">
+        <v>50.29</v>
+      </c>
+      <c r="L114" s="4">
+        <v>39.409999999999997</v>
+      </c>
+      <c r="M114" s="4">
+        <v>47.73</v>
+      </c>
+      <c r="N114" s="4">
+        <v>43.78</v>
+      </c>
+      <c r="O114" s="4">
+        <v>44.71</v>
+      </c>
+      <c r="P114" s="4">
+        <v>45.21</v>
+      </c>
+      <c r="Q114" s="4">
+        <v>43.31</v>
+      </c>
+      <c r="R114" s="4">
+        <v>43.82</v>
+      </c>
+      <c r="S114" s="4">
+        <v>41.94</v>
+      </c>
+      <c r="T114" s="4">
+        <v>39.81</v>
+      </c>
+      <c r="U114" s="4">
+        <v>43.28</v>
+      </c>
+      <c r="V114" s="4">
+        <v>46.77</v>
+      </c>
+      <c r="W114" s="4">
+        <v>59.16</v>
+      </c>
+      <c r="X114" s="4">
+        <v>60.93</v>
+      </c>
+      <c r="Y114" s="4">
+        <v>45.63</v>
+      </c>
+      <c r="Z114" s="4">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="AA114" s="4">
+        <v>41.84</v>
+      </c>
+      <c r="AB114" s="4">
+        <v>44.31</v>
+      </c>
+      <c r="AC114" s="4">
+        <v>40.75</v>
+      </c>
+      <c r="AD114" s="4">
+        <v>39.31</v>
+      </c>
+      <c r="AE114" s="4">
+        <v>41.63</v>
+      </c>
+      <c r="AF114" s="4">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AG114" s="4">
+        <v>40.53</v>
+      </c>
+      <c r="AH114" s="4">
+        <v>39.65</v>
+      </c>
+      <c r="AI114" s="4">
+        <v>40.11</v>
+      </c>
+      <c r="AJ114" s="4">
+        <v>38.9</v>
+      </c>
+      <c r="AK114" s="4">
+        <v>41.17</v>
+      </c>
+      <c r="AL114" s="4">
+        <v>40.18</v>
+      </c>
+      <c r="AM114" s="4">
+        <v>45.63</v>
+      </c>
+      <c r="AN114" s="4">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AO114" s="4">
+        <v>44.84</v>
+      </c>
+      <c r="AP114" s="4">
+        <v>52.61</v>
+      </c>
+      <c r="AQ114" s="4">
+        <v>58.04</v>
+      </c>
+      <c r="AR114" s="4">
+        <v>61.04</v>
+      </c>
+      <c r="AS114" s="4">
+        <v>55.51</v>
+      </c>
+      <c r="AT114" s="4">
+        <v>50.94</v>
+      </c>
+      <c r="AU114" s="4">
+        <v>51.68</v>
+      </c>
+      <c r="AV114" s="4">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="AW114" s="4">
+        <v>41.75</v>
+      </c>
+      <c r="AX114" s="4">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="AY114" s="4">
+        <v>36.79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>278</v>
+      </c>
+      <c r="B115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="4">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="E115" s="4">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="F115" s="4">
+        <v>36.67</v>
+      </c>
+      <c r="G115" s="4">
+        <v>41.03</v>
+      </c>
+      <c r="H115" s="4">
+        <v>42.86</v>
+      </c>
+      <c r="I115" s="4">
+        <v>40.76</v>
+      </c>
+      <c r="J115" s="4">
+        <v>46.11</v>
+      </c>
+      <c r="K115" s="4">
+        <v>48.58</v>
+      </c>
+      <c r="L115" s="4">
+        <v>40.08</v>
+      </c>
+      <c r="M115" s="4">
+        <v>44.62</v>
+      </c>
+      <c r="N115" s="4">
+        <v>45.91</v>
+      </c>
+      <c r="O115" s="4">
+        <v>45.71</v>
+      </c>
+      <c r="P115" s="4">
+        <v>45.72</v>
+      </c>
+      <c r="Q115" s="4">
+        <v>44.12</v>
+      </c>
+      <c r="R115" s="4">
+        <v>48.6</v>
+      </c>
+      <c r="S115" s="4">
+        <v>44.6</v>
+      </c>
+      <c r="T115" s="4">
+        <v>44.91</v>
+      </c>
+      <c r="U115" s="4">
+        <v>49.27</v>
+      </c>
+      <c r="V115" s="4">
+        <v>54.2</v>
+      </c>
+      <c r="W115" s="4">
+        <v>63.37</v>
+      </c>
+      <c r="X115" s="4">
+        <v>65.97</v>
+      </c>
+      <c r="Y115" s="4">
+        <v>50.66</v>
+      </c>
+      <c r="Z115" s="4">
+        <v>45.25</v>
+      </c>
+      <c r="AA115" s="4">
+        <v>49.74</v>
+      </c>
+      <c r="AB115" s="4">
+        <v>54.47</v>
+      </c>
+      <c r="AC115" s="4">
+        <v>45.99</v>
+      </c>
+      <c r="AD115" s="4">
+        <v>44.37</v>
+      </c>
+      <c r="AE115" s="4">
+        <v>46.49</v>
+      </c>
+      <c r="AF115" s="4">
+        <v>44.65</v>
+      </c>
+      <c r="AG115" s="4">
+        <v>49.16</v>
+      </c>
+      <c r="AH115" s="4">
+        <v>46.93</v>
+      </c>
+      <c r="AI115" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="AJ115" s="4">
+        <v>46.47</v>
+      </c>
+      <c r="AK115" s="4">
+        <v>48.44</v>
+      </c>
+      <c r="AL115" s="4">
+        <v>50.74</v>
+      </c>
+      <c r="AM115" s="4">
+        <v>62.18</v>
+      </c>
+      <c r="AN115" s="4">
+        <v>55.18</v>
+      </c>
+      <c r="AO115" s="4">
+        <v>52.74</v>
+      </c>
+      <c r="AP115" s="4">
+        <v>69.66</v>
+      </c>
+      <c r="AQ115" s="4">
+        <v>74.39</v>
+      </c>
+      <c r="AR115" s="4">
+        <v>89</v>
+      </c>
+      <c r="AS115" s="4">
+        <v>78.97</v>
+      </c>
+      <c r="AT115" s="4">
+        <v>66.66</v>
+      </c>
+      <c r="AU115" s="4">
+        <v>59.36</v>
+      </c>
+      <c r="AV115" s="4">
+        <v>48.7</v>
+      </c>
+      <c r="AW115" s="4">
+        <v>54.93</v>
+      </c>
+      <c r="AX115" s="4">
+        <v>49.87</v>
+      </c>
+      <c r="AY115" s="4">
+        <v>37.26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>280</v>
+      </c>
+      <c r="B116" t="s">
+        <v>281</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="4">
+        <v>39.15</v>
+      </c>
+      <c r="E116" s="4">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="F116" s="4">
+        <v>38.04</v>
+      </c>
+      <c r="G116" s="4">
+        <v>41.39</v>
+      </c>
+      <c r="H116" s="4">
+        <v>43.75</v>
+      </c>
+      <c r="I116" s="4">
+        <v>41.34</v>
+      </c>
+      <c r="J116" s="4">
+        <v>47.53</v>
+      </c>
+      <c r="K116" s="4">
+        <v>52.29</v>
+      </c>
+      <c r="L116" s="4">
+        <v>38.5</v>
+      </c>
+      <c r="M116" s="4">
+        <v>48</v>
+      </c>
+      <c r="N116" s="4">
+        <v>47.46</v>
+      </c>
+      <c r="O116" s="4">
+        <v>50.18</v>
+      </c>
+      <c r="P116" s="4">
+        <v>47.16</v>
+      </c>
+      <c r="Q116" s="4">
+        <v>44.99</v>
+      </c>
+      <c r="R116" s="4">
+        <v>47.17</v>
+      </c>
+      <c r="S116" s="4">
+        <v>44.79</v>
+      </c>
+      <c r="T116" s="4">
+        <v>36.46</v>
+      </c>
+      <c r="U116" s="4">
+        <v>43.12</v>
+      </c>
+      <c r="V116" s="4">
+        <v>49.8</v>
+      </c>
+      <c r="W116" s="4">
+        <v>61.82</v>
+      </c>
+      <c r="X116" s="4">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="Y116" s="4">
+        <v>48.32</v>
+      </c>
+      <c r="Z116" s="4">
+        <v>42.38</v>
+      </c>
+      <c r="AA116" s="4">
+        <v>43.25</v>
+      </c>
+      <c r="AB116" s="4">
+        <v>45.39</v>
+      </c>
+      <c r="AC116" s="4">
+        <v>42.86</v>
+      </c>
+      <c r="AD116" s="4">
+        <v>40.76</v>
+      </c>
+      <c r="AE116" s="4">
+        <v>44.84</v>
+      </c>
+      <c r="AF116" s="4">
+        <v>33.56</v>
+      </c>
+      <c r="AG116" s="4">
+        <v>42.32</v>
+      </c>
+      <c r="AH116" s="4">
+        <v>41.83</v>
+      </c>
+      <c r="AI116" s="4">
+        <v>42.35</v>
+      </c>
+      <c r="AJ116" s="4">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="AK116" s="4">
+        <v>43.07</v>
+      </c>
+      <c r="AL116" s="4">
+        <v>38.24</v>
+      </c>
+      <c r="AM116" s="4">
+        <v>47.81</v>
+      </c>
+      <c r="AN116" s="4">
+        <v>42.67</v>
+      </c>
+      <c r="AO116" s="4">
+        <v>44.49</v>
+      </c>
+      <c r="AP116" s="4">
+        <v>51.11</v>
+      </c>
+      <c r="AQ116" s="4">
+        <v>57.67</v>
+      </c>
+      <c r="AR116" s="4">
+        <v>59.14</v>
+      </c>
+      <c r="AS116" s="4">
+        <v>54.32</v>
+      </c>
+      <c r="AT116" s="4">
+        <v>51.96</v>
+      </c>
+      <c r="AU116" s="4">
+        <v>51.44</v>
+      </c>
+      <c r="AV116" s="4">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="AW116" s="4">
+        <v>38.94</v>
+      </c>
+      <c r="AX116" s="4">
+        <v>35.11</v>
+      </c>
+      <c r="AY116" s="4">
+        <v>32.659999999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>282</v>
+      </c>
+      <c r="B117" t="s">
+        <v>283</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="4">
+        <v>37.22</v>
+      </c>
+      <c r="E117" s="4">
+        <v>30.41</v>
+      </c>
+      <c r="F117" s="4">
+        <v>27.35</v>
+      </c>
+      <c r="G117" s="4">
+        <v>28.77</v>
+      </c>
+      <c r="H117" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="I117" s="4">
+        <v>28.89</v>
+      </c>
+      <c r="J117" s="4">
+        <v>33.18</v>
+      </c>
+      <c r="K117" s="4">
+        <v>37.43</v>
+      </c>
+      <c r="L117" s="4">
+        <v>28.75</v>
+      </c>
+      <c r="M117" s="4">
+        <v>37.43</v>
+      </c>
+      <c r="N117" s="4">
+        <v>31.92</v>
+      </c>
+      <c r="O117" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="P117" s="4">
+        <v>34.99</v>
+      </c>
+      <c r="Q117" s="4">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="R117" s="4">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="S117" s="4">
+        <v>32.51</v>
+      </c>
+      <c r="T117" s="4">
+        <v>31.19</v>
+      </c>
+      <c r="U117" s="4">
+        <v>35.57</v>
+      </c>
+      <c r="V117" s="4">
+        <v>38.14</v>
+      </c>
+      <c r="W117" s="4">
+        <v>46.97</v>
+      </c>
+      <c r="X117" s="4">
+        <v>48.91</v>
+      </c>
+      <c r="Y117" s="4">
+        <v>33.85</v>
+      </c>
+      <c r="Z117" s="4">
+        <v>28.33</v>
+      </c>
+      <c r="AA117" s="4">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="AB117" s="4">
+        <v>33.69</v>
+      </c>
+      <c r="AC117" s="4">
+        <v>30.28</v>
+      </c>
+      <c r="AD117" s="4">
+        <v>28.98</v>
+      </c>
+      <c r="AE117" s="4">
+        <v>29.57</v>
+      </c>
+      <c r="AF117" s="4">
+        <v>29.02</v>
+      </c>
+      <c r="AG117" s="4">
+        <v>30.13</v>
+      </c>
+      <c r="AH117" s="4">
+        <v>30.94</v>
+      </c>
+      <c r="AI117" s="4">
+        <v>29.79</v>
+      </c>
+      <c r="AJ117" s="4">
+        <v>27.55</v>
+      </c>
+      <c r="AK117" s="4">
+        <v>31.63</v>
+      </c>
+      <c r="AL117" s="4">
+        <v>29</v>
+      </c>
+      <c r="AM117" s="4">
+        <v>33.49</v>
+      </c>
+      <c r="AN117" s="4">
+        <v>28.39</v>
+      </c>
+      <c r="AO117" s="4">
+        <v>31.72</v>
+      </c>
+      <c r="AP117" s="4">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="AQ117" s="4">
+        <v>47.69</v>
+      </c>
+      <c r="AR117" s="4">
+        <v>44.98</v>
+      </c>
+      <c r="AS117" s="4">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="AT117" s="4">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="AU117" s="4">
+        <v>34.590000000000003</v>
+      </c>
+      <c r="AV117" s="4">
+        <v>26.23</v>
+      </c>
+      <c r="AW117" s="4">
+        <v>29.53</v>
+      </c>
+      <c r="AX117" s="4">
+        <v>26.68</v>
+      </c>
+      <c r="AY117" s="4">
+        <v>26.66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>284</v>
+      </c>
+      <c r="B118" t="s">
+        <v>285</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="4">
+        <v>36.07</v>
+      </c>
+      <c r="E118" s="4">
+        <v>34.99</v>
+      </c>
+      <c r="F118" s="4">
+        <v>37.24</v>
+      </c>
+      <c r="G118" s="4">
+        <v>41.12</v>
+      </c>
+      <c r="H118" s="4">
+        <v>43.69</v>
+      </c>
+      <c r="I118" s="4">
+        <v>41.68</v>
+      </c>
+      <c r="J118" s="4">
+        <v>47.77</v>
+      </c>
+      <c r="K118" s="4">
+        <v>49.71</v>
+      </c>
+      <c r="L118" s="4">
+        <v>45.18</v>
+      </c>
+      <c r="M118" s="4">
+        <v>46.78</v>
+      </c>
+      <c r="N118" s="4">
+        <v>49.38</v>
+      </c>
+      <c r="O118" s="4">
+        <v>48.46</v>
+      </c>
+      <c r="P118" s="4">
+        <v>49.81</v>
+      </c>
+      <c r="Q118" s="4">
+        <v>47.23</v>
+      </c>
+      <c r="R118" s="4">
+        <v>50.72</v>
+      </c>
+      <c r="S118" s="4">
+        <v>51.67</v>
+      </c>
+      <c r="T118" s="4">
+        <v>49.59</v>
+      </c>
+      <c r="U118" s="4">
+        <v>50.97</v>
+      </c>
+      <c r="V118" s="4">
+        <v>55.11</v>
+      </c>
+      <c r="W118" s="4">
+        <v>73.22</v>
+      </c>
+      <c r="X118" s="4">
+        <v>73.709999999999994</v>
+      </c>
+      <c r="Y118" s="4">
+        <v>58.68</v>
+      </c>
+      <c r="Z118" s="4">
+        <v>54.15</v>
+      </c>
+      <c r="AA118" s="4">
+        <v>53.64</v>
+      </c>
+      <c r="AB118" s="4">
+        <v>56.34</v>
+      </c>
+      <c r="AC118" s="4">
+        <v>52.18</v>
+      </c>
+      <c r="AD118" s="4">
+        <v>51.28</v>
+      </c>
+      <c r="AE118" s="4">
+        <v>56.12</v>
+      </c>
+      <c r="AF118" s="4">
+        <v>47.22</v>
+      </c>
+      <c r="AG118" s="4">
+        <v>54.17</v>
+      </c>
+      <c r="AH118" s="4">
+        <v>50.29</v>
+      </c>
+      <c r="AI118" s="4">
+        <v>52.45</v>
+      </c>
+      <c r="AJ118" s="4">
+        <v>55.44</v>
+      </c>
+      <c r="AK118" s="4">
+        <v>57.03</v>
+      </c>
+      <c r="AL118" s="4">
+        <v>61.34</v>
+      </c>
+      <c r="AM118" s="4">
+        <v>66.23</v>
+      </c>
+      <c r="AN118" s="4">
+        <v>68.349999999999994</v>
+      </c>
+      <c r="AO118" s="4">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="AP118" s="4">
+        <v>82.88</v>
+      </c>
+      <c r="AQ118" s="4">
+        <v>132.59</v>
+      </c>
+      <c r="AR118" s="4">
+        <v>128.75</v>
+      </c>
+      <c r="AS118" s="4">
+        <v>115.73</v>
+      </c>
+      <c r="AT118" s="4">
+        <v>81.069999999999993</v>
+      </c>
+      <c r="AU118" s="4">
+        <v>61.23</v>
+      </c>
+      <c r="AV118" s="4">
+        <v>47.04</v>
+      </c>
+      <c r="AW118" s="4">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="AX118" s="4">
+        <v>35.28</v>
+      </c>
+      <c r="AY118" s="4">
+        <v>31.19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>286</v>
+      </c>
+      <c r="B119" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="4">
+        <v>31.27</v>
+      </c>
+      <c r="E119" s="4">
+        <v>42.04</v>
+      </c>
+      <c r="F119" s="4">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="G119" s="4">
+        <v>41.77</v>
+      </c>
+      <c r="H119" s="4">
+        <v>47.88</v>
+      </c>
+      <c r="I119" s="4">
+        <v>44.53</v>
+      </c>
+      <c r="J119" s="4">
+        <v>49.73</v>
+      </c>
+      <c r="K119" s="4">
+        <v>52.08</v>
+      </c>
+      <c r="L119" s="4">
+        <v>44.25</v>
+      </c>
+      <c r="M119" s="4">
+        <v>49.12</v>
+      </c>
+      <c r="N119" s="4">
+        <v>46.61</v>
+      </c>
+      <c r="O119" s="4">
+        <v>45.88</v>
+      </c>
+      <c r="P119" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="Q119" s="4">
+        <v>41.1</v>
+      </c>
+      <c r="R119" s="4">
+        <v>40.46</v>
+      </c>
+      <c r="S119" s="4">
+        <v>39.76</v>
+      </c>
+      <c r="T119" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="U119" s="4">
+        <v>41.42</v>
+      </c>
+      <c r="V119" s="4">
+        <v>44.51</v>
+      </c>
+      <c r="W119" s="4">
+        <v>63.87</v>
+      </c>
+      <c r="X119" s="4">
+        <v>63.96</v>
+      </c>
+      <c r="Y119" s="4">
+        <v>43.72</v>
+      </c>
+      <c r="Z119" s="4">
+        <v>39.75</v>
+      </c>
+      <c r="AA119" s="4">
+        <v>42.36</v>
+      </c>
+      <c r="AB119" s="4">
+        <v>43.79</v>
+      </c>
+      <c r="AC119" s="4">
+        <v>40.479999999999997</v>
+      </c>
+      <c r="AD119" s="4">
+        <v>41.47</v>
+      </c>
+      <c r="AE119" s="4">
+        <v>41.79</v>
+      </c>
+      <c r="AF119" s="4">
+        <v>38.06</v>
+      </c>
+      <c r="AG119" s="4">
+        <v>43.18</v>
+      </c>
+      <c r="AH119" s="4">
+        <v>43.65</v>
+      </c>
+      <c r="AI119" s="4">
+        <v>44.31</v>
+      </c>
+      <c r="AJ119" s="4">
+        <v>43.39</v>
+      </c>
+      <c r="AK119" s="4">
+        <v>48.88</v>
+      </c>
+      <c r="AL119" s="4">
+        <v>46.78</v>
+      </c>
+      <c r="AM119" s="4">
+        <v>55.52</v>
+      </c>
+      <c r="AN119" s="4">
+        <v>50.54</v>
+      </c>
+      <c r="AO119" s="4">
+        <v>55.91</v>
+      </c>
+      <c r="AP119" s="4">
+        <v>64.2</v>
+      </c>
+      <c r="AQ119" s="4">
+        <v>67.56</v>
+      </c>
+      <c r="AR119" s="4">
+        <v>70.260000000000005</v>
+      </c>
+      <c r="AS119" s="4">
+        <v>66.98</v>
+      </c>
+      <c r="AT119" s="4">
+        <v>62.48</v>
+      </c>
+      <c r="AU119" s="4">
+        <v>63.33</v>
+      </c>
+      <c r="AV119" s="4">
+        <v>60.74</v>
+      </c>
+      <c r="AW119" s="4">
+        <v>60.93</v>
+      </c>
+      <c r="AX119" s="4">
+        <v>56.71</v>
+      </c>
+      <c r="AY119" s="4">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>288</v>
+      </c>
+      <c r="B120" t="s">
+        <v>289</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="4">
+        <v>23.03</v>
+      </c>
+      <c r="E120" s="4">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="F120" s="4">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="G120" s="4">
+        <v>21.1</v>
+      </c>
+      <c r="H120" s="4">
+        <v>22.53</v>
+      </c>
+      <c r="I120" s="4">
+        <v>20.61</v>
+      </c>
+      <c r="J120" s="4">
+        <v>23.82</v>
+      </c>
+      <c r="K120" s="4">
+        <v>24.27</v>
+      </c>
+      <c r="L120" s="4">
+        <v>21.38</v>
+      </c>
+      <c r="M120" s="4">
+        <v>23.45</v>
+      </c>
+      <c r="N120" s="4">
+        <v>24.14</v>
+      </c>
+      <c r="O120" s="4">
+        <v>24.11</v>
+      </c>
+      <c r="P120" s="4">
+        <v>24.37</v>
+      </c>
+      <c r="Q120" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="R120" s="4">
+        <v>24.48</v>
+      </c>
+      <c r="S120" s="4">
+        <v>23.94</v>
+      </c>
+      <c r="T120" s="4">
+        <v>23.21</v>
+      </c>
+      <c r="U120" s="4">
+        <v>24.58</v>
+      </c>
+      <c r="V120" s="4">
+        <v>25.61</v>
+      </c>
+      <c r="W120" s="4">
+        <v>30.64</v>
+      </c>
+      <c r="X120" s="4">
+        <v>32.270000000000003</v>
+      </c>
+      <c r="Y120" s="4">
+        <v>25.97</v>
+      </c>
+      <c r="Z120" s="4">
+        <v>23.87</v>
+      </c>
+      <c r="AA120" s="4">
+        <v>25.3</v>
+      </c>
+      <c r="AB120" s="4">
+        <v>26.04</v>
+      </c>
+      <c r="AC120" s="4">
+        <v>23.68</v>
+      </c>
+      <c r="AD120" s="4">
+        <v>23.11</v>
+      </c>
+      <c r="AE120" s="4">
+        <v>24.25</v>
+      </c>
+      <c r="AF120" s="4">
+        <v>23.33</v>
+      </c>
+      <c r="AG120" s="4">
+        <v>24.71</v>
+      </c>
+      <c r="AH120" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="AI120" s="4">
+        <v>24.55</v>
+      </c>
+      <c r="AJ120" s="4">
+        <v>23.48</v>
+      </c>
+      <c r="AK120" s="4">
+        <v>26.19</v>
+      </c>
+      <c r="AL120" s="4">
+        <v>25.53</v>
+      </c>
+      <c r="AM120" s="4">
+        <v>29.31</v>
+      </c>
+      <c r="AN120" s="4">
+        <v>26.93</v>
+      </c>
+      <c r="AO120" s="4">
+        <v>25.23</v>
+      </c>
+      <c r="AP120" s="4">
+        <v>31.22</v>
+      </c>
+      <c r="AQ120" s="4">
+        <v>33.47</v>
+      </c>
+      <c r="AR120" s="4">
+        <v>41.22</v>
+      </c>
+      <c r="AS120" s="4">
+        <v>35.33</v>
+      </c>
+      <c r="AT120" s="4">
+        <v>27.01</v>
+      </c>
+      <c r="AU120" s="4">
+        <v>25.6</v>
+      </c>
+      <c r="AV120" s="4">
+        <v>32.74</v>
+      </c>
+      <c r="AW120" s="4">
+        <v>31.05</v>
+      </c>
+      <c r="AX120" s="4">
+        <v>27.8</v>
+      </c>
+      <c r="AY120" s="4">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>290</v>
+      </c>
+      <c r="B121" t="s">
+        <v>291</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="4">
+        <v>22.04</v>
+      </c>
+      <c r="E121" s="4">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="F121" s="4">
+        <v>18.23</v>
+      </c>
+      <c r="G121" s="4">
+        <v>20.39</v>
+      </c>
+      <c r="H121" s="4">
+        <v>21.46</v>
+      </c>
+      <c r="I121" s="4">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J121" s="4">
+        <v>23.28</v>
+      </c>
+      <c r="K121" s="4">
+        <v>23.84</v>
+      </c>
+      <c r="L121" s="4">
+        <v>19.84</v>
+      </c>
+      <c r="M121" s="4">
+        <v>22.99</v>
+      </c>
+      <c r="N121" s="4">
+        <v>23.63</v>
+      </c>
+      <c r="O121" s="4">
+        <v>23.77</v>
+      </c>
+      <c r="P121" s="4">
+        <v>23.65</v>
+      </c>
+      <c r="Q121" s="4">
+        <v>22.91</v>
+      </c>
+      <c r="R121" s="4">
+        <v>24.08</v>
+      </c>
+      <c r="S121" s="4">
+        <v>22.9</v>
+      </c>
+      <c r="T121" s="4">
+        <v>22.68</v>
+      </c>
+      <c r="U121" s="4">
+        <v>24.54</v>
+      </c>
+      <c r="V121" s="4">
+        <v>25.17</v>
+      </c>
+      <c r="W121" s="4">
+        <v>29.38</v>
+      </c>
+      <c r="X121" s="4">
+        <v>31.36</v>
+      </c>
+      <c r="Y121" s="4">
+        <v>24</v>
+      </c>
+      <c r="Z121" s="4">
+        <v>22.73</v>
+      </c>
+      <c r="AA121" s="4">
+        <v>24.43</v>
+      </c>
+      <c r="AB121" s="4">
+        <v>25.01</v>
+      </c>
+      <c r="AC121" s="4">
+        <v>23.12</v>
+      </c>
+      <c r="AD121" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="AE121" s="4">
+        <v>22.67</v>
+      </c>
+      <c r="AF121" s="4">
+        <v>22.68</v>
+      </c>
+      <c r="AG121" s="4">
+        <v>23.24</v>
+      </c>
+      <c r="AH121" s="4">
+        <v>22.56</v>
+      </c>
+      <c r="AI121" s="4">
+        <v>22.28</v>
+      </c>
+      <c r="AJ121" s="4">
+        <v>22.62</v>
+      </c>
+      <c r="AK121" s="4">
+        <v>23.87</v>
+      </c>
+      <c r="AL121" s="4">
+        <v>24.81</v>
+      </c>
+      <c r="AM121" s="4">
+        <v>28.03</v>
+      </c>
+      <c r="AN121" s="4">
+        <v>24.69</v>
+      </c>
+      <c r="AO121" s="4">
+        <v>24.13</v>
+      </c>
+      <c r="AP121" s="4">
+        <v>30.28</v>
+      </c>
+      <c r="AQ121" s="4">
+        <v>34.04</v>
+      </c>
+      <c r="AR121" s="4">
+        <v>37.82</v>
+      </c>
+      <c r="AS121" s="4">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="AT121" s="4">
+        <v>27.82</v>
+      </c>
+      <c r="AU121" s="4">
+        <v>24.83</v>
+      </c>
+      <c r="AV121" s="4">
+        <v>25.99</v>
+      </c>
+      <c r="AW121" s="4">
+        <v>27.84</v>
+      </c>
+      <c r="AX121" s="4">
+        <v>25.78</v>
+      </c>
+      <c r="AY121" s="4">
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>292</v>
+      </c>
+      <c r="B122" t="s">
+        <v>293</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="4">
+        <v>19.77</v>
+      </c>
+      <c r="E122" s="4">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="F122" s="4">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="G122" s="4">
+        <v>18.86</v>
+      </c>
+      <c r="H122" s="4">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="I122" s="4">
+        <v>19.12</v>
+      </c>
+      <c r="J122" s="4">
+        <v>22.22</v>
+      </c>
+      <c r="K122" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="L122" s="4">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="M122" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="N122" s="4">
+        <v>22.36</v>
+      </c>
+      <c r="O122" s="4">
+        <v>22.07</v>
+      </c>
+      <c r="P122" s="4">
+        <v>22.11</v>
+      </c>
+      <c r="Q122" s="4">
+        <v>21.33</v>
+      </c>
+      <c r="R122" s="4">
+        <v>22.17</v>
+      </c>
+      <c r="S122" s="4">
+        <v>21.43</v>
+      </c>
+      <c r="T122" s="4">
+        <v>21.81</v>
+      </c>
+      <c r="U122" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="V122" s="4">
+        <v>25.25</v>
+      </c>
+      <c r="W122" s="4">
+        <v>27.77</v>
+      </c>
+      <c r="X122" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="Y122" s="4">
+        <v>22.89</v>
+      </c>
+      <c r="Z122" s="4">
+        <v>21.65</v>
+      </c>
+      <c r="AA122" s="4">
+        <v>22.43</v>
+      </c>
+      <c r="AB122" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="AC122" s="4">
+        <v>21.7</v>
+      </c>
+      <c r="AD122" s="4">
+        <v>21.19</v>
+      </c>
+      <c r="AE122" s="4">
+        <v>21.63</v>
+      </c>
+      <c r="AF122" s="4">
+        <v>21.71</v>
+      </c>
+      <c r="AG122" s="4">
+        <v>22.07</v>
+      </c>
+      <c r="AH122" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="AI122" s="4">
+        <v>21.34</v>
+      </c>
+      <c r="AJ122" s="4">
+        <v>21.92</v>
+      </c>
+      <c r="AK122" s="4">
+        <v>22.49</v>
+      </c>
+      <c r="AL122" s="4">
+        <v>24.76</v>
+      </c>
+      <c r="AM122" s="4">
+        <v>27.21</v>
+      </c>
+      <c r="AN122" s="4">
+        <v>24.05</v>
+      </c>
+      <c r="AO122" s="4">
+        <v>23.68</v>
+      </c>
+      <c r="AP122" s="4">
+        <v>29.98</v>
+      </c>
+      <c r="AQ122" s="4">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="AR122" s="4">
+        <v>42.25</v>
+      </c>
+      <c r="AS122" s="4">
+        <v>37</v>
+      </c>
+      <c r="AT122" s="4">
+        <v>29.29</v>
+      </c>
+      <c r="AU122" s="4">
+        <v>26.14</v>
+      </c>
+      <c r="AV122" s="4">
+        <v>23.27</v>
+      </c>
+      <c r="AW122" s="4">
+        <v>24.87</v>
+      </c>
+      <c r="AX122" s="4">
+        <v>21.13</v>
+      </c>
+      <c r="AY122" s="4">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>294</v>
+      </c>
+      <c r="B123" t="s">
+        <v>295</v>
+      </c>
+      <c r="C123" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="4">
+        <v>19.36</v>
+      </c>
+      <c r="E123" s="4">
+        <v>20.61</v>
+      </c>
+      <c r="F123" s="4">
+        <v>20.64</v>
+      </c>
+      <c r="G123" s="4">
+        <v>23.82</v>
+      </c>
+      <c r="H123" s="4">
+        <v>25.63</v>
+      </c>
+      <c r="I123" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="J123" s="4">
+        <v>27.1</v>
+      </c>
+      <c r="K123" s="4">
+        <v>27.56</v>
+      </c>
+      <c r="L123" s="4">
+        <v>24.63</v>
+      </c>
+      <c r="M123" s="4">
+        <v>26.35</v>
+      </c>
+      <c r="N123" s="4">
+        <v>26.2</v>
+      </c>
+      <c r="O123" s="4">
+        <v>25.89</v>
+      </c>
+      <c r="P123" s="4">
+        <v>26.22</v>
+      </c>
+      <c r="Q123" s="4">
+        <v>25.39</v>
+      </c>
+      <c r="R123" s="4">
+        <v>25.36</v>
+      </c>
+      <c r="S123" s="4">
+        <v>25.18</v>
+      </c>
+      <c r="T123" s="4">
+        <v>24.85</v>
+      </c>
+      <c r="U123" s="4">
+        <v>25.73</v>
+      </c>
+      <c r="V123" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="W123" s="4">
+        <v>33.630000000000003</v>
+      </c>
+      <c r="X123" s="4">
+        <v>34.03</v>
+      </c>
+      <c r="Y123" s="4">
+        <v>25.46</v>
+      </c>
+      <c r="Z123" s="4">
+        <v>24.18</v>
+      </c>
+      <c r="AA123" s="4">
+        <v>24.34</v>
+      </c>
+      <c r="AB123" s="4">
+        <v>25.09</v>
+      </c>
+      <c r="AC123" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="AD123" s="4">
+        <v>23.13</v>
+      </c>
+      <c r="AE123" s="4">
+        <v>24.09</v>
+      </c>
+      <c r="AF123" s="4">
+        <v>21.84</v>
+      </c>
+      <c r="AG123" s="4">
+        <v>23.85</v>
+      </c>
+      <c r="AH123" s="4">
+        <v>23.24</v>
+      </c>
+      <c r="AI123" s="4">
+        <v>23.77</v>
+      </c>
+      <c r="AJ123" s="4">
+        <v>23.09</v>
+      </c>
+      <c r="AK123" s="4">
+        <v>23.83</v>
+      </c>
+      <c r="AL123" s="4">
+        <v>23.93</v>
+      </c>
+      <c r="AM123" s="4">
+        <v>25.9</v>
+      </c>
+      <c r="AN123" s="4">
+        <v>23.98</v>
+      </c>
+      <c r="AO123" s="4">
+        <v>24.75</v>
+      </c>
+      <c r="AP123" s="4">
+        <v>27.57</v>
+      </c>
+      <c r="AQ123" s="4">
+        <v>32.64</v>
+      </c>
+      <c r="AR123" s="4">
+        <v>34.58</v>
+      </c>
+      <c r="AS123" s="4">
+        <v>31.46</v>
+      </c>
+      <c r="AT123" s="4">
+        <v>29.49</v>
+      </c>
+      <c r="AU123" s="4">
+        <v>27.91</v>
+      </c>
+      <c r="AV123" s="4">
+        <v>23.39</v>
+      </c>
+      <c r="AW123" s="4">
+        <v>25.33</v>
+      </c>
+      <c r="AX123" s="4">
+        <v>22.49</v>
+      </c>
+      <c r="AY123" s="4">
+        <v>22.82</v>
+      </c>
+    </row>
+    <row r="124" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>296</v>
+      </c>
+      <c r="B124" t="s">
+        <v>297</v>
+      </c>
+      <c r="C124" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="E124" s="4">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="F124" s="4">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="G124" s="4">
+        <v>20.37</v>
+      </c>
+      <c r="H124" s="4">
+        <v>22.24</v>
+      </c>
+      <c r="I124" s="4">
+        <v>21.13</v>
+      </c>
+      <c r="J124" s="4">
+        <v>23.72</v>
+      </c>
+      <c r="K124" s="4">
+        <v>24.39</v>
+      </c>
+      <c r="L124" s="4">
+        <v>21.55</v>
+      </c>
+      <c r="M124" s="4">
+        <v>22.89</v>
+      </c>
+      <c r="N124" s="4">
+        <v>23.63</v>
+      </c>
+      <c r="O124" s="4">
+        <v>23.84</v>
+      </c>
+      <c r="P124" s="4">
+        <v>24.01</v>
+      </c>
+      <c r="Q124" s="4">
+        <v>23.24</v>
+      </c>
+      <c r="R124" s="4">
+        <v>24.68</v>
+      </c>
+      <c r="S124" s="4">
+        <v>23.89</v>
+      </c>
+      <c r="T124" s="4">
+        <v>23.89</v>
+      </c>
+      <c r="U124" s="4">
+        <v>24.73</v>
+      </c>
+      <c r="V124" s="4">
+        <v>25.21</v>
+      </c>
+      <c r="W124" s="4">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="X124" s="4">
+        <v>33.57</v>
+      </c>
+      <c r="Y124" s="4">
+        <v>25.81</v>
+      </c>
+      <c r="Z124" s="4">
+        <v>24.22</v>
+      </c>
+      <c r="AA124" s="4">
+        <v>25.33</v>
+      </c>
+      <c r="AB124" s="4">
+        <v>26.41</v>
+      </c>
+      <c r="AC124" s="4">
+        <v>23.99</v>
+      </c>
+      <c r="AD124" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="AE124" s="4">
+        <v>24.65</v>
+      </c>
+      <c r="AF124" s="4">
+        <v>23.81</v>
+      </c>
+      <c r="AG124" s="4">
+        <v>24.36</v>
+      </c>
+      <c r="AH124" s="4">
+        <v>23.36</v>
+      </c>
+      <c r="AI124" s="4">
+        <v>24.03</v>
+      </c>
+      <c r="AJ124" s="4">
+        <v>23.73</v>
+      </c>
+      <c r="AK124" s="4">
+        <v>25.9</v>
+      </c>
+      <c r="AL124" s="4">
+        <v>26.72</v>
+      </c>
+      <c r="AM124" s="4">
+        <v>32.14</v>
+      </c>
+      <c r="AN124" s="4">
+        <v>26.28</v>
+      </c>
+      <c r="AO124" s="4">
+        <v>24.98</v>
+      </c>
+      <c r="AP124" s="4">
+        <v>36.68</v>
+      </c>
+      <c r="AQ124" s="4">
+        <v>36.409999999999997</v>
+      </c>
+      <c r="AR124" s="4">
+        <v>46.85</v>
+      </c>
+      <c r="AS124" s="4">
+        <v>41.92</v>
+      </c>
+      <c r="AT124" s="4">
+        <v>33.17</v>
+      </c>
+      <c r="AU124" s="4">
+        <v>27.84</v>
+      </c>
+      <c r="AV124" s="4">
+        <v>24.65</v>
+      </c>
+      <c r="AW124" s="4">
+        <v>28.19</v>
+      </c>
+      <c r="AX124" s="4">
+        <v>27.04</v>
+      </c>
+      <c r="AY124" s="4">
+        <v>21.48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>298</v>
+      </c>
+      <c r="B125" t="s">
+        <v>299</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="4">
+        <v>15.92</v>
+      </c>
+      <c r="E125" s="4">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="F125" s="4">
+        <v>16.34</v>
+      </c>
+      <c r="G125" s="4">
+        <v>18.55</v>
+      </c>
+      <c r="H125" s="4">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="I125" s="4">
+        <v>17.64</v>
+      </c>
+      <c r="J125" s="4">
+        <v>21.42</v>
+      </c>
+      <c r="K125" s="4">
+        <v>21.48</v>
+      </c>
+      <c r="L125" s="4">
+        <v>18.47</v>
+      </c>
+      <c r="M125" s="4">
+        <v>20.38</v>
+      </c>
+      <c r="N125" s="4">
+        <v>21.38</v>
+      </c>
+      <c r="O125" s="4">
+        <v>20.86</v>
+      </c>
+      <c r="P125" s="4">
+        <v>21.13</v>
+      </c>
+      <c r="Q125" s="4">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="R125" s="4">
+        <v>21.56</v>
+      </c>
+      <c r="S125" s="4">
+        <v>21.07</v>
+      </c>
+      <c r="T125" s="4">
+        <v>21.1</v>
+      </c>
+      <c r="U125" s="4">
+        <v>23.01</v>
+      </c>
+      <c r="V125" s="4">
+        <v>23.72</v>
+      </c>
+      <c r="W125" s="4">
+        <v>27.87</v>
+      </c>
+      <c r="X125" s="4">
+        <v>27.75</v>
+      </c>
+      <c r="Y125" s="4">
+        <v>23</v>
+      </c>
+      <c r="Z125" s="4">
+        <v>21.44</v>
+      </c>
+      <c r="AA125" s="4">
+        <v>22.71</v>
+      </c>
+      <c r="AB125" s="4">
+        <v>23.96</v>
+      </c>
+      <c r="AC125" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="AD125" s="4">
+        <v>21.33</v>
+      </c>
+      <c r="AE125" s="4">
+        <v>21.66</v>
+      </c>
+      <c r="AF125" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="AG125" s="4">
+        <v>21.84</v>
+      </c>
+      <c r="AH125" s="4">
+        <v>21.09</v>
+      </c>
+      <c r="AI125" s="4">
+        <v>21.32</v>
+      </c>
+      <c r="AJ125" s="4">
+        <v>21.54</v>
+      </c>
+      <c r="AK125" s="4">
+        <v>22.14</v>
+      </c>
+      <c r="AL125" s="4">
+        <v>23.59</v>
+      </c>
+      <c r="AM125" s="4">
+        <v>26.71</v>
+      </c>
+      <c r="AN125" s="4">
+        <v>23.99</v>
+      </c>
+      <c r="AO125" s="4">
+        <v>23.08</v>
+      </c>
+      <c r="AP125" s="4">
+        <v>28.52</v>
+      </c>
+      <c r="AQ125" s="4">
+        <v>32.83</v>
+      </c>
+      <c r="AR125" s="4">
+        <v>43.35</v>
+      </c>
+      <c r="AS125" s="4">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="AT125" s="4">
+        <v>28.08</v>
+      </c>
+      <c r="AU125" s="4">
+        <v>24.39</v>
+      </c>
+      <c r="AV125" s="4">
+        <v>25.52</v>
+      </c>
+      <c r="AW125" s="4">
+        <v>26.7</v>
+      </c>
+      <c r="AX125" s="4">
+        <v>23.25</v>
+      </c>
+      <c r="AY125" s="4">
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>300</v>
+      </c>
+      <c r="B126" t="s">
+        <v>301</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="4">
+        <v>15.65</v>
+      </c>
+      <c r="E126" s="4">
+        <v>12.74</v>
+      </c>
+      <c r="F126" s="4">
+        <v>11.92</v>
+      </c>
+      <c r="G126" s="4">
+        <v>13.59</v>
+      </c>
+      <c r="H126" s="4">
+        <v>14.91</v>
+      </c>
+      <c r="I126" s="4">
+        <v>14.12</v>
+      </c>
+      <c r="J126" s="4">
+        <v>17.07</v>
+      </c>
+      <c r="K126" s="4">
+        <v>17.61</v>
+      </c>
+      <c r="L126" s="4">
+        <v>13.14</v>
+      </c>
+      <c r="M126" s="4">
+        <v>17.02</v>
+      </c>
+      <c r="N126" s="4">
+        <v>16.84</v>
+      </c>
+      <c r="O126" s="4">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="P126" s="4">
+        <v>17.27</v>
+      </c>
+      <c r="Q126" s="4">
+        <v>16.47</v>
+      </c>
+      <c r="R126" s="4">
+        <v>17.11</v>
+      </c>
+      <c r="S126" s="4">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="T126" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="U126" s="4">
+        <v>18.66</v>
+      </c>
+      <c r="V126" s="4">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="W126" s="4">
+        <v>20.91</v>
+      </c>
+      <c r="X126" s="4">
+        <v>22.02</v>
+      </c>
+      <c r="Y126" s="4">
+        <v>18.14</v>
+      </c>
+      <c r="Z126" s="4">
+        <v>16.75</v>
+      </c>
+      <c r="AA126" s="4">
+        <v>17.34</v>
+      </c>
+      <c r="AB126" s="4">
+        <v>18.39</v>
+      </c>
+      <c r="AC126" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="AD126" s="4">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="AE126" s="4">
+        <v>16.36</v>
+      </c>
+      <c r="AF126" s="4">
+        <v>16.89</v>
+      </c>
+      <c r="AG126" s="4">
+        <v>16.93</v>
+      </c>
+      <c r="AH126" s="4">
+        <v>16.41</v>
+      </c>
+      <c r="AI126" s="4">
+        <v>15.96</v>
+      </c>
+      <c r="AJ126" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AK126" s="4">
+        <v>17.38</v>
+      </c>
+      <c r="AL126" s="4">
+        <v>18.87</v>
+      </c>
+      <c r="AM126" s="4">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="AN126" s="4">
+        <v>17.79</v>
+      </c>
+      <c r="AO126" s="4">
+        <v>17.79</v>
+      </c>
+      <c r="AP126" s="4">
+        <v>22.27</v>
+      </c>
+      <c r="AQ126" s="4">
+        <v>23.03</v>
+      </c>
+      <c r="AR126" s="4">
+        <v>25.35</v>
+      </c>
+      <c r="AS126" s="4">
+        <v>23.29</v>
+      </c>
+      <c r="AT126" s="4">
+        <v>21.76</v>
+      </c>
+      <c r="AU126" s="4">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AV126" s="4">
+        <v>19.47</v>
+      </c>
+      <c r="AW126" s="4">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="AX126" s="4">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="AY126" s="4">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>302</v>
+      </c>
+      <c r="B127" t="s">
+        <v>303</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="4">
+        <v>12.72</v>
+      </c>
+      <c r="E127" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="F127" s="4">
+        <v>10.11</v>
+      </c>
+      <c r="G127" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="H127" s="4">
+        <v>14.06</v>
+      </c>
+      <c r="I127" s="4">
+        <v>13.34</v>
+      </c>
+      <c r="J127" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="K127" s="4">
+        <v>15.66</v>
+      </c>
+      <c r="L127" s="4">
+        <v>12.21</v>
+      </c>
+      <c r="M127" s="4">
+        <v>15.12</v>
+      </c>
+      <c r="N127" s="4">
+        <v>15.39</v>
+      </c>
+      <c r="O127" s="4">
+        <v>15.48</v>
+      </c>
+      <c r="P127" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="Q127" s="4">
+        <v>14.89</v>
+      </c>
+      <c r="R127" s="4">
+        <v>15.94</v>
+      </c>
+      <c r="S127" s="4">
+        <v>15.22</v>
+      </c>
+      <c r="T127" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="U127" s="4">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="V127" s="4">
+        <v>18.63</v>
+      </c>
+      <c r="W127" s="4">
+        <v>19.75</v>
+      </c>
+      <c r="X127" s="4">
+        <v>20.66</v>
+      </c>
+      <c r="Y127" s="4">
+        <v>17.89</v>
+      </c>
+      <c r="Z127" s="4">
+        <v>16</v>
+      </c>
+      <c r="AA127" s="4">
+        <v>16.86</v>
+      </c>
+      <c r="AB127" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AC127" s="4">
+        <v>16.23</v>
+      </c>
+      <c r="AD127" s="4">
+        <v>15.67</v>
+      </c>
+      <c r="AE127" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="AF127" s="4">
+        <v>16.46</v>
+      </c>
+      <c r="AG127" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AH127" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="AI127" s="4">
+        <v>15.56</v>
+      </c>
+      <c r="AJ127" s="4">
+        <v>15.93</v>
+      </c>
+      <c r="AK127" s="4">
+        <v>16.77</v>
+      </c>
+      <c r="AL127" s="4">
+        <v>17.96</v>
+      </c>
+      <c r="AM127" s="4">
+        <v>18.88</v>
+      </c>
+      <c r="AN127" s="4">
+        <v>16.64</v>
+      </c>
+      <c r="AO127" s="4">
+        <v>15.43</v>
+      </c>
+      <c r="AP127" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AQ127" s="4">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="AR127" s="4">
+        <v>20.57</v>
+      </c>
+      <c r="AS127" s="4">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="AT127" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="AU127" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="AV127" s="4">
+        <v>18.46</v>
+      </c>
+      <c r="AW127" s="4">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="AX127" s="4">
+        <v>16.47</v>
+      </c>
+      <c r="AY127" s="4">
+        <v>14.57</v>
+      </c>
+    </row>
+    <row r="128" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>304</v>
+      </c>
+      <c r="B128" t="s">
+        <v>305</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="4">
+        <v>11.67</v>
+      </c>
+      <c r="E128" s="4">
+        <v>12.45</v>
+      </c>
+      <c r="F128" s="4">
+        <v>11.79</v>
+      </c>
+      <c r="G128" s="4">
+        <v>12.99</v>
+      </c>
+      <c r="H128" s="4">
+        <v>14.95</v>
+      </c>
+      <c r="I128" s="4">
+        <v>13.74</v>
+      </c>
+      <c r="J128" s="4">
+        <v>15.38</v>
+      </c>
+      <c r="K128" s="4">
+        <v>15.86</v>
+      </c>
+      <c r="L128" s="4">
+        <v>13.63</v>
+      </c>
+      <c r="M128" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="N128" s="4">
+        <v>14.57</v>
+      </c>
+      <c r="O128" s="4">
+        <v>14.37</v>
+      </c>
+      <c r="P128" s="4">
+        <v>14.27</v>
+      </c>
+      <c r="Q128" s="4">
+        <v>13.27</v>
+      </c>
+      <c r="R128" s="4">
+        <v>13.29</v>
+      </c>
+      <c r="S128" s="4">
+        <v>12.83</v>
+      </c>
+      <c r="T128" s="4">
+        <v>12.77</v>
+      </c>
+      <c r="U128" s="4">
+        <v>14.12</v>
+      </c>
+      <c r="V128" s="4">
+        <v>13.76</v>
+      </c>
+      <c r="W128" s="4">
+        <v>17</v>
+      </c>
+      <c r="X128" s="4">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="Y128" s="4">
+        <v>13.55</v>
+      </c>
+      <c r="Z128" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="AA128" s="4">
+        <v>13.11</v>
+      </c>
+      <c r="AB128" s="4">
+        <v>13.78</v>
+      </c>
+      <c r="AC128" s="4">
+        <v>12.95</v>
+      </c>
+      <c r="AD128" s="4">
+        <v>12.92</v>
+      </c>
+      <c r="AE128" s="4">
+        <v>13.14</v>
+      </c>
+      <c r="AF128" s="4">
+        <v>12.62</v>
+      </c>
+      <c r="AG128" s="4">
+        <v>13.65</v>
+      </c>
+      <c r="AH128" s="4">
+        <v>13.11</v>
+      </c>
+      <c r="AI128" s="4">
+        <v>13.34</v>
+      </c>
+      <c r="AJ128" s="4">
+        <v>12.96</v>
+      </c>
+      <c r="AK128" s="4">
+        <v>13.55</v>
+      </c>
+      <c r="AL128" s="4">
+        <v>14.06</v>
+      </c>
+      <c r="AM128" s="4">
+        <v>14.42</v>
+      </c>
+      <c r="AN128" s="4">
+        <v>14.64</v>
+      </c>
+      <c r="AO128" s="4">
+        <v>15.66</v>
+      </c>
+      <c r="AP128" s="4">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="AQ128" s="4">
+        <v>21.02</v>
+      </c>
+      <c r="AR128" s="4">
+        <v>23.36</v>
+      </c>
+      <c r="AS128" s="4">
+        <v>21.84</v>
+      </c>
+      <c r="AT128" s="4">
+        <v>20.03</v>
+      </c>
+      <c r="AU128" s="4">
+        <v>18.32</v>
+      </c>
+      <c r="AV128" s="4">
+        <v>14.09</v>
+      </c>
+      <c r="AW128" s="4">
+        <v>14.36</v>
+      </c>
+      <c r="AX128" s="4">
+        <v>13.98</v>
+      </c>
+      <c r="AY128" s="4">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>306</v>
+      </c>
+      <c r="B129" t="s">
+        <v>307</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="4">
+        <v>11.07</v>
+      </c>
+      <c r="E129" s="4">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="F129" s="4">
+        <v>9.07</v>
+      </c>
+      <c r="G129" s="4">
+        <v>10.74</v>
+      </c>
+      <c r="H129" s="4">
+        <v>13.09</v>
+      </c>
+      <c r="I129" s="4">
+        <v>13.23</v>
+      </c>
+      <c r="J129" s="4">
+        <v>14.92</v>
+      </c>
+      <c r="K129" s="4">
+        <v>14.62</v>
+      </c>
+      <c r="L129" s="4">
+        <v>12.48</v>
+      </c>
+      <c r="M129" s="4">
+        <v>14.86</v>
+      </c>
+      <c r="N129" s="4">
+        <v>14.78</v>
+      </c>
+      <c r="O129" s="4">
+        <v>15.48</v>
+      </c>
+      <c r="P129" s="4">
+        <v>15.05</v>
+      </c>
+      <c r="Q129" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="R129" s="4">
+        <v>15.11</v>
+      </c>
+      <c r="S129" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="T129" s="4">
+        <v>15.91</v>
+      </c>
+      <c r="U129" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="V129" s="4">
+        <v>18.73</v>
+      </c>
+      <c r="W129" s="4">
+        <v>20.76</v>
+      </c>
+      <c r="X129" s="4">
+        <v>21.68</v>
+      </c>
+      <c r="Y129" s="4">
+        <v>17.78</v>
+      </c>
+      <c r="Z129" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="AA129" s="4">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="AB129" s="4">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="AC129" s="4">
+        <v>15.67</v>
+      </c>
+      <c r="AD129" s="4">
+        <v>15.42</v>
+      </c>
+      <c r="AE129" s="4">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="AF129" s="4">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="AG129" s="4">
+        <v>16.11</v>
+      </c>
+      <c r="AH129" s="4">
+        <v>14.78</v>
+      </c>
+      <c r="AI129" s="4">
+        <v>15.04</v>
+      </c>
+      <c r="AJ129" s="4">
+        <v>15.99</v>
+      </c>
+      <c r="AK129" s="4">
+        <v>17.73</v>
+      </c>
+      <c r="AL129" s="4">
+        <v>18.43</v>
+      </c>
+      <c r="AM129" s="4">
+        <v>19.34</v>
+      </c>
+      <c r="AN129" s="4">
+        <v>17.47</v>
+      </c>
+      <c r="AO129" s="4">
+        <v>16.93</v>
+      </c>
+      <c r="AP129" s="4">
+        <v>21.54</v>
+      </c>
+      <c r="AQ129" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="AR129" s="4">
+        <v>24.87</v>
+      </c>
+      <c r="AS129" s="4">
+        <v>22.42</v>
+      </c>
+      <c r="AT129" s="4">
+        <v>19.16</v>
+      </c>
+      <c r="AU129" s="4">
+        <v>17.02</v>
+      </c>
+      <c r="AV129" s="4">
+        <v>19.66</v>
+      </c>
+      <c r="AW129" s="4">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="AX129" s="4">
+        <v>16.03</v>
+      </c>
+      <c r="AY129" s="4">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>308</v>
+      </c>
+      <c r="B130" t="s">
+        <v>309</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="4">
+        <v>10.86</v>
+      </c>
+      <c r="E130" s="4">
+        <v>8.98</v>
+      </c>
+      <c r="F130" s="4">
+        <v>9.23</v>
+      </c>
+      <c r="G130" s="4">
+        <v>10.89</v>
+      </c>
+      <c r="H130" s="4">
+        <v>12.86</v>
+      </c>
+      <c r="I130" s="4">
+        <v>12.44</v>
+      </c>
+      <c r="J130" s="4">
+        <v>14.39</v>
+      </c>
+      <c r="K130" s="4">
+        <v>14.46</v>
+      </c>
+      <c r="L130" s="4">
+        <v>11.12</v>
+      </c>
+      <c r="M130" s="4">
+        <v>13.99</v>
+      </c>
+      <c r="N130" s="4">
+        <v>14.15</v>
+      </c>
+      <c r="O130" s="4">
+        <v>14.66</v>
+      </c>
+      <c r="P130" s="4">
+        <v>14.62</v>
+      </c>
+      <c r="Q130" s="4">
+        <v>13.99</v>
+      </c>
+      <c r="R130" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="S130" s="4">
+        <v>14.22</v>
+      </c>
+      <c r="T130" s="4">
+        <v>14.81</v>
+      </c>
+      <c r="U130" s="4">
+        <v>16.36</v>
+      </c>
+      <c r="V130" s="4">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="W130" s="4">
+        <v>19.63</v>
+      </c>
+      <c r="X130" s="4">
+        <v>20.27</v>
+      </c>
+      <c r="Y130" s="4">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="Z130" s="4">
+        <v>14.63</v>
+      </c>
+      <c r="AA130" s="4">
+        <v>15.34</v>
+      </c>
+      <c r="AB130" s="4">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="AC130" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="AD130" s="4">
+        <v>14.07</v>
+      </c>
+      <c r="AE130" s="4">
+        <v>14.59</v>
+      </c>
+      <c r="AF130" s="4">
+        <v>14.91</v>
+      </c>
+      <c r="AG130" s="4">
+        <v>14.93</v>
+      </c>
+      <c r="AH130" s="4">
+        <v>14.22</v>
+      </c>
+      <c r="AI130" s="4">
+        <v>14.23</v>
+      </c>
+      <c r="AJ130" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="AK130" s="4">
+        <v>16.59</v>
+      </c>
+      <c r="AL130" s="4">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="AM130" s="4">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="AN130" s="4">
+        <v>16.63</v>
+      </c>
+      <c r="AO130" s="4">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="AP130" s="4">
+        <v>21.05</v>
+      </c>
+      <c r="AQ130" s="4">
+        <v>22.43</v>
+      </c>
+      <c r="AR130" s="4">
+        <v>25.47</v>
+      </c>
+      <c r="AS130" s="4">
+        <v>23.38</v>
+      </c>
+      <c r="AT130" s="4">
+        <v>20.58</v>
+      </c>
+      <c r="AU130" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AV130" s="4">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="AW130" s="4">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="AX130" s="4">
+        <v>14.54</v>
+      </c>
+      <c r="AY130" s="4">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>310</v>
+      </c>
+      <c r="B131" t="s">
+        <v>311</v>
+      </c>
+      <c r="C131" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="4">
+        <v>9.74</v>
+      </c>
+      <c r="E131" s="4">
+        <v>8.81</v>
+      </c>
+      <c r="F131" s="4">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G131" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="H131" s="4">
+        <v>12.17</v>
+      </c>
+      <c r="I131" s="4">
+        <v>12.89</v>
+      </c>
+      <c r="J131" s="4">
+        <v>15.41</v>
+      </c>
+      <c r="K131" s="4">
+        <v>14.51</v>
+      </c>
+      <c r="L131" s="4">
+        <v>11.87</v>
+      </c>
+      <c r="M131" s="4">
+        <v>14.69</v>
+      </c>
+      <c r="N131" s="4">
+        <v>15.17</v>
+      </c>
+      <c r="O131" s="4">
+        <v>15.01</v>
+      </c>
+      <c r="P131" s="4">
+        <v>14.96</v>
+      </c>
+      <c r="Q131" s="4">
+        <v>14.58</v>
+      </c>
+      <c r="R131" s="4">
+        <v>15.05</v>
+      </c>
+      <c r="S131" s="4">
+        <v>14.89</v>
+      </c>
+      <c r="T131" s="4">
+        <v>16.45</v>
+      </c>
+      <c r="U131" s="4">
+        <v>18.82</v>
+      </c>
+      <c r="V131" s="4">
+        <v>19.68</v>
+      </c>
+      <c r="W131" s="4">
+        <v>20.94</v>
+      </c>
+      <c r="X131" s="4">
+        <v>21.83</v>
+      </c>
+      <c r="Y131" s="4">
+        <v>17.59</v>
+      </c>
+      <c r="Z131" s="4">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="AA131" s="4">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="AB131" s="4">
+        <v>17.84</v>
+      </c>
+      <c r="AC131" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="AD131" s="4">
+        <v>16.07</v>
+      </c>
+      <c r="AE131" s="4">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="AF131" s="4">
+        <v>17.54</v>
+      </c>
+      <c r="AG131" s="4">
+        <v>17.71</v>
+      </c>
+      <c r="AH131" s="4">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="AI131" s="4">
+        <v>16.62</v>
+      </c>
+      <c r="AJ131" s="4">
+        <v>17.55</v>
+      </c>
+      <c r="AK131" s="4">
+        <v>19.07</v>
+      </c>
+      <c r="AL131" s="4">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="AM131" s="4">
+        <v>20.81</v>
+      </c>
+      <c r="AN131" s="4">
+        <v>18.36</v>
+      </c>
+      <c r="AO131" s="4">
+        <v>19.02</v>
+      </c>
+      <c r="AP131" s="4">
+        <v>23.54</v>
+      </c>
+      <c r="AQ131" s="4">
+        <v>22.62</v>
+      </c>
+      <c r="AR131" s="4">
+        <v>27.15</v>
+      </c>
+      <c r="AS131" s="4">
+        <v>23.87</v>
+      </c>
+      <c r="AT131" s="4">
+        <v>20.95</v>
+      </c>
+      <c r="AU131" s="4">
+        <v>15.76</v>
+      </c>
+      <c r="AV131" s="4">
+        <v>19.7</v>
+      </c>
+      <c r="AW131" s="4">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="AX131" s="4">
+        <v>18.11</v>
+      </c>
+      <c r="AY131" s="4">
+        <v>15.89</v>
+      </c>
+    </row>
+    <row r="132" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>312</v>
+      </c>
+      <c r="B132" t="s">
+        <v>313</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="4">
+        <v>7.53</v>
+      </c>
+      <c r="E132" s="4">
+        <v>7.88</v>
+      </c>
+      <c r="F132" s="4">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="G132" s="4">
+        <v>10.38</v>
+      </c>
+      <c r="H132" s="4">
+        <v>10.23</v>
+      </c>
+      <c r="I132" s="4">
+        <v>9.35</v>
+      </c>
+      <c r="J132" s="4">
+        <v>10.51</v>
+      </c>
+      <c r="K132" s="4">
+        <v>10.29</v>
+      </c>
+      <c r="L132" s="4">
+        <v>8.84</v>
+      </c>
+      <c r="M132" s="4">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="N132" s="4">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="O132" s="4">
+        <v>9.77</v>
+      </c>
+      <c r="P132" s="4">
+        <v>9.73</v>
+      </c>
+      <c r="Q132" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="R132" s="4">
+        <v>9.56</v>
+      </c>
+      <c r="S132" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="T132" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="U132" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="V132" s="4">
+        <v>9.64</v>
+      </c>
+      <c r="W132" s="4">
+        <v>11.69</v>
+      </c>
+      <c r="X132" s="4">
+        <v>12.79</v>
+      </c>
+      <c r="Y132" s="4">
+        <v>9.52</v>
+      </c>
+      <c r="Z132" s="4">
+        <v>9.14</v>
+      </c>
+      <c r="AA132" s="4">
+        <v>9.23</v>
+      </c>
+      <c r="AB132" s="4">
+        <v>9.52</v>
+      </c>
+      <c r="AC132" s="4">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="AD132" s="4">
+        <v>9.15</v>
+      </c>
+      <c r="AE132" s="4">
+        <v>9.36</v>
+      </c>
+      <c r="AF132" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="AG132" s="4">
+        <v>8.86</v>
+      </c>
+      <c r="AH132" s="4">
+        <v>8.77</v>
+      </c>
+      <c r="AI132" s="4">
+        <v>9</v>
+      </c>
+      <c r="AJ132" s="4">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="AK132" s="4">
+        <v>8.67</v>
+      </c>
+      <c r="AL132" s="4">
+        <v>8.16</v>
+      </c>
+      <c r="AM132" s="4">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="AN132" s="4">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="AO132" s="4">
+        <v>8.61</v>
+      </c>
+      <c r="AP132" s="4">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="AQ132" s="4">
+        <v>11.55</v>
+      </c>
+      <c r="AR132" s="4">
+        <v>12.15</v>
+      </c>
+      <c r="AS132" s="4">
+        <v>10.45</v>
+      </c>
+      <c r="AT132" s="4">
+        <v>9.61</v>
+      </c>
+      <c r="AU132" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="AV132" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AW132" s="4">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="AX132" s="4">
+        <v>7.87</v>
+      </c>
+      <c r="AY132" s="4">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>314</v>
+      </c>
+      <c r="B133" t="s">
+        <v>315</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="4">
+        <v>6.98</v>
+      </c>
+      <c r="E133" s="4">
+        <v>7.18</v>
+      </c>
+      <c r="F133" s="4">
+        <v>6.81</v>
+      </c>
+      <c r="G133" s="4">
+        <v>7.05</v>
+      </c>
+      <c r="H133" s="4">
+        <v>6.99</v>
+      </c>
+      <c r="I133" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="J133" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="K133" s="4">
+        <v>8.15</v>
+      </c>
+      <c r="L133" s="4">
+        <v>7.38</v>
+      </c>
+      <c r="M133" s="4">
+        <v>6.87</v>
+      </c>
+      <c r="N133" s="4">
+        <v>6.47</v>
+      </c>
+      <c r="O133" s="4">
+        <v>6.86</v>
+      </c>
+      <c r="P133" s="4">
+        <v>5.66</v>
+      </c>
+      <c r="Q133" s="4">
+        <v>5.15</v>
+      </c>
+      <c r="R133" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="S133" s="4">
+        <v>4.12</v>
+      </c>
+      <c r="T133" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="U133" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="V133" s="4">
+        <v>3.34</v>
+      </c>
+      <c r="W133" s="4">
+        <v>2.64</v>
+      </c>
+      <c r="X133" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Y133" s="4">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="Z133" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="AA133" s="4">
+        <v>1.96</v>
+      </c>
+      <c r="AB133" s="4">
+        <v>1.77</v>
+      </c>
+      <c r="AC133" s="4">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AD133" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AE133" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="AF133" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="AG133" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="AH133" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AI133" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="AJ133" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="AK133" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="AL133" s="4">
+        <v>2.63</v>
+      </c>
+      <c r="AM133" s="4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AN133" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="AO133" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AP133" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="AQ133" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR133" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="AS133" s="4">
+        <v>1.91</v>
+      </c>
+      <c r="AT133" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AU133" s="4">
+        <v>1.41</v>
+      </c>
+      <c r="AV133" s="4">
+        <v>3.03</v>
+      </c>
+      <c r="AW133" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="AX133" s="4">
+        <v>3.08</v>
+      </c>
+      <c r="AY133" s="4">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>316</v>
+      </c>
+      <c r="B134" t="s">
+        <v>317</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="E134" s="4">
+        <v>7.65</v>
+      </c>
+      <c r="F134" s="4">
+        <v>8.02</v>
+      </c>
+      <c r="G134" s="4">
+        <v>10.31</v>
+      </c>
+      <c r="H134" s="4">
+        <v>9.32</v>
+      </c>
+      <c r="I134" s="4">
+        <v>8</v>
+      </c>
+      <c r="J134" s="4">
+        <v>8.91</v>
+      </c>
+      <c r="K134" s="4">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="L134" s="4">
+        <v>6.52</v>
+      </c>
+      <c r="M134" s="4">
+        <v>6.95</v>
+      </c>
+      <c r="N134" s="4">
+        <v>7.17</v>
+      </c>
+      <c r="O134" s="4">
+        <v>6.89</v>
+      </c>
+      <c r="P134" s="4">
+        <v>6.81</v>
+      </c>
+      <c r="Q134" s="4">
+        <v>5.77</v>
+      </c>
+      <c r="R134" s="4">
+        <v>6.07</v>
+      </c>
+      <c r="S134" s="4">
+        <v>6.06</v>
+      </c>
+      <c r="T134" s="4">
+        <v>4.87</v>
+      </c>
+      <c r="U134" s="4">
+        <v>5.72</v>
+      </c>
+      <c r="V134" s="4">
+        <v>6.15</v>
+      </c>
+      <c r="W134" s="4">
+        <v>5.04</v>
+      </c>
+      <c r="X134" s="4">
+        <v>6.33</v>
+      </c>
+      <c r="Y134" s="4">
+        <v>5.47</v>
+      </c>
+      <c r="Z134" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="AA134" s="4">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AB134" s="4">
+        <v>5.53</v>
+      </c>
+      <c r="AC134" s="4">
+        <v>5.46</v>
+      </c>
+      <c r="AD134" s="4">
+        <v>6.02</v>
+      </c>
+      <c r="AE134" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="AF134" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="AG134" s="4">
+        <v>6.29</v>
+      </c>
+      <c r="AH134" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="AI134" s="4">
+        <v>5.03</v>
+      </c>
+      <c r="AJ134" s="4">
+        <v>3.46</v>
+      </c>
+      <c r="AK134" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="AL134" s="4">
+        <v>3.18</v>
+      </c>
+      <c r="AM134" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AN134" s="4">
+        <v>4.63</v>
+      </c>
+      <c r="AO134" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="AP134" s="4">
+        <v>6.64</v>
+      </c>
+      <c r="AQ134" s="4">
+        <v>6.46</v>
+      </c>
+      <c r="AR134" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="AS134" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="AT134" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="AU134" s="4">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="AV134" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="AW134" s="4">
+        <v>5.04</v>
+      </c>
+      <c r="AX134" s="4">
+        <v>5.55</v>
+      </c>
+      <c r="AY134" s="4">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="135" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>318</v>
+      </c>
+      <c r="B135" t="s">
+        <v>319</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="4">
+        <v>6.35</v>
+      </c>
+      <c r="E135" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="F135" s="4">
+        <v>6.59</v>
+      </c>
+      <c r="G135" s="4">
+        <v>7.01</v>
+      </c>
+      <c r="H135" s="4">
+        <v>7.84</v>
+      </c>
+      <c r="I135" s="4">
+        <v>7.74</v>
+      </c>
+      <c r="J135" s="4">
+        <v>7.15</v>
+      </c>
+      <c r="K135" s="4">
+        <v>6.24</v>
+      </c>
+      <c r="L135" s="4">
+        <v>6.42</v>
+      </c>
+      <c r="M135" s="4">
+        <v>5.71</v>
+      </c>
+      <c r="N135" s="4">
+        <v>5.55</v>
+      </c>
+      <c r="O135" s="4">
+        <v>5.14</v>
+      </c>
+      <c r="P135" s="4">
+        <v>4.83</v>
+      </c>
+      <c r="Q135" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R135" s="4">
+        <v>4.68</v>
+      </c>
+      <c r="S135" s="4">
+        <v>4.57</v>
+      </c>
+      <c r="T135" s="4">
+        <v>4.78</v>
+      </c>
+      <c r="U135" s="4">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="V135" s="4">
+        <v>4.07</v>
+      </c>
+      <c r="W135" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="X135" s="4">
+        <v>2.76</v>
+      </c>
+      <c r="Y135" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="Z135" s="4">
+        <v>3.11</v>
+      </c>
+      <c r="AA135" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AB135" s="4">
+        <v>4.22</v>
+      </c>
+      <c r="AC135" s="4">
+        <v>4.18</v>
+      </c>
+      <c r="AD135" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE135" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="AF135" s="4">
+        <v>4.45</v>
+      </c>
+      <c r="AG135" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="AH135" s="4">
+        <v>3.97</v>
+      </c>
+      <c r="AI135" s="4">
+        <v>3.65</v>
+      </c>
+      <c r="AJ135" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="AK135" s="4">
+        <v>2.74</v>
+      </c>
+      <c r="AL135" s="4">
+        <v>3.57</v>
+      </c>
+      <c r="AM135" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="AN135" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="AO135" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="AP135" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="AQ135" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="AR135" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AS135" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT135" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU135" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV135" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW135" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX135" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>320</v>
+      </c>
+      <c r="B136" t="s">
+        <v>321</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="4">
+        <v>5.73</v>
+      </c>
+      <c r="E136" s="4">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="F136" s="4">
+        <v>4.84</v>
+      </c>
+      <c r="G136" s="4">
+        <v>5.39</v>
+      </c>
+      <c r="H136" s="4">
+        <v>5.49</v>
+      </c>
+      <c r="I136" s="4">
+        <v>5.42</v>
+      </c>
+      <c r="J136" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="K136" s="4">
+        <v>6.53</v>
+      </c>
+      <c r="L136" s="4">
+        <v>5.34</v>
+      </c>
+      <c r="M136" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="N136" s="4">
+        <v>6.49</v>
+      </c>
+      <c r="O136" s="4">
+        <v>6.55</v>
+      </c>
+      <c r="P136" s="4">
+        <v>6.64</v>
+      </c>
+      <c r="Q136" s="4">
+        <v>6.37</v>
+      </c>
+      <c r="R136" s="4">
+        <v>6.57</v>
+      </c>
+      <c r="S136" s="4">
+        <v>6.51</v>
+      </c>
+      <c r="T136" s="4">
+        <v>6.59</v>
+      </c>
+      <c r="U136" s="4">
+        <v>7.12</v>
+      </c>
+      <c r="V136" s="4">
+        <v>7.35</v>
+      </c>
+      <c r="W136" s="4">
+        <v>8.27</v>
+      </c>
+      <c r="X136" s="4">
+        <v>8.31</v>
+      </c>
+      <c r="Y136" s="4">
+        <v>7.22</v>
+      </c>
+      <c r="Z136" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="AA136" s="4">
+        <v>6.92</v>
+      </c>
+      <c r="AB136" s="4">
+        <v>6.95</v>
+      </c>
+      <c r="AC136" s="4">
+        <v>6.68</v>
+      </c>
+      <c r="AD136" s="4">
+        <v>6.41</v>
+      </c>
+      <c r="AE136" s="4">
+        <v>6.63</v>
+      </c>
+      <c r="AF136" s="4">
+        <v>6.62</v>
+      </c>
+      <c r="AG136" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="AH136" s="4">
+        <v>6.41</v>
+      </c>
+      <c r="AI136" s="4">
+        <v>6.39</v>
+      </c>
+      <c r="AJ136" s="4">
+        <v>6.52</v>
+      </c>
+      <c r="AK136" s="4">
+        <v>7.05</v>
+      </c>
+      <c r="AL136" s="4">
+        <v>7.64</v>
+      </c>
+      <c r="AM136" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="AN136" s="4">
+        <v>7.14</v>
+      </c>
+      <c r="AO136" s="4">
+        <v>6.89</v>
+      </c>
+      <c r="AP136" s="4">
+        <v>7.88</v>
+      </c>
+      <c r="AQ136" s="4">
+        <v>8.69</v>
+      </c>
+      <c r="AR136" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="AS136" s="4">
+        <v>9.99</v>
+      </c>
+      <c r="AT136" s="4">
+        <v>7.83</v>
+      </c>
+      <c r="AU136" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="AV136" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="AW136" s="4">
+        <v>7.03</v>
+      </c>
+      <c r="AX136" s="4">
+        <v>6.22</v>
+      </c>
+      <c r="AY136" s="4">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>322</v>
+      </c>
+      <c r="B137" t="s">
+        <v>323</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="4">
+        <v>5.32</v>
+      </c>
+      <c r="E137" s="4">
+        <v>6.12</v>
+      </c>
+      <c r="F137" s="4">
+        <v>6.42</v>
+      </c>
+      <c r="G137" s="4">
+        <v>8.16</v>
+      </c>
+      <c r="H137" s="4">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I137" s="4">
+        <v>8.44</v>
+      </c>
+      <c r="J137" s="4">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="K137" s="4">
+        <v>9.64</v>
+      </c>
+      <c r="L137" s="4">
+        <v>7.61</v>
+      </c>
+      <c r="M137" s="4">
+        <v>9.56</v>
+      </c>
+      <c r="N137" s="4">
+        <v>9.66</v>
+      </c>
+      <c r="O137" s="4">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="P137" s="4">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="Q137" s="4">
+        <v>9.25</v>
+      </c>
+      <c r="R137" s="4">
+        <v>9</v>
+      </c>
+      <c r="S137" s="4">
+        <v>9</v>
+      </c>
+      <c r="T137" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="U137" s="4">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="V137" s="4">
+        <v>9.17</v>
+      </c>
+      <c r="W137" s="4">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="X137" s="4">
+        <v>9.76</v>
+      </c>
+      <c r="Y137" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="Z137" s="4">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="AA137" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AB137" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AC137" s="4">
+        <v>9.17</v>
+      </c>
+      <c r="AD137" s="4">
+        <v>8.86</v>
+      </c>
+      <c r="AE137" s="4">
+        <v>9.18</v>
+      </c>
+      <c r="AF137" s="4">
+        <v>7.78</v>
+      </c>
+      <c r="AG137" s="4">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="AH137" s="4">
+        <v>8.27</v>
+      </c>
+      <c r="AI137" s="4">
+        <v>8.06</v>
+      </c>
+      <c r="AJ137" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="AK137" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AL137" s="4">
+        <v>7.58</v>
+      </c>
+      <c r="AM137" s="4">
+        <v>8.86</v>
+      </c>
+      <c r="AN137" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="AO137" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="AP137" s="4">
+        <v>9.57</v>
+      </c>
+      <c r="AQ137" s="4">
+        <v>11.01</v>
+      </c>
+      <c r="AR137" s="4">
+        <v>10.91</v>
+      </c>
+      <c r="AS137" s="4">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="AT137" s="4">
+        <v>9.19</v>
+      </c>
+      <c r="AU137" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="AV137" s="4">
+        <v>7.79</v>
+      </c>
+      <c r="AW137" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="AX137" s="4">
+        <v>7.22</v>
+      </c>
+      <c r="AY137" s="4">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>324</v>
+      </c>
+      <c r="B138" t="s">
+        <v>325</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="4">
+        <v>4.82</v>
+      </c>
+      <c r="E138" s="4">
+        <v>5.18</v>
+      </c>
+      <c r="F138" s="4">
+        <v>5.15</v>
+      </c>
+      <c r="G138" s="4">
+        <v>5.66</v>
+      </c>
+      <c r="H138" s="4">
+        <v>5.71</v>
+      </c>
+      <c r="I138" s="4">
+        <v>5.31</v>
+      </c>
+      <c r="J138" s="4">
+        <v>6.51</v>
+      </c>
+      <c r="K138" s="4">
+        <v>6.68</v>
+      </c>
+      <c r="L138" s="4">
+        <v>5.44</v>
+      </c>
+      <c r="M138" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="N138" s="4">
+        <v>6.42</v>
+      </c>
+      <c r="O138" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="P138" s="4">
+        <v>6.57</v>
+      </c>
+      <c r="Q138" s="4">
+        <v>6.22</v>
+      </c>
+      <c r="R138" s="4">
+        <v>6.33</v>
+      </c>
+      <c r="S138" s="4">
+        <v>6.37</v>
+      </c>
+      <c r="T138" s="4">
+        <v>6.26</v>
+      </c>
+      <c r="U138" s="4">
+        <v>6.67</v>
+      </c>
+      <c r="V138" s="4">
+        <v>6.79</v>
+      </c>
+      <c r="W138" s="4">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="X138" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y138" s="4">
+        <v>6.79</v>
+      </c>
+      <c r="Z138" s="4">
+        <v>6.05</v>
+      </c>
+      <c r="AA138" s="4">
+        <v>6.21</v>
+      </c>
+      <c r="AB138" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="AC138" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="AD138" s="4">
+        <v>5.92</v>
+      </c>
+      <c r="AE138" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="AF138" s="4">
+        <v>6</v>
+      </c>
+      <c r="AG138" s="4">
+        <v>6.24</v>
+      </c>
+      <c r="AH138" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="AI138" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="AJ138" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="AK138" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="AL138" s="4">
+        <v>6.06</v>
+      </c>
+      <c r="AM138" s="4">
+        <v>6.42</v>
+      </c>
+      <c r="AN138" s="4">
+        <v>5.84</v>
+      </c>
+      <c r="AO138" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="AP138" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="AQ138" s="4">
+        <v>7.96</v>
+      </c>
+      <c r="AR138" s="4">
+        <v>8.86</v>
+      </c>
+      <c r="AS138" s="4">
+        <v>8.77</v>
+      </c>
+      <c r="AT138" s="4">
+        <v>6.64</v>
+      </c>
+      <c r="AU138" s="4">
+        <v>6.43</v>
+      </c>
+      <c r="AV138" s="4">
+        <v>7.13</v>
+      </c>
+      <c r="AW138" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="AX138" s="4">
+        <v>6.76</v>
+      </c>
+      <c r="AY138" s="4">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="139" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>326</v>
+      </c>
+      <c r="B139" t="s">
+        <v>327</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="4">
+        <v>4.24</v>
+      </c>
+      <c r="E139" s="4">
+        <v>4.66</v>
+      </c>
+      <c r="F139" s="4">
+        <v>4.74</v>
+      </c>
+      <c r="G139" s="4">
+        <v>5.15</v>
+      </c>
+      <c r="H139" s="4">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I139" s="4">
+        <v>5.08</v>
+      </c>
+      <c r="J139" s="4">
+        <v>5.46</v>
+      </c>
+      <c r="K139" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="L139" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M139" s="4">
+        <v>5</v>
+      </c>
+      <c r="N139" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="O139" s="4">
+        <v>4.72</v>
+      </c>
+      <c r="P139" s="4">
+        <v>4.68</v>
+      </c>
+      <c r="Q139" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R139" s="4">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="S139" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="T139" s="4">
+        <v>4.42</v>
+      </c>
+      <c r="U139" s="4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="V139" s="4">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="W139" s="4">
+        <v>5.23</v>
+      </c>
+      <c r="X139" s="4">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="Y139" s="4">
+        <v>4.43</v>
+      </c>
+      <c r="Z139" s="4">
+        <v>4.33</v>
+      </c>
+      <c r="AA139" s="4">
+        <v>4.21</v>
+      </c>
+      <c r="AB139" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="AC139" s="4">
+        <v>4.09</v>
+      </c>
+      <c r="AD139" s="4">
+        <v>3.97</v>
+      </c>
+      <c r="AE139" s="4">
+        <v>3.74</v>
+      </c>
+      <c r="AF139" s="4">
+        <v>3.59</v>
+      </c>
+      <c r="AG139" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="AH139" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="AI139" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="AJ139" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="AK139" s="4">
+        <v>2.64</v>
+      </c>
+      <c r="AL139" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="AM139" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="AN139" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="AO139" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="AP139" s="4">
+        <v>1.41</v>
+      </c>
+      <c r="AQ139" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="AR139" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="AS139" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AT139" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU139" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV139" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="AW139" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="AX139" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="AY139" s="4">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>328</v>
+      </c>
+      <c r="B140" t="s">
+        <v>329</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="4">
+        <v>4.24</v>
+      </c>
+      <c r="E140" s="4">
+        <v>4.17</v>
+      </c>
+      <c r="F140" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G140" s="4">
+        <v>4.28</v>
+      </c>
+      <c r="H140" s="4">
+        <v>4.37</v>
+      </c>
+      <c r="I140" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="J140" s="4">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K140" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="L140" s="4">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="M140" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N140" s="4">
+        <v>4.21</v>
+      </c>
+      <c r="O140" s="4">
+        <v>4.62</v>
+      </c>
+      <c r="P140" s="4">
+        <v>4.28</v>
+      </c>
+      <c r="Q140" s="4">
+        <v>4.29</v>
+      </c>
+      <c r="R140" s="4">
+        <v>3.62</v>
+      </c>
+      <c r="S140" s="4">
+        <v>3.94</v>
+      </c>
+      <c r="T140" s="4">
+        <v>3.84</v>
+      </c>
+      <c r="U140" s="4">
+        <v>7.77</v>
+      </c>
+      <c r="V140" s="4">
+        <v>5.77</v>
+      </c>
+      <c r="W140" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="X140" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="Y140" s="4">
+        <v>3.13</v>
+      </c>
+      <c r="Z140" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AA140" s="4">
+        <v>7.31</v>
+      </c>
+      <c r="AB140" s="4">
+        <v>6.85</v>
+      </c>
+      <c r="AC140" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="AD140" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="AE140" s="4">
+        <v>3.02</v>
+      </c>
+      <c r="AF140" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="AG140" s="4">
+        <v>6</v>
+      </c>
+      <c r="AH140" s="4">
+        <v>6.08</v>
+      </c>
+      <c r="AI140" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="AJ140" s="4">
+        <v>3.94</v>
+      </c>
+      <c r="AK140" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="AL140" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="AM140" s="4">
+        <v>7.57</v>
+      </c>
+      <c r="AN140" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AO140" s="4">
+        <v>6.07</v>
+      </c>
+      <c r="AP140" s="4">
+        <v>8.26</v>
+      </c>
+      <c r="AQ140" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="AR140" s="4">
+        <v>11.82</v>
+      </c>
+      <c r="AS140" s="4">
+        <v>13.31</v>
+      </c>
+      <c r="AT140" s="4">
+        <v>8.36</v>
+      </c>
+      <c r="AU140" s="4">
+        <v>11.79</v>
+      </c>
+      <c r="AV140" s="4">
+        <v>9.42</v>
+      </c>
+      <c r="AW140" s="4">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="AX140" s="4">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="AY140" s="4">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>330</v>
+      </c>
+      <c r="B141" t="s">
+        <v>331</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E141" s="4">
+        <v>4.17</v>
+      </c>
+      <c r="F141" s="4">
+        <v>4.08</v>
+      </c>
+      <c r="G141" s="4">
+        <v>4.29</v>
+      </c>
+      <c r="H141" s="4">
+        <v>4.29</v>
+      </c>
+      <c r="I141" s="4">
+        <v>5.66</v>
+      </c>
+      <c r="J141" s="4">
+        <v>6.12</v>
+      </c>
+      <c r="K141" s="4">
+        <v>6.03</v>
+      </c>
+      <c r="L141" s="4">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="M141" s="4">
+        <v>6.09</v>
+      </c>
+      <c r="N141" s="4">
+        <v>6.42</v>
+      </c>
+      <c r="O141" s="4">
+        <v>6.39</v>
+      </c>
+      <c r="P141" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="Q141" s="4">
+        <v>5.92</v>
+      </c>
+      <c r="R141" s="4">
+        <v>6.56</v>
+      </c>
+      <c r="S141" s="4">
+        <v>6.15</v>
+      </c>
+      <c r="T141" s="4">
+        <v>5.26</v>
+      </c>
+      <c r="U141" s="4">
+        <v>5.81</v>
+      </c>
+      <c r="V141" s="4">
+        <v>5.77</v>
+      </c>
+      <c r="W141" s="4">
+        <v>4.34</v>
+      </c>
+      <c r="X141" s="4">
+        <v>5.14</v>
+      </c>
+      <c r="Y141" s="4">
+        <v>4.01</v>
+      </c>
+      <c r="Z141" s="4">
+        <v>3.61</v>
+      </c>
+      <c r="AA141" s="4">
+        <v>3.72</v>
+      </c>
+      <c r="AB141" s="4">
+        <v>4.53</v>
+      </c>
+      <c r="AC141" s="4">
+        <v>4.74</v>
+      </c>
+      <c r="AD141" s="4">
+        <v>5.36</v>
+      </c>
+      <c r="AE141" s="4">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="AF141" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="AG141" s="4">
+        <v>6.64</v>
+      </c>
+      <c r="AH141" s="4">
+        <v>4.53</v>
+      </c>
+      <c r="AI141" s="4">
+        <v>4.82</v>
+      </c>
+      <c r="AJ141" s="4">
+        <v>4.32</v>
+      </c>
+      <c r="AK141" s="4">
+        <v>4.53</v>
+      </c>
+      <c r="AL141" s="4">
+        <v>4.87</v>
+      </c>
+      <c r="AM141" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="AN141" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="AO141" s="4">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AP141" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="AQ141" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="AR141" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="AS141" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="AT141" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="AU141" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="AV141" s="4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AW141" s="4">
+        <v>2.42</v>
+      </c>
+      <c r="AX141" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="AY141" s="4">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="142" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>332</v>
+      </c>
+      <c r="B142" t="s">
+        <v>333</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="4">
+        <v>3.38</v>
+      </c>
+      <c r="E142" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="F142" s="4">
+        <v>3.27</v>
+      </c>
+      <c r="G142" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="H142" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="I142" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="J142" s="4">
+        <v>2.99</v>
+      </c>
+      <c r="K142" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="L142" s="4">
+        <v>2.86</v>
+      </c>
+      <c r="M142" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="N142" s="4">
+        <v>2.37</v>
+      </c>
+      <c r="O142" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="P142" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="Q142" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="R142" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="S142" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T142" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="U142" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="V142" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="W142" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="X142" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="Z142" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AA142" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="AB142" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="AC142" s="4">
+        <v>1.37</v>
+      </c>
+      <c r="AD142" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AE142" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="AF142" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="AG142" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="AH142" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="AI142" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="AJ142" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="AK142" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AL142" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="AM142" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="AN142" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="AO142" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="AP142" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ142" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR142" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS142" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT142" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU142" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="AV142" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="AW142" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="AX142" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="AY142" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>334</v>
+      </c>
+      <c r="B143" t="s">
+        <v>335</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="E143" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="F143" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="G143" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="H143" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="I143" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="J143" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K143" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="L143" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="M143" s="4">
+        <v>2.27</v>
+      </c>
+      <c r="N143" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="O143" s="4">
+        <v>2.19</v>
+      </c>
+      <c r="P143" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="Q143" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="R143" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="S143" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="T143" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="U143" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="V143" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="W143" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="X143" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y143" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="Z143" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="AA143" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="AB143" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AC143" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="AD143" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="AE143" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="AF143" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AG143" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="AH143" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="AI143" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="AJ143" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="AK143" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="AL143" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="AM143" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN143" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="AO143" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="AP143" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="AQ143" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR143" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS143" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT143" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU143" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV143" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="AW143" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AX143" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="AY143" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>336</v>
+      </c>
+      <c r="B144" t="s">
+        <v>337</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="E144" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="F144" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="G144" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="H144" s="4">
+        <v>0</v>
+      </c>
+      <c r="I144" s="4">
+        <v>0</v>
+      </c>
+      <c r="J144" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K144" s="4">
+        <v>0</v>
+      </c>
+      <c r="L144" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="M144" s="4">
+        <v>0</v>
+      </c>
+      <c r="N144" s="4">
+        <v>0</v>
+      </c>
+      <c r="O144" s="4">
+        <v>0</v>
+      </c>
+      <c r="P144" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="4">
+        <v>0</v>
+      </c>
+      <c r="R144" s="4">
+        <v>0</v>
+      </c>
+      <c r="S144" s="4">
+        <v>0</v>
+      </c>
+      <c r="T144" s="4">
+        <v>0</v>
+      </c>
+      <c r="U144" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="V144" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="W144" s="4">
+        <v>0</v>
+      </c>
+      <c r="X144" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y144" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z144" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="AB144" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AC144" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD144" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE144" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF144" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="AG144" s="4">
+        <v>1.97</v>
+      </c>
+      <c r="AH144" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AI144" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="AJ144" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AK144" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="AL144" s="4">
+        <v>1.41</v>
+      </c>
+      <c r="AM144" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="AN144" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="AO144" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="AP144" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="AQ144" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="AR144" s="4">
+        <v>5.12</v>
+      </c>
+      <c r="AS144" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AT144" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="AU144" s="4">
+        <v>3.03</v>
+      </c>
+      <c r="AV144" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="AW144" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AX144" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="AY144" s="4">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>338</v>
+      </c>
+      <c r="B145" t="s">
+        <v>339</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F145" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="G145" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H145" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="I145" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="J145" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="K145" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="L145" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="M145" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N145" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O145" s="4">
+        <v>0</v>
+      </c>
+      <c r="P145" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="4">
+        <v>0</v>
+      </c>
+      <c r="R145" s="4">
+        <v>0</v>
+      </c>
+      <c r="S145" s="4">
+        <v>0</v>
+      </c>
+      <c r="T145" s="4">
+        <v>0</v>
+      </c>
+      <c r="U145" s="4">
+        <v>0</v>
+      </c>
+      <c r="V145" s="4">
+        <v>0</v>
+      </c>
+      <c r="W145" s="4">
+        <v>0</v>
+      </c>
+      <c r="X145" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y145" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF145" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AG145" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="AH145" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="AI145" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="AJ145" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="AK145" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="AL145" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AM145" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="AN145" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="AO145" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="AP145" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="AQ145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR145" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="AS145" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AT145" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="AU145" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="AV145" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="AW145" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="AX145" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AY145" s="4">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="146" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>340</v>
+      </c>
+      <c r="B146" t="s">
+        <v>341</v>
+      </c>
+      <c r="C146" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0</v>
+      </c>
+      <c r="F146" s="4">
+        <v>0</v>
+      </c>
+      <c r="G146" s="4">
+        <v>0</v>
+      </c>
+      <c r="H146" s="4">
+        <v>0</v>
+      </c>
+      <c r="I146" s="4">
+        <v>0</v>
+      </c>
+      <c r="J146" s="4">
+        <v>0</v>
+      </c>
+      <c r="K146" s="4">
+        <v>0</v>
+      </c>
+      <c r="L146" s="4">
+        <v>0</v>
+      </c>
+      <c r="M146" s="4">
+        <v>0</v>
+      </c>
+      <c r="N146" s="4">
+        <v>0</v>
+      </c>
+      <c r="O146" s="4">
+        <v>0</v>
+      </c>
+      <c r="P146" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="4">
+        <v>0</v>
+      </c>
+      <c r="R146" s="4">
+        <v>0</v>
+      </c>
+      <c r="S146" s="4">
+        <v>0</v>
+      </c>
+      <c r="T146" s="4">
+        <v>0</v>
+      </c>
+      <c r="U146" s="4">
+        <v>0</v>
+      </c>
+      <c r="V146" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="W146" s="4">
+        <v>0</v>
+      </c>
+      <c r="X146" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y146" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB146" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AC146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM146" s="4">
+        <v>1.51</v>
+      </c>
+      <c r="AN146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO146" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="AP146" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="AQ146" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="AR146" s="4">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="AS146" s="4">
+        <v>12.53</v>
+      </c>
+      <c r="AT146" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="AU146" s="4">
+        <v>9.64</v>
+      </c>
+      <c r="AV146" s="4">
+        <v>6.18</v>
+      </c>
+      <c r="AW146" s="4">
+        <v>10.28</v>
+      </c>
+      <c r="AX146" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="AY146" s="4">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="147" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>342</v>
+      </c>
+      <c r="B147" t="s">
+        <v>343</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="4">
+        <v>0</v>
+      </c>
+      <c r="E147" s="4">
+        <v>0</v>
+      </c>
+      <c r="F147" s="4">
+        <v>0</v>
+      </c>
+      <c r="G147" s="4">
+        <v>0</v>
+      </c>
+      <c r="H147" s="4">
+        <v>0</v>
+      </c>
+      <c r="I147" s="4">
+        <v>0</v>
+      </c>
+      <c r="J147" s="4">
+        <v>0</v>
+      </c>
+      <c r="K147" s="4">
+        <v>0</v>
+      </c>
+      <c r="L147" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M147" s="4">
+        <v>0</v>
+      </c>
+      <c r="N147" s="4">
+        <v>0</v>
+      </c>
+      <c r="O147" s="4">
+        <v>0</v>
+      </c>
+      <c r="P147" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="4">
+        <v>0</v>
+      </c>
+      <c r="R147" s="4">
+        <v>0</v>
+      </c>
+      <c r="S147" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="T147" s="4">
+        <v>0</v>
+      </c>
+      <c r="U147" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="V147" s="4">
+        <v>0</v>
+      </c>
+      <c r="W147" s="4">
+        <v>0</v>
+      </c>
+      <c r="X147" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y147" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z147" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG147" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AH147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI147" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="AJ147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY147" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
